--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1800351594595271</v>
+        <v>-0.1811684524435522</v>
       </c>
       <c r="D6" t="n">
-        <v>3413.535714285714</v>
+        <v>3414.821428571428</v>
       </c>
       <c r="E6" t="n">
-        <v>4895.79971761509</v>
+        <v>4898.150089939204</v>
       </c>
       <c r="F6" t="n">
-        <v>11182.95276197159</v>
+        <v>11163.91828723711</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2922775073405025</v>
+        <v>0.2846385509020042</v>
       </c>
       <c r="D7" t="n">
-        <v>2774.346428571429</v>
+        <v>3054.484107142857</v>
       </c>
       <c r="E7" t="n">
-        <v>3791.470388307719</v>
+        <v>3811.877498524642</v>
       </c>
       <c r="F7" t="n">
-        <v>10752.39965721517</v>
+        <v>10720.92935905129</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3111199617088199</v>
+        <v>0.329082303855817</v>
       </c>
       <c r="D8" t="n">
-        <v>3273.945333658418</v>
+        <v>3202.627713256859</v>
       </c>
       <c r="E8" t="n">
-        <v>3740.657706902001</v>
+        <v>3691.567320265634</v>
       </c>
       <c r="F8" t="n">
-        <v>10552.20240135457</v>
+        <v>10553.8811961461</v>
       </c>
     </row>
     <row r="9">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.511907577624995</v>
+        <v>-2.506297897777692</v>
       </c>
       <c r="D17" t="n">
-        <v>15687.05058823529</v>
+        <v>15528.93294117647</v>
       </c>
       <c r="E17" t="n">
-        <v>28333.57894351153</v>
+        <v>28310.94084371685</v>
       </c>
       <c r="F17" t="n">
-        <v>21248.55728984653</v>
+        <v>21280.32230875181</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1851851042308499</v>
+        <v>-0.04125694726489382</v>
       </c>
       <c r="D18" t="n">
-        <v>7530.161952941176</v>
+        <v>8340.27277058823</v>
       </c>
       <c r="E18" t="n">
-        <v>13647.69714541079</v>
+        <v>15427.97237870193</v>
       </c>
       <c r="F18" t="n">
-        <v>17034.59776380833</v>
+        <v>16869.2162299085</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03221180567637494</v>
+        <v>-0.03221180567637449</v>
       </c>
       <c r="D19" t="n">
-        <v>7794.843457928708</v>
+        <v>7794.843457928706</v>
       </c>
       <c r="E19" t="n">
         <v>15360.81672918</v>
       </c>
       <c r="F19" t="n">
-        <v>16578.12554566063</v>
+        <v>16574.91385189889</v>
       </c>
     </row>
     <row r="20">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.286041430179832</v>
+        <v>-0.2898300233145135</v>
       </c>
       <c r="D28" t="n">
-        <v>29668.86058823529</v>
+        <v>29693.39</v>
       </c>
       <c r="E28" t="n">
-        <v>53135.9605188638</v>
+        <v>53214.1704764139</v>
       </c>
       <c r="F28" t="n">
-        <v>14985.9615103009</v>
+        <v>15008.36753730899</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.3513302125775544</v>
+        <v>-0.3560260797362651</v>
       </c>
       <c r="D29" t="n">
-        <v>29767.83297647059</v>
+        <v>29776.38447647059</v>
       </c>
       <c r="E29" t="n">
-        <v>54468.04643565274</v>
+        <v>54562.60248468236</v>
       </c>
       <c r="F29" t="n">
-        <v>15724.23805186832</v>
+        <v>15745.47005921477</v>
       </c>
     </row>
     <row r="30">
@@ -1158,7 +1158,7 @@
         <v>53869.74806494256</v>
       </c>
       <c r="F30" t="n">
-        <v>15508.98051252514</v>
+        <v>15506.86383039406</v>
       </c>
     </row>
     <row r="31">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.6343430967723187</v>
+        <v>-0.6416391153795582</v>
       </c>
       <c r="D39" t="n">
-        <v>3674.1475</v>
+        <v>3723.21</v>
       </c>
       <c r="E39" t="n">
-        <v>5701.410967570879</v>
+        <v>5714.122888043492</v>
       </c>
       <c r="F39" t="n">
-        <v>10177.89100993877</v>
+        <v>10397.99528643272</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +1389,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.1512712910307654</v>
+        <v>-0.01325218321087474</v>
       </c>
       <c r="D40" t="n">
-        <v>3618.37384375</v>
+        <v>3550.37145</v>
       </c>
       <c r="E40" t="n">
-        <v>4785.194201394468</v>
+        <v>4489.205687103864</v>
       </c>
       <c r="F40" t="n">
-        <v>7826.353407131201</v>
+        <v>7890.487871022155</v>
       </c>
     </row>
     <row r="41">
@@ -1422,7 +1422,7 @@
         <v>4637.145467611041</v>
       </c>
       <c r="F41" t="n">
-        <v>8483.592479933244</v>
+        <v>8393.495504985103</v>
       </c>
     </row>
     <row r="42">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.363813616533369</v>
+        <v>-0.255664354952692</v>
       </c>
       <c r="D50" t="n">
-        <v>4835.495625</v>
+        <v>4278.933125</v>
       </c>
       <c r="E50" t="n">
-        <v>9535.057430591662</v>
+        <v>9149.188703017948</v>
       </c>
       <c r="F50" t="n">
-        <v>9071.704020079276</v>
+        <v>9057.324359548209</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.07607494020653349</v>
+        <v>-0.07899370580607967</v>
       </c>
       <c r="D51" t="n">
-        <v>4326.1867125</v>
+        <v>4271.239875</v>
       </c>
       <c r="E51" t="n">
-        <v>8469.681144562352</v>
+        <v>8481.160025959472</v>
       </c>
       <c r="F51" t="n">
-        <v>8507.436010942361</v>
+        <v>8593.774037050875</v>
       </c>
     </row>
     <row r="52">
@@ -1686,7 +1686,7 @@
         <v>7952.988570848098</v>
       </c>
       <c r="F52" t="n">
-        <v>8060.49957727614</v>
+        <v>8063.677354298515</v>
       </c>
     </row>
     <row r="53">

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>CV R2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>CV RMSE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV MAE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CV RMSE por fold</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV R2 por fold</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV MAE por fold</t>
         </is>
       </c>
     </row>
@@ -486,7 +511,30 @@
         <v>17866.11471871991</v>
       </c>
       <c r="F2" t="n">
+        <v>-0.4551661395074511</v>
+      </c>
+      <c r="G2" t="n">
         <v>20544.3973470141</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10278.90186859302</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[-5.36936069e+08 -4.84330910e+07 -6.09596730e+07 -3.33792394e+08
+ -1.13024009e+09]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[-1.86960878 -0.19760903 -0.61686124  0.56700028 -0.15875192]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[ -9896.10244932  -6241.48337997  -5617.34017232 -11961.72526973
+ -17677.85807162]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,7 +558,30 @@
         <v>16105.62476659563</v>
       </c>
       <c r="F3" t="n">
+        <v>-0.07832849704789982</v>
+      </c>
+      <c r="G3" t="n">
         <v>17290.32578890672</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8779.121488817058</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-3.76445292e+08 -3.31225718e+07 -5.31551443e+07 -3.41162024e+08
+ -6.90891797e+08]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[-1.01187959  0.18097544 -0.40985816  0.5574403   0.29167952]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[ -8565.76416667  -4887.84967665  -5681.05342046 -11750.18556452
+ -13010.7546158 ]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -534,7 +605,30 @@
         <v>17855.20772481208</v>
       </c>
       <c r="F4" t="n">
+        <v>-0.3835476171442401</v>
+      </c>
+      <c r="G4" t="n">
         <v>19943.25743860208</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9807.728526960354</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-4.94040160e+08 -4.77261766e+07 -6.05320644e+07 -2.58806791e+08
+ -1.12756239e+09]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[-1.64035528 -0.1801291  -0.60551958  0.66427255 -0.15600669]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[ -8529.24449514  -6181.36508366  -5601.86556906 -11103.01550649
+ -17623.15198045]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -558,7 +652,30 @@
         <v>9785.653024225001</v>
       </c>
       <c r="F5" t="n">
+        <v>-0.001095598073094162</v>
+      </c>
+      <c r="G5" t="n">
         <v>18691.39407988569</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10303.0258197788</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-1.43475822e+08 -3.80155820e+07 -6.04523021e+07 -5.60340303e+08
+ -9.44557054e+08]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[ 0.23320577  0.05998558 -0.60340401  0.27311946  0.03161521]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[ -8349.24679487  -5397.95820809  -7216.00015016 -12770.67073553
+ -17781.25321025]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -573,16 +690,39 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3151992981837243</v>
+        <v>0.1939396840870856</v>
       </c>
       <c r="D6" t="n">
-        <v>4825.111666666666</v>
+        <v>5326.905</v>
       </c>
       <c r="E6" t="n">
-        <v>9986.512306379729</v>
+        <v>10834.66563782427</v>
       </c>
       <c r="F6" t="n">
-        <v>19283.09019497384</v>
+        <v>0.03412170666511516</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17891.92617630059</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8003.849047368421</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-5.06138936e+08 -6.17561279e+06 -2.78336720e+07 -5.37589130e+08
+ -5.22867760e+08]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[-1.70501615  0.84729511  0.26175481  0.30263257  0.46394219]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[ -9740.039       -1773.568       -3473.0635     -13288.75894737
+ -11743.81578947]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -597,16 +737,39 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1012572705983896</v>
+        <v>0.135952738150742</v>
       </c>
       <c r="D7" t="n">
-        <v>6534.2299547619</v>
+        <v>6019.953280952376</v>
       </c>
       <c r="E7" t="n">
-        <v>12664.15267161985</v>
+        <v>11217.61401277423</v>
       </c>
       <c r="F7" t="n">
-        <v>15261.02078546556</v>
+        <v>0.3461450699913592</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15120.50871324514</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6550.177976842104</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[-3.03644636e+08 -8.03532677e+06 -2.03188805e+07 -2.83993559e+08
+ -5.27156517e+08]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[-0.62280272  0.80130981  0.46107306  0.63159996  0.45954524]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[ -7083.292045    -2024.7389      -2838.875355    -9021.54457895
+ -11782.43900526]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -621,16 +784,39 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.423883474424807</v>
+        <v>0.4049979082762655</v>
       </c>
       <c r="D8" t="n">
-        <v>4606.557363264517</v>
+        <v>4704.874545321021</v>
       </c>
       <c r="E8" t="n">
-        <v>9159.819371077407</v>
+        <v>9308.74190943549</v>
       </c>
       <c r="F8" t="n">
-        <v>15802.04053968057</v>
+        <v>0.1941739742514308</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16183.67470087206</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6878.785482811317</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-4.01095363e+08 -7.93438434e+06 -2.71950342e+07 -2.67098117e+08
+ -6.06233735e+08]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[-1.14361978  0.80380583  0.27869369  0.65351694  0.3784732 ]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[ -7814.82794089  -2074.26619594  -3126.81742206  -8492.64880766
+ -12885.36704751]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -654,7 +840,30 @@
         <v>7381.815788899872</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4363103065024265</v>
+      </c>
+      <c r="G9" t="n">
         <v>14264.41864593009</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6212.615042119718</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-1.83873811e+08 -8.04407659e+06 -2.79335274e+07 -2.87937945e+08
+ -5.09578837e+08]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[0.01730218 0.80109346 0.2591063  0.62648325 0.47756635]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[ -5267.67803333  -1951.45250012  -3407.60198984  -9521.21791838
+ -10915.12476893]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -678,7 +887,30 @@
         <v>12584.07764949718</v>
       </c>
       <c r="F10" t="n">
+        <v>-0.1062014174225997</v>
+      </c>
+      <c r="G10" t="n">
         <v>21918.16352119195</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9820.227627208802</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
+ -1.23941045e+09]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
+ -19077.82253651]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -702,7 +934,30 @@
         <v>12584.07764949718</v>
       </c>
       <c r="F11" t="n">
+        <v>-0.1062014174225997</v>
+      </c>
+      <c r="G11" t="n">
         <v>21918.16352119195</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9820.227627208802</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
+ -1.23941045e+09]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
+ -19077.82253651]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -726,7 +981,30 @@
         <v>12543.43347378073</v>
       </c>
       <c r="F12" t="n">
+        <v>-0.1006732588117087</v>
+      </c>
+      <c r="G12" t="n">
         <v>21889.68805299561</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9794.523531732368</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[-2.04145448e+08 -3.97724889e+07 -3.86078033e+07 -8.76080697e+08
+ -1.23718578e+09]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[-0.09103784  0.01654239 -0.02401239 -0.13646298 -0.26839547]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[ -7642.83911925  -4746.31506427  -4212.31752338 -13319.68168976
+ -19051.464262  ]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,38 +502,38 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.191778943135376</v>
+        <v>-1.191779160026281</v>
       </c>
       <c r="D2" t="n">
-        <v>9747.494045567568</v>
+        <v>9747.457259750538</v>
       </c>
       <c r="E2" t="n">
-        <v>17866.11471871991</v>
+        <v>17866.11560270452</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4551661395074511</v>
+        <v>-0.4551661381186431</v>
       </c>
       <c r="G2" t="n">
-        <v>20544.3973470141</v>
+        <v>20544.39727538676</v>
       </c>
       <c r="H2" t="n">
-        <v>10278.90186859302</v>
+        <v>10278.90184040628</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-5.36936069e+08 -4.84330910e+07 -6.09596730e+07 -3.33792394e+08
+          <t>[-5.36936080e+08 -4.84330921e+07 -6.09596707e+07 -3.33792368e+08
  -1.13024009e+09]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[-1.86960878 -0.19760903 -0.61686124  0.56700028 -0.15875192]</t>
+          <t>[-1.86960885 -0.19760905 -0.61686118  0.56700031 -0.15875193]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[ -9896.10244932  -6241.48337997  -5617.34017232 -11961.72526973
- -17677.85807162]</t>
+          <t>[ -9896.10240574  -6241.48377845  -5617.34012575 -11961.72481999
+ -17677.85807211]</t>
         </is>
       </c>
     </row>
@@ -549,38 +549,38 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.7811137929032153</v>
+        <v>-0.7811135038951063</v>
       </c>
       <c r="D3" t="n">
-        <v>8855.467650887973</v>
+        <v>8855.464493685831</v>
       </c>
       <c r="E3" t="n">
-        <v>16105.62476659563</v>
+        <v>16105.62345992551</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07832849704789982</v>
+        <v>-0.07832636867183637</v>
       </c>
       <c r="G3" t="n">
-        <v>17290.32578890672</v>
+        <v>17290.32346778754</v>
       </c>
       <c r="H3" t="n">
-        <v>8779.121488817058</v>
+        <v>8779.115747629901</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-3.76445292e+08 -3.31225718e+07 -5.31551443e+07 -3.41162024e+08
+          <t>[-3.76445292e+08 -3.31225718e+07 -5.31547431e+07 -3.41162024e+08
  -6.90891797e+08]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[-1.01187959  0.18097544 -0.40985816  0.5574403   0.29167952]</t>
+          <t>[-1.01187959  0.18097544 -0.40984752  0.5574403   0.29167952]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[ -8565.76416667  -4887.84967665  -5681.05342046 -11750.18556452
- -13010.7546158 ]</t>
+          <t>[ -8565.76416386  -4887.84968104  -5681.0247185  -11750.18556298
+ -13010.75461177]</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>17855.20772481208</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3835476171442401</v>
+        <v>-0.38354761714424</v>
       </c>
       <c r="G4" t="n">
         <v>19943.25743860208</v>
@@ -690,38 +690,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1939396840870856</v>
+        <v>0.160688677823154</v>
       </c>
       <c r="D6" t="n">
-        <v>5326.905</v>
+        <v>5589.49880952381</v>
       </c>
       <c r="E6" t="n">
-        <v>10834.66563782427</v>
+        <v>11055.87917927197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03412170666511516</v>
+        <v>-0.01202178513521324</v>
       </c>
       <c r="G6" t="n">
-        <v>17891.92617630059</v>
+        <v>18678.59998461572</v>
       </c>
       <c r="H6" t="n">
-        <v>8003.849047368421</v>
+        <v>8265.572647368421</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-5.06138936e+08 -6.17561279e+06 -2.78336720e+07 -5.37589130e+08
- -5.22867760e+08]</t>
+          <t>[-5.06789192e+08 -1.19083116e+07 -2.57607087e+07 -5.28089041e+08
+ -6.71903234e+08]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[-1.70501615  0.84729511  0.26175481  0.30263257  0.46394219]</t>
+          <t>[-1.70849139  0.7055422   0.31673696  0.3149562   0.3111471 ]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[ -9740.039       -1773.568       -3473.0635     -13288.75894737
- -11743.81578947]</t>
+          <t>[ -9917.2135      -2332.8615      -3178.4635     -12616.44315789
+ -13282.88157895]</t>
         </is>
       </c>
     </row>
@@ -737,38 +737,38 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.135952738150742</v>
+        <v>0.2667827799071745</v>
       </c>
       <c r="D7" t="n">
-        <v>6019.953280952376</v>
+        <v>5683.118419047614</v>
       </c>
       <c r="E7" t="n">
-        <v>11217.61401277423</v>
+        <v>10333.51492798416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3461450699913592</v>
+        <v>0.37054827230222</v>
       </c>
       <c r="G7" t="n">
-        <v>15120.50871324514</v>
+        <v>15032.85774066459</v>
       </c>
       <c r="H7" t="n">
-        <v>6550.177976842104</v>
+        <v>6483.545771421052</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-3.03644636e+08 -8.03532677e+06 -2.03188805e+07 -2.83993559e+08
- -5.27156517e+08]</t>
+          <t>[-2.88786445e+08 -8.02524460e+06 -1.85820434e+07 -2.84849348e+08
+ -5.29690978e+08]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[-0.62280272  0.80130981  0.46107306  0.63159996  0.45954524]</t>
+          <t>[-0.5433944   0.80155912  0.50713998  0.63048982  0.45694685]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[ -7083.292045    -2024.7389      -2838.875355    -9021.54457895
- -11782.43900526]</t>
+          <t>[ -7037.863755    -2096.66447     -2724.67799     -9098.60597895
+ -11459.91666316]</t>
         </is>
       </c>
     </row>
@@ -784,38 +784,38 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4049979082762655</v>
+        <v>0.4328762177266555</v>
       </c>
       <c r="D8" t="n">
-        <v>4704.874545321021</v>
+        <v>4559.395693542933</v>
       </c>
       <c r="E8" t="n">
-        <v>9308.74190943549</v>
+        <v>9088.049273469329</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1941739742514308</v>
+        <v>0.1824812057294804</v>
       </c>
       <c r="G8" t="n">
-        <v>16183.67470087206</v>
+        <v>16160.67192591208</v>
       </c>
       <c r="H8" t="n">
-        <v>6878.785482811317</v>
+        <v>6996.381219108363</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-4.01095363e+08 -7.93438434e+06 -2.71950342e+07 -2.67098117e+08
- -6.06233735e+08]</t>
+          <t>[-4.08541864e+08 -7.83030482e+06 -2.84367527e+07 -2.70481201e+08
+ -5.90546463e+08]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[-1.14361978  0.80380583  0.27869369  0.65351694  0.3784732 ]</t>
+          <t>[-1.18341696  0.80637941  0.24575903  0.64912836  0.3945562 ]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[ -7814.82794089  -2074.26619594  -3126.81742206  -8492.64880766
- -12885.36704751]</t>
+          <t>[ -7910.78035296  -2054.01274835  -3212.11590815  -8928.71489846
+ -12876.28218763]</t>
         </is>
       </c>
     </row>
@@ -874,133 +874,227 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5062336308909425</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9402.940989458264</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14810.77939627252</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.7411596952515552</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19530.44383360109</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10822.51912859489</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-2.76605469e+08 -5.80258760e+07 -1.58249892e+08 -5.34481653e+08
+ -8.79828292e+08]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[-0.47829421 -0.43481061 -3.19733412  0.30666363  0.09797685]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[-10018.5647826   -5643.43607803  -9006.64071117 -11911.40488544
+ -17532.54918574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4032481595475715</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4812.576743866931</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9322.419174141065</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3522514500934445</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14858.62242451191</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6530.750213051405</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-2.70000843e+08 -1.13316167e+07 -2.45974495e+07 -1.65618951e+08
+ -6.32344441e+08]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[-0.44299636  0.71980218  0.34759062  0.785157    0.35170381]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[ -5841.93850766  -2563.5335398   -3167.97967961  -8365.2116056
+ -12715.08773258]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>SVR (Linear Kernel)</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>-0.08737487153970336</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>7003.501188517066</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E12" t="n">
         <v>12584.07764949718</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>-0.1062014174225997</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>21918.16352119195</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>9820.227627208802</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
  -1.23941045e+09]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
  -19077.82253651]</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dataset 1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>SVR (RBF Kernel)</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>-0.08737487153970336</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>7003.501188517066</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>12584.07764949718</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F13" t="n">
         <v>-0.1062014174225997</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
         <v>21918.16352119195</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>9820.227627208802</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
  -1.23941045e+09]</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
  -19077.82253651]</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Dataset 1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>SVR (Sigmoid Kernel)</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>-0.08036218691983588</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>6964.719479724569</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>12543.43347378073</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>-0.1006732588117087</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>21889.68805299561</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>9794.523531732368</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[-2.04145448e+08 -3.97724889e+07 -3.86078033e+07 -8.76080697e+08
  -1.23718578e+09]</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[-0.09103784  0.01654239 -0.02401239 -0.13646298 -0.26839547]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[ -7642.83911925  -4746.31506427  -4212.31752338 -13319.68168976
  -19051.464262  ]</t>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Encoder</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MAE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CV R2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CV RMSE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CV MAE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CV RMSE por fold</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CV R2 por fold</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CV MAE por fold</t>
         </is>
@@ -498,39 +503,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Regressao Linear</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-1.191779160026281</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>9747.457259750538</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>17866.11560270452</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.4551661381186431</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>20544.39727538676</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>10278.90184040628</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>[-5.36936080e+08 -4.84330921e+07 -6.09596707e+07 -3.33792368e+08
  -1.13024009e+09]</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>[-1.86960885 -0.19760905 -0.61686118  0.56700031 -0.15875193]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>[ -9896.10240574  -6241.48377845  -5617.34012575 -11961.72481999
  -17677.85807211]</t>
@@ -545,39 +555,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Ridge</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.7811135038951063</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>8855.464493685831</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>16105.62345992551</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.07832636867183637</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>17290.32346778754</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>8779.115747629901</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[-3.76445292e+08 -3.31225718e+07 -5.31547431e+07 -3.41162024e+08
  -6.90891797e+08]</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[-1.01187959  0.18097544 -0.40984752  0.5574403   0.29167952]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[ -8565.76416386  -4887.84968104  -5681.0247185  -11750.18556298
  -13010.75461177]</t>
@@ -592,39 +607,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Lasso</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-1.189103663936121</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>9732.808719593968</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>17855.20772481208</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.38354761714424</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>19943.25743860208</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9807.728526960354</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[-4.94040160e+08 -4.77261766e+07 -6.05320644e+07 -2.58806791e+08
  -1.12756239e+09]</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[-1.64035528 -0.1801291  -0.60551958  0.66427255 -0.15600669]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[ -8529.24449514  -6181.36508366  -5601.86556906 -11103.01550649
  -17623.15198045]</t>
@@ -639,39 +659,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>ElasticNet</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.342469142165772</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>7397.197215428671</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9785.653024225001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.001095598073094162</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>18691.39407988569</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>10303.0258197788</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[-1.43475822e+08 -3.80155820e+07 -6.04523021e+07 -5.60340303e+08
  -9.44557054e+08]</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[ 0.23320577  0.05998558 -0.60340401  0.27311946  0.03161521]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[ -8349.24679487  -5397.95820809  -7216.00015016 -12770.67073553
  -17781.25321025]</t>
@@ -686,42 +711,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Arvore de Decisao</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.160688677823154</v>
-      </c>
       <c r="D6" t="n">
-        <v>5589.49880952381</v>
+        <v>0.1902533389644809</v>
       </c>
       <c r="E6" t="n">
-        <v>11055.87917927197</v>
+        <v>5341.505476190476</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01202178513521324</v>
+        <v>10859.41239407207</v>
       </c>
       <c r="G6" t="n">
-        <v>18678.59998461572</v>
+        <v>0.3410851386779976</v>
       </c>
       <c r="H6" t="n">
-        <v>8265.572647368421</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[-5.06789192e+08 -1.19083116e+07 -2.57607087e+07 -5.28089041e+08
- -6.71903234e+08]</t>
-        </is>
+        <v>16353.68763897397</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7251.092378947369</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[-1.70849139  0.7055422   0.31673696  0.3149562   0.3111471 ]</t>
+          <t>[-1.46487313e+08 -2.11219306e+07 -2.59618498e+07 -4.71749195e+08
+ -6.71895209e+08]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[ -9917.2135      -2332.8615      -3178.4635     -12616.44315789
- -13282.88157895]</t>
+          <t>[0.21711111 0.47771628 0.31140201 0.38804097 0.31115532]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[ -5674.2225      -3103.968       -3192.9135     -11036.85526316
+ -13247.50263158]</t>
         </is>
       </c>
     </row>
@@ -733,42 +763,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.2667827799071745</v>
-      </c>
       <c r="D7" t="n">
-        <v>5683.118419047614</v>
+        <v>-0.2128334802360237</v>
       </c>
       <c r="E7" t="n">
-        <v>10333.51492798416</v>
+        <v>6786.339497619042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.37054827230222</v>
+        <v>13290.22494555015</v>
       </c>
       <c r="G7" t="n">
-        <v>15032.85774066459</v>
+        <v>0.344922087615741</v>
       </c>
       <c r="H7" t="n">
-        <v>6483.545771421052</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[-2.88786445e+08 -8.02524460e+06 -1.85820434e+07 -2.84849348e+08
- -5.29690978e+08]</t>
-        </is>
+        <v>14918.77776147562</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6402.480938157893</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[-0.5433944   0.80155912  0.50713998  0.63048982  0.45694685]</t>
+          <t>[-3.14597134e+08 -8.58957120e+06 -1.92263023e+07 -3.00887103e+08
+ -4.69549539e+08]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[ -7037.863755    -2096.66447     -2724.67799     -9098.60597895
- -11459.91666316]</t>
+          <t>[-0.68133741  0.78760497  0.49005201  0.60968544  0.51860544]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[ -7387.206105    -2065.758205    -2802.203865    -8930.18904737
+ -10827.04746842]</t>
         </is>
       </c>
     </row>
@@ -780,42 +815,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Gradient Boosting</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.4328762177266555</v>
-      </c>
       <c r="D8" t="n">
-        <v>4559.395693542933</v>
+        <v>0.415519116077802</v>
       </c>
       <c r="E8" t="n">
-        <v>9088.049273469329</v>
+        <v>4631.970034285237</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1824812057294804</v>
+        <v>9226.073263353755</v>
       </c>
       <c r="G8" t="n">
-        <v>16160.67192591208</v>
+        <v>0.2470576331221443</v>
       </c>
       <c r="H8" t="n">
-        <v>6996.381219108363</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[-4.08541864e+08 -7.83030482e+06 -2.84367527e+07 -2.70481201e+08
- -5.90546463e+08]</t>
-        </is>
+        <v>16070.29642638487</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6924.740470993594</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[-1.18341696  0.80637941  0.24575903  0.64912836  0.3945562 ]</t>
+          <t>[-3.42753814e+08 -6.49125207e+06 -2.81805786e+07 -3.23684957e+08
+ -5.90161535e+08]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[ -7910.78035296  -2054.01274835  -3212.11590815  -8928.71489846
- -12876.28218763]</t>
+          <t>[-0.83181837  0.83949028  0.25255365  0.58011177  0.39495084]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[ -7224.71615991  -1968.30782832  -3138.92935799  -9450.7585784
+ -12840.99043035]</t>
         </is>
       </c>
     </row>
@@ -827,39 +867,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.6258352068970525</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>3682.10621673584</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7381.815788899872</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.4363103065024265</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>14264.41864593009</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>6212.615042119718</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[-1.83873811e+08 -8.04407659e+06 -2.79335274e+07 -2.87937945e+08
  -5.09578837e+08]</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[0.01730218 0.80109346 0.2591063  0.62648325 0.47756635]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[ -5267.67803333  -1951.45250012  -3407.60198984  -9521.21791838
  -10915.12476893]</t>
@@ -874,39 +919,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>LightGBM</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.5062336308909425</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>9402.940989458264</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>14810.77939627252</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.7411596952515552</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>19530.44383360109</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>10822.51912859489</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[-2.76605469e+08 -5.80258760e+07 -1.58249892e+08 -5.34481653e+08
  -8.79828292e+08]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[-0.47829421 -0.43481061 -3.19733412  0.30666363  0.09797685]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[-10018.5647826   -5643.43607803  -9006.64071117 -11911.40488544
  -17532.54918574]</t>
@@ -921,39 +971,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>CatBoost</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.4032481595475715</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>4812.576743866931</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>9322.419174141065</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.3522514500934445</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>14858.62242451191</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>6530.750213051405</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[-2.70000843e+08 -1.13316167e+07 -2.45974495e+07 -1.65618951e+08
  -6.32344441e+08]</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[-0.44299636  0.71980218  0.34759062  0.785157    0.35170381]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[ -5841.93850766  -2563.5335398   -3167.97967961  -8365.2116056
  -12715.08773258]</t>
@@ -968,92 +1023,102 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>SVR (Linear Kernel)</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
+        <v>-0.03328874256371361</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6629.315706845121</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12267.11939030785</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.06225202916850434</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21703.08592950889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9565.182123314622</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[-2.03477029e+08 -3.58466103e+07 -3.67546654e+07 -8.49541734e+08
+ -1.22949965e+09]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[-0.08746554  0.11361792  0.02513923 -0.1020363  -0.26051545]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[ -7477.32311968  -4481.13756644  -4034.60548982 -12960.55953361
+ -18872.28490702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>-0.08737487153970336</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E13" t="n">
         <v>7003.501188517066</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F13" t="n">
         <v>12584.07764949718</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G13" t="n">
         <v>-0.1062014174225997</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H13" t="n">
         <v>21918.16352119195</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I13" t="n">
         <v>9820.227627208802</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
  -1.23941045e+09]</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
  -19077.82253651]</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dataset 1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SVR (RBF Kernel)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.08737487153970336</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7003.501188517066</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12584.07764949718</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1062014174225997</v>
-      </c>
-      <c r="G13" t="n">
-        <v>21918.16352119195</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9820.227627208802</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
- -1.23941045e+09]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
- -19077.82253651]</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -1062,42 +1127,723 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>onehot</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>SVR (Sigmoid Kernel)</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.08036218691983588</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>6964.719479724569</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>12543.43347378073</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-0.1006732588117087</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>21889.68805299561</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>9794.523531732368</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[-2.04145448e+08 -3.97724889e+07 -3.86078033e+07 -8.76080697e+08
  -1.23718578e+09]</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[-0.09103784  0.01654239 -0.02401239 -0.13646298 -0.26839547]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[ -7642.83911925  -4746.31506427  -4212.31752338 -13319.68168976
  -19051.464262  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1793441791182908</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7881.796727534091</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10932.31835981938</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.071502106997759</v>
+      </c>
+      <c r="H15" t="n">
+        <v>19767.79784084156</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11966.18694274079</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[-1.77321995e+08 -1.44358553e+08 -1.56867946e+08 -6.14316745e+08
+ -8.60963918e+08]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[ 0.0523178  -2.56956583 -3.16068014  0.20310053  0.1173171 ]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[ -9441.97226084  -8473.78207357 -10329.45107975 -14510.23178414
+ -17075.4975154 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2230231644545568</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7882.179212757857</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10637.40706170515</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.070918593530145</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19379.03658784059</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11804.54454016315</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[-1.70814114e+08 -1.36291958e+08 -1.69489678e+08 -5.13451658e+08
+ -8.87687887e+08]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[ 0.08709861 -2.37010246 -3.49545211  0.333944    0.08991898]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[ -9237.30079536  -8157.00373553 -10957.01500439 -12919.94737596
+ -17751.45578958]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1798503143642369</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7879.414542172697</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10928.94661437372</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.070581424653915</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19755.85107155388</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11962.4296129948</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[-1.77305126e+08 -1.44308307e+08 -1.56858350e+08 -6.11836845e+08
+ -8.61159629e+08]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[ 0.05240795 -2.56832339 -3.16042563  0.20631749  0.11711645]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[ -9442.20016894  -8472.58377175 -10332.32324201 -14492.66192141
+ -17072.37896086]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2359754165468076</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7336.998857443184</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10548.37132637588</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.8586036765137587</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19779.04011481213</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11453.89266690852</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[-1.55293837e+08 -9.48473634e+07 -1.65150651e+08 -5.80069792e+08
+ -9.60690496e+08]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[ 0.1700454  -1.34529856 -3.38036612  0.24752611  0.01507478]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[ -8370.12745717  -6656.77180131 -10639.6505096  -12713.39464602
+ -18889.51892044]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5063441948176337</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3797.957857142856</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8478.985008420328</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.141421647532166</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18601.76005442271</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7955.690015789473</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[-9.82575261e+08 -8.42119246e+06 -3.69775557e+08 -2.24969822e+08
+ -1.44385553e+08]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[-4.25128924  0.79176848 -8.8077259   0.7081663   0.85197213]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[-13546.119       -2162.204       -6538.2055      -9714.35736842
+  -7817.56421053]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.3364398029087947</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7344.0557047619</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13951.03550477201</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.9483667510981559</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14730.45671902975</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6778.367555105258</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[-2.98209087e+08 -9.08638354e+06 -2.76761187e+08 -2.54525340e+08
+ -2.46349777e+08]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[-0.5937529   0.77532025 -6.34066332  0.6698265   0.74743572]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[-7674.88725    -2295.45164    -5946.562175   -8358.90164737
+ -9616.03506316]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.07565092407926532</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6495.82139300822</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12516.05377663962</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.098920191617777</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14033.75992326731</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6489.434073618047</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[-2.84375893e+08 -7.65295976e+06 -3.15478403e+08 -1.14801611e+08
+ -2.62423221e+08]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[-0.51982258  0.81076463 -7.36757771  0.8510779   0.7309568 ]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[ -6599.69333075  -2239.15570241  -6853.2380467   -6542.45944093
+ -10212.62384729]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3840503604608698</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4483.48761441912</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9471.185569398307</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.358780385582489</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13882.34548512351</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6615.869484757915</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[-2.57935248e+08 -1.31018386e+07 -3.66423170e+08 -1.40614649e+08
+ -1.85522675e+08]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[-0.37851282  0.67602976 -8.71880903  0.8175929   0.80979726]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[-7118.43301685 -2715.17663953 -6551.84894037 -7759.36063986
+ -8934.52818719]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.221424720562138</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9244.704704309386</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13337.21327104575</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.6162352992704719</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18603.13994849129</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10767.88651626235</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[-2.68957327e+08 -8.19447129e+07 -1.19554363e+08 -5.69136915e+08
+ -6.90790762e+08]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[-0.43741937 -1.02625366 -2.17099495  0.26170838  0.2917831 ]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[-10225.42836897  -6197.53710882  -8005.46944396 -13826.62474867
+ -15584.37291089]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3422212640109197</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5271.35977412747</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9787.497364321365</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2949506147962433</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10828.20358026546</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5601.215213592752</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[-9.19208325e+07 -1.24012758e+07 -8.61273568e+07 -1.36610705e+08
+ -2.59189794e+08]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[ 0.50873699  0.69335263 -1.2843952   0.82278686  0.73427179]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[-4552.33951582 -2604.53564337 -4254.73999135 -7748.52329999
+ -8845.93761743]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.004669956856544921</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6401.797175244348</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12096.04658975622</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.07891610895017079</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21777.67178506815</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9524.896983813527</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[-2.08255655e+08 -3.45142922e+07 -3.96870276e+07 -8.60074184e+08
+ -1.22880378e+09]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[-0.11300449  0.14656226 -0.05263715 -0.11569913 -0.25980202]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[ -7347.64219923  -4142.74045595  -4105.91700643 -13022.72298743
+ -19005.46227002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.08837499942213611</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7020.831846484198</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12589.86350800241</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.1079539275646776</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21911.00959004555</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9818.659239470415</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[-2.04762804e+08 -4.03674508e+07 -3.91542982e+07 -8.79438312e+08
+ -1.23673884e+09]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[-0.09433725  0.00183072 -0.03850733 -0.14081852 -0.26793726]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[ -7659.15175107  -4768.43299282  -4222.42677213 -13371.56783695
+ -19071.71684439]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.09101652355645018</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7025.543332458004</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12605.13226837616</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.1097108296855151</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21925.73538015443</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9830.934588235679</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[-2.04924257e+08 -4.04818357e+07 -3.92261461e+07 -8.80302196e+08
+ -1.23875492e+09]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[-0.09520012 -0.00099768 -0.04041298 -0.14193917 -0.2700042 ]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[ -7667.43979455  -4786.52320417  -4234.73977455 -13381.79287811
+ -19084.17728978]</t>
         </is>
       </c>
     </row>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,38 +512,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.191779160026281</v>
+        <v>0.3637007023772486</v>
       </c>
       <c r="E2" t="n">
-        <v>9747.457259750538</v>
+        <v>1359.403337559624</v>
       </c>
       <c r="F2" t="n">
-        <v>17866.11560270452</v>
+        <v>2443.518208291927</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4551661381186431</v>
+        <v>0.2450165869887393</v>
       </c>
       <c r="H2" t="n">
-        <v>20544.39727538676</v>
+        <v>2816.742949764204</v>
       </c>
       <c r="I2" t="n">
-        <v>10278.90184040628</v>
+        <v>1527.504056685391</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[-5.36936080e+08 -4.84330921e+07 -6.09596707e+07 -3.33792368e+08
- -1.13024009e+09]</t>
+          <t>[-10857417.46080197 -10172348.84330518  -7108460.70785512
+  -4699413.02711611  -6832564.18615337]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[-1.86960885 -0.19760905 -0.61686118  0.56700031 -0.15875193]</t>
+          <t>[0.39213972 0.25404521 0.07722352 0.20773125 0.29394324]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[ -9896.10240574  -6241.48377845  -5617.34012575 -11961.72481999
- -17677.85807211]</t>
+          <t>[-1704.89357022 -1570.26079203 -1568.95720887 -1385.14718872
+ -1408.26152358]</t>
         </is>
       </c>
     </row>
@@ -564,38 +564,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.7811135038951063</v>
+        <v>0.3465656542175181</v>
       </c>
       <c r="E3" t="n">
-        <v>8855.464493685831</v>
+        <v>1350.756121257281</v>
       </c>
       <c r="F3" t="n">
-        <v>16105.62345992551</v>
+        <v>2476.200669748001</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07832636867183637</v>
+        <v>0.2708386209746564</v>
       </c>
       <c r="H3" t="n">
-        <v>17290.32346778754</v>
+        <v>2779.530533181231</v>
       </c>
       <c r="I3" t="n">
-        <v>8779.115747629901</v>
+        <v>1473.301915964293</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[-3.76445292e+08 -3.31225718e+07 -5.31547431e+07 -3.41162024e+08
- -6.90891797e+08]</t>
+          <t>[-10983800.36198915  -9800036.22126423  -6655489.99357756
+  -4474073.35081207  -6715549.99679071]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[-1.01187959  0.18097544 -0.40984752  0.5574403   0.29167952]</t>
+          <t>[0.38506408 0.28134749 0.13602538 0.24572101 0.30603514]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[ -8565.76416386  -4887.84968104  -5681.0247185  -11750.18556298
- -13010.75461177]</t>
+          <t>[-1635.17180963 -1530.64350962 -1503.94778329 -1340.98331259
+ -1355.76316469]</t>
         </is>
       </c>
     </row>
@@ -616,38 +616,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.189103663936121</v>
+        <v>0.3631380827872364</v>
       </c>
       <c r="E4" t="n">
-        <v>9732.808719593968</v>
+        <v>1293.778358927309</v>
       </c>
       <c r="F4" t="n">
-        <v>17855.20772481208</v>
+        <v>2444.598256200787</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.38354761714424</v>
+        <v>0.2627666365996696</v>
       </c>
       <c r="H4" t="n">
-        <v>19943.25743860208</v>
+        <v>2787.333508619871</v>
       </c>
       <c r="I4" t="n">
-        <v>9807.728526960354</v>
+        <v>1426.829463415926</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[-4.94040160e+08 -4.77261766e+07 -6.05320644e+07 -2.58806791e+08
- -1.12756239e+09]</t>
+          <t>[-10648691.1543616  -10039465.57238786  -6874489.81407488
+  -4526700.23302349  -6756793.66752796]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[-1.64035528 -0.1801291  -0.60551958  0.66427255 -0.15600669]</t>
+          <t>[0.40382541 0.26378975 0.10759618 0.2368487  0.30177314]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[ -8529.24449514  -6181.36508366  -5601.86556906 -11103.01550649
- -17623.15198045]</t>
+          <t>[-1597.85085581 -1468.25599283 -1473.66340717 -1293.82267797
+ -1300.55438331]</t>
         </is>
       </c>
     </row>
@@ -668,38 +668,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.342469142165772</v>
+        <v>0.09136184800287006</v>
       </c>
       <c r="E5" t="n">
-        <v>7397.197215428671</v>
+        <v>1362.646682834279</v>
       </c>
       <c r="F5" t="n">
-        <v>9785.653024225001</v>
+        <v>2919.983125682414</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001095598073094162</v>
+        <v>0.1026980304295909</v>
       </c>
       <c r="H5" t="n">
-        <v>18691.39407988569</v>
+        <v>3145.84684173973</v>
       </c>
       <c r="I5" t="n">
-        <v>10303.0258197788</v>
+        <v>1441.700279301547</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[-1.43475822e+08 -3.80155820e+07 -6.04523021e+07 -5.60340303e+08
- -9.44557054e+08]</t>
+          <t>[-16377563.21184384 -12443846.26276871  -6993736.38796142
+  -5163407.71147194  -8503208.18437326]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[ 0.23320577  0.05998558 -0.60340401  0.27311946  0.03161521]</t>
+          <t>[0.08309041 0.08747263 0.09211632 0.12950691 0.12130389]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[ -8349.24679487  -5397.95820809  -7216.00015016 -12770.67073553
- -17781.25321025]</t>
+          <t>[-1704.55023045 -1520.90309057 -1374.77977156 -1235.60858414
+ -1372.65971978]</t>
         </is>
       </c>
     </row>
@@ -720,38 +720,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1902533389644809</v>
+        <v>0.4826255469141713</v>
       </c>
       <c r="E6" t="n">
-        <v>5341.505476190476</v>
+        <v>811.6219756961431</v>
       </c>
       <c r="F6" t="n">
-        <v>10859.41239407207</v>
+        <v>2203.369573003884</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3410851386779976</v>
+        <v>-0.2385748807143094</v>
       </c>
       <c r="H6" t="n">
-        <v>16353.68763897397</v>
+        <v>3534.49009913668</v>
       </c>
       <c r="I6" t="n">
-        <v>7251.092378947369</v>
+        <v>1143.509060522626</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[-1.46487313e+08 -2.11219306e+07 -2.59618498e+07 -4.71749195e+08
- -6.71895209e+08]</t>
+          <t>[-18281414.52062094 -13185449.19614461  -8476551.19174238
+ -11876678.5289201  -10643007.86704805]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.21711111 0.47771628 0.31140201 0.38804097 0.31115532]</t>
+          <t>[-0.02349807  0.03308969 -0.10037354 -1.00227587 -0.09981661]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[ -5674.2225      -3103.968       -3192.9135     -11036.85526316
- -13247.50263158]</t>
+          <t>[-1468.65996601 -1102.01001571 -1071.47609226 -1092.3105023
+  -983.08872633]</t>
         </is>
       </c>
     </row>
@@ -772,38 +772,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2128334802360237</v>
+        <v>0.4997038994942687</v>
       </c>
       <c r="E7" t="n">
-        <v>6786.339497619042</v>
+        <v>845.6365655948883</v>
       </c>
       <c r="F7" t="n">
-        <v>13290.22494555015</v>
+        <v>2166.69817038607</v>
       </c>
       <c r="G7" t="n">
-        <v>0.344922087615741</v>
+        <v>0.1874750160486846</v>
       </c>
       <c r="H7" t="n">
-        <v>14918.77776147562</v>
+        <v>2891.796115706427</v>
       </c>
       <c r="I7" t="n">
-        <v>6402.480938157893</v>
+        <v>1009.339525010073</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[-3.14597134e+08 -8.58957120e+06 -1.92263023e+07 -3.00887103e+08
- -4.69549539e+08]</t>
+          <t>[-11515106.7608824  -10079226.79403951  -7619570.38083548
+  -5943101.64116601  -6655418.29715049]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[-0.68133741  0.78760497  0.49005201  0.60968544  0.51860544]</t>
+          <t>[ 0.35531851  0.260874    0.01087442 -0.00194082  0.31224897]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[ -7387.206105    -2065.758205    -2802.203865    -8930.18904737
- -10827.04746842]</t>
+          <t>[-1253.22645945 -1031.47333957  -956.7228708   -902.80966494
+  -902.46529031]</t>
         </is>
       </c>
     </row>
@@ -824,38 +824,39 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.415519116077802</v>
+        <v>0.4623771576710093</v>
       </c>
       <c r="E8" t="n">
-        <v>4631.970034285237</v>
+        <v>1068.957886968166</v>
       </c>
       <c r="F8" t="n">
-        <v>9226.073263353755</v>
+        <v>2246.072207348774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2470576331221443</v>
+        <v>0.2047516159873858</v>
       </c>
       <c r="H8" t="n">
-        <v>16070.29642638487</v>
+        <v>2874.678853763635</v>
       </c>
       <c r="I8" t="n">
-        <v>6924.740470993594</v>
+        <v>1189.555803537321</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[-3.42753814e+08 -6.49125207e+06 -2.81805786e+07 -3.23684957e+08
- -5.90161535e+08]</t>
+          <t>[-11550725.4102504   -9688741.38954905  -7700954.21494526
+  -5214113.84002944  -7164357.70660487]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[-0.83181837  0.83949028  0.25255365  0.58011177  0.39495084]</t>
+          <t>[3.53324375e-01 2.89508925e-01 3.09669678e-04 1.20958416e-01
+ 2.59656694e-01]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[ -7224.71615991  -1968.30782832  -3138.92935799  -9450.7585784
- -12840.99043035]</t>
+          <t>[-1423.25148946 -1188.75314377 -1182.88999231 -1055.87151683
+ -1097.01287532]</t>
         </is>
       </c>
     </row>
@@ -876,38 +877,38 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6258352068970525</v>
+        <v>0.4773345836526366</v>
       </c>
       <c r="E9" t="n">
-        <v>3682.10621673584</v>
+        <v>921.2469383090279</v>
       </c>
       <c r="F9" t="n">
-        <v>7381.815788899872</v>
+        <v>2214.607365708936</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4363103065024265</v>
+        <v>0.2946508710906291</v>
       </c>
       <c r="H9" t="n">
-        <v>14264.41864593009</v>
+        <v>2624.029528414364</v>
       </c>
       <c r="I9" t="n">
-        <v>6212.615042119718</v>
+        <v>1002.502499629306</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[-1.83873811e+08 -8.04407659e+06 -2.79335274e+07 -2.87937945e+08
- -5.09578837e+08]</t>
+          <t>[-8838189.24250673 -8056866.26743571 -6570182.54580689 -6978901.84682448
+ -3983514.92737873]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[0.01730218 0.80109346 0.2591063  0.62648325 0.47756635]</t>
+          <t>[ 0.50518765  0.40917697  0.14709947 -0.17656521  0.58835548]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[ -5267.67803333  -1951.45250012  -3407.60198984  -9521.21791838
- -10915.12476893]</t>
+          <t>[-1195.35197686 -1043.8656782   -950.25943271  -989.23881708
+  -833.7965933 ]</t>
         </is>
       </c>
     </row>
@@ -928,38 +929,38 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5062336308909425</v>
+        <v>0.5449233305295333</v>
       </c>
       <c r="E10" t="n">
-        <v>9402.940989458264</v>
+        <v>987.7141120111936</v>
       </c>
       <c r="F10" t="n">
-        <v>14810.77939627252</v>
+        <v>2066.460666207457</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7411596952515552</v>
+        <v>0.3168509829689449</v>
       </c>
       <c r="H10" t="n">
-        <v>19530.44383360109</v>
+        <v>2690.267657475169</v>
       </c>
       <c r="I10" t="n">
-        <v>10822.51912859489</v>
+        <v>1169.61798212249</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[-2.76605469e+08 -5.80258760e+07 -1.58249892e+08 -5.34481653e+08
- -8.79828292e+08]</t>
+          <t>[-10576542.63346839  -9299341.37745446  -6960042.72255747
+  -4165090.76245168  -5186682.84835267]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[-0.47829421 -0.43481061 -3.19733412  0.30666363  0.09797685]</t>
+          <t>[0.40786469 0.31806426 0.09649023 0.29781204 0.4640237 ]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[-10018.5647826   -5643.43607803  -9006.64071117 -11911.40488544
- -17532.54918574]</t>
+          <t>[-1372.07297635 -1259.93761492 -1154.98764454 -1005.60182584
+ -1055.48984896]</t>
         </is>
       </c>
     </row>
@@ -980,38 +981,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4032481595475715</v>
+        <v>0.5860936844489558</v>
       </c>
       <c r="E11" t="n">
-        <v>4812.576743866931</v>
+        <v>899.9137651643006</v>
       </c>
       <c r="F11" t="n">
-        <v>9322.419174141065</v>
+        <v>1970.769735014384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3522514500934445</v>
+        <v>0.4137877476540349</v>
       </c>
       <c r="H11" t="n">
-        <v>14858.62242451191</v>
+        <v>2428.832435701565</v>
       </c>
       <c r="I11" t="n">
-        <v>6530.750213051405</v>
+        <v>994.4156939837679</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[-2.70000843e+08 -1.13316167e+07 -2.45974495e+07 -1.65618951e+08
- -6.32344441e+08]</t>
+          <t>[-7292254.02055366 -7118757.38861865 -6042588.93326105 -4320629.4531068
+ -4721905.20803983]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[-0.44299636  0.71980218  0.34759062  0.785157    0.35170381]</t>
+          <t>[0.59173794 0.47797001 0.21558841 0.27158994 0.51205243]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[ -5841.93850766  -2563.5335398   -3167.97967961  -8365.2116056
- -12715.08773258]</t>
+          <t>[-1118.04667078 -1035.41890816  -995.94759485  -927.89744218
+  -894.76785395]</t>
         </is>
       </c>
     </row>
@@ -1032,38 +1033,38 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.03328874256371361</v>
+        <v>-0.005796476814591722</v>
       </c>
       <c r="E12" t="n">
-        <v>6629.315706845121</v>
+        <v>978.6295743306747</v>
       </c>
       <c r="F12" t="n">
-        <v>12267.11939030785</v>
+        <v>3072.132287395591</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06225202916850434</v>
+        <v>-0.005167692482741892</v>
       </c>
       <c r="H12" t="n">
-        <v>21703.08592950889</v>
+        <v>3325.302883096542</v>
       </c>
       <c r="I12" t="n">
-        <v>9565.182123314622</v>
+        <v>1056.989268857788</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[-2.03477029e+08 -3.58466103e+07 -3.67546654e+07 -8.49541734e+08
- -1.22949965e+09]</t>
+          <t>[-18133744.41149002 -13827090.37165851  -7787913.88376387
+  -5821534.07822253  -9717913.57651595]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[-0.08746554  0.11361792  0.02513923 -0.1020363  -0.26051545]</t>
+          <t>[-0.01523065 -0.0139629  -0.0109789   0.01855412 -0.00422014]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[ -7477.32311968  -4481.13756644  -4034.60548982 -12960.55953361
- -18872.28490702]</t>
+          <t>[-1357.47525427 -1135.33868612  -972.75789519  -815.33457383
+ -1004.03993488]</t>
         </is>
       </c>
     </row>
@@ -1084,38 +1085,38 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.08737487153970336</v>
+        <v>-0.0698329142205294</v>
       </c>
       <c r="E13" t="n">
-        <v>7003.501188517066</v>
+        <v>1027.742675270381</v>
       </c>
       <c r="F13" t="n">
-        <v>12584.07764949718</v>
+        <v>3168.420651021299</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1062014174225997</v>
+        <v>-0.07952577207297748</v>
       </c>
       <c r="H13" t="n">
-        <v>21918.16352119195</v>
+        <v>3437.87387231447</v>
       </c>
       <c r="I13" t="n">
-        <v>9820.227627208802</v>
+        <v>1121.071921693741</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[-2.04477250e+08 -4.02385224e+07 -3.89206864e+07 -8.78982548e+08
- -1.23941045e+09]</t>
+          <t>[-19282802.59268318 -14570319.93075719  -8398390.39360878
+  -6418689.54911447 -10424681.34354883]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[-0.09281113  0.00501875 -0.03231113 -0.1402273  -0.27067626]</t>
+          <t>[-0.0795615  -0.06846512 -0.09022719 -0.08211965 -0.0772554 ]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[ -7657.71394167  -4773.9660222   -4228.52997215 -13363.10566351
- -19077.82253651]</t>
+          <t>[-1424.5206359  -1191.6169954  -1022.38586862  -885.5825174
+ -1081.25359116]</t>
         </is>
       </c>
     </row>
@@ -1136,38 +1137,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.08036218691983588</v>
+        <v>-0.06987497509720475</v>
       </c>
       <c r="E14" t="n">
-        <v>6964.719479724569</v>
+        <v>1032.424296885026</v>
       </c>
       <c r="F14" t="n">
-        <v>12543.43347378073</v>
+        <v>3168.482934223964</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1006732588117087</v>
+        <v>-0.0775690133805694</v>
       </c>
       <c r="H14" t="n">
-        <v>21889.68805299561</v>
+        <v>3434.907945998368</v>
       </c>
       <c r="I14" t="n">
-        <v>9794.523531732368</v>
+        <v>1124.519892343182</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[-2.04145448e+08 -3.97724889e+07 -3.86078033e+07 -8.76080697e+08
- -1.23718578e+09]</t>
+          <t>[-19249360.85240111 -14546679.04969465  -8390955.7287757
+  -6398036.99303116 -10407930.36351102]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[-0.09103784  0.01654239 -0.02401239 -0.13646298 -0.26839547]</t>
+          <t>[-0.07768924 -0.0667315  -0.08926207 -0.07863786 -0.07552441]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[ -7642.83911925  -4746.31506427  -4212.31752338 -13319.68168976
- -19051.464262  ]</t>
+          <t>[-1431.56731532 -1196.07184004 -1024.38821394  -888.36779867
+ -1082.20429375]</t>
         </is>
       </c>
     </row>
@@ -1188,38 +1189,38 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1793441791182908</v>
+        <v>0.06655306872829769</v>
       </c>
       <c r="E15" t="n">
-        <v>7881.796727534091</v>
+        <v>1424.041516858642</v>
       </c>
       <c r="F15" t="n">
-        <v>10932.31835981938</v>
+        <v>2959.577205969633</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.071502106997759</v>
+        <v>0.07520618207100864</v>
       </c>
       <c r="H15" t="n">
-        <v>19767.79784084156</v>
+        <v>3175.458220696377</v>
       </c>
       <c r="I15" t="n">
-        <v>11966.18694274079</v>
+        <v>1553.996549923185</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[-1.77321995e+08 -1.44358553e+08 -1.56867946e+08 -6.14316745e+08
- -8.60963918e+08]</t>
+          <t>[-16160364.79484257 -12688008.14773007  -7411864.73010133
+  -5572831.28292792  -8584605.60133912]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[ 0.0523178  -2.56956583 -3.16068014  0.20310053  0.1173171 ]</t>
+          <t>[0.09525042 0.06956784 0.03783748 0.06048265 0.11289252]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[ -9441.97226084  -8473.78207357 -10329.45107975 -14510.23178414
- -17075.4975154 ]</t>
+          <t>[-1817.6831608  -1662.57400273 -1451.95980014 -1376.16699901
+ -1461.59878695]</t>
         </is>
       </c>
     </row>
@@ -1240,38 +1241,38 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2230231644545568</v>
+        <v>0.06654667560720873</v>
       </c>
       <c r="E16" t="n">
-        <v>7882.179212757857</v>
+        <v>1424.024193840323</v>
       </c>
       <c r="F16" t="n">
-        <v>10637.40706170515</v>
+        <v>2959.587340934149</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.070918593530145</v>
+        <v>0.07529546273327237</v>
       </c>
       <c r="H16" t="n">
-        <v>19379.03658784059</v>
+        <v>3175.343934299048</v>
       </c>
       <c r="I16" t="n">
-        <v>11804.54454016315</v>
+        <v>1553.865769154645</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[-1.70814114e+08 -1.36291958e+08 -1.69489678e+08 -5.13451658e+08
- -8.87687887e+08]</t>
+          <t>[-16160299.48646909 -12688056.66825351  -7409487.29968724
+  -5572676.83903785  -8583525.21200108]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[ 0.08709861 -2.37010246 -3.49545211  0.333944    0.08991898]</t>
+          <t>[0.09525407 0.06956428 0.03814611 0.06050868 0.11300417]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[ -9237.30079536  -8157.00373553 -10957.01500439 -12919.94737596
- -17751.45578958]</t>
+          <t>[-1817.66397245 -1662.5734949  -1451.79909625 -1376.12228349
+ -1461.16999869]</t>
         </is>
       </c>
     </row>
@@ -1292,38 +1293,38 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1798503143642369</v>
+        <v>0.06650180523069849</v>
       </c>
       <c r="E17" t="n">
-        <v>7879.414542172697</v>
+        <v>1423.908709982711</v>
       </c>
       <c r="F17" t="n">
-        <v>10928.94661437372</v>
+        <v>2959.65847261208</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.070581424653915</v>
+        <v>0.07550486069966582</v>
       </c>
       <c r="H17" t="n">
-        <v>19755.85107155388</v>
+        <v>3175.040508851472</v>
       </c>
       <c r="I17" t="n">
-        <v>11962.4296129948</v>
+        <v>1553.397766627049</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[-1.77305126e+08 -1.44308307e+08 -1.56858350e+08 -6.11836845e+08
- -8.61159629e+08]</t>
+          <t>[-16157880.16086774 -12688144.84279202  -7406410.60131279
+  -5571422.35950772  -8580553.1997588 ]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[ 0.05240795 -2.56832339 -3.16042563  0.20631749  0.11711645]</t>
+          <t>[0.09538952 0.06955782 0.0385455  0.06072018 0.11331129]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[ -9442.20016894  -8472.58377175 -10332.32324201 -14492.66192141
- -17072.37896086]</t>
+          <t>[-1817.33572389 -1662.29067796 -1451.57969766 -1375.79200419
+ -1459.99072944]</t>
         </is>
       </c>
     </row>
@@ -1344,38 +1345,38 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2359754165468076</v>
+        <v>0.06292223943575692</v>
       </c>
       <c r="E18" t="n">
-        <v>7336.998857443184</v>
+        <v>1426.45261778661</v>
       </c>
       <c r="F18" t="n">
-        <v>10548.37132637588</v>
+        <v>2965.32755455293</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8586036765137587</v>
+        <v>0.08016718330429869</v>
       </c>
       <c r="H18" t="n">
-        <v>19779.04011481213</v>
+        <v>3171.251664362963</v>
       </c>
       <c r="I18" t="n">
-        <v>11453.89266690852</v>
+        <v>1545.004345211573</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[-1.55293837e+08 -9.48473634e+07 -1.65150651e+08 -5.80069792e+08
- -9.60690496e+08]</t>
+          <t>[-16250588.04274295 -12714902.88302004  -7297529.32800926
+  -5528323.07251891  -8492842.26733317]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[ 0.1700454  -1.34529856 -3.38036612  0.24752611  0.01507478]</t>
+          <t>[0.0901992  0.06759561 0.0526798  0.06798624 0.12237507]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[ -8370.12745717  -6656.77180131 -10639.6505096  -12713.39464602
- -18889.51892044]</t>
+          <t>[-1817.61036476 -1666.03851043 -1450.96653081 -1364.39151906
+ -1426.01480099]</t>
         </is>
       </c>
     </row>
@@ -1396,38 +1397,38 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5063441948176337</v>
+        <v>0.4336801275175118</v>
       </c>
       <c r="E19" t="n">
-        <v>3797.957857142856</v>
+        <v>887.3224699676803</v>
       </c>
       <c r="F19" t="n">
-        <v>8478.985008420328</v>
+        <v>2305.237938828828</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.141421647532166</v>
+        <v>0.1828842738328417</v>
       </c>
       <c r="H19" t="n">
-        <v>18601.76005442271</v>
+        <v>2801.418144033501</v>
       </c>
       <c r="I19" t="n">
-        <v>7955.690015789473</v>
+        <v>1071.381957769768</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[-9.82575261e+08 -8.42119246e+06 -3.69775557e+08 -2.24969822e+08
- -1.44385553e+08]</t>
+          <t>[-8498262.46497982 -8561703.05144286 -6144302.42489115 -8080733.33153399
+ -7954716.8157527 ]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[-4.25128924  0.79176848 -8.8077259   0.7081663   0.85197213]</t>
+          <t>[ 0.5242187   0.37215647  0.20238459 -0.36232174  0.17798335]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[-13546.119       -2162.204       -6538.2055      -9714.35736842
-  -7817.56421053]</t>
+          <t>[-1098.73668398 -1042.1926898   -945.17186856 -1177.60166413
+ -1093.20688237]</t>
         </is>
       </c>
     </row>
@@ -1448,38 +1449,38 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.3364398029087947</v>
+        <v>0.6058071486892533</v>
       </c>
       <c r="E20" t="n">
-        <v>7344.0557047619</v>
+        <v>835.897822570838</v>
       </c>
       <c r="F20" t="n">
-        <v>13951.03550477201</v>
+        <v>1923.265449168233</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.9483667510981559</v>
+        <v>0.4348691734847274</v>
       </c>
       <c r="H20" t="n">
-        <v>14730.45671902975</v>
+        <v>2392.244558490173</v>
       </c>
       <c r="I20" t="n">
-        <v>6778.367555105258</v>
+        <v>1011.591359907379</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[-2.98209087e+08 -9.08638354e+06 -2.76761187e+08 -2.54525340e+08
- -2.46349777e+08]</t>
+          <t>[-7917790.79245546 -5893293.8106124  -6114815.28433993 -3963085.9408158
+ -4725184.30990563]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[-0.5937529   0.77532025 -6.34066332  0.6698265   0.74743572]</t>
+          <t>[0.55671682 0.56783523 0.20621243 0.3318678  0.51171358]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[-7674.88725    -2295.45164    -5946.562175   -8358.90164737
- -9616.03506316]</t>
+          <t>[-1183.84999656  -948.93694704 -1028.97938704  -961.14246474
+  -935.04800415]</t>
         </is>
       </c>
     </row>
@@ -1500,38 +1501,38 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.07565092407926532</v>
+        <v>0.27638028821252</v>
       </c>
       <c r="E21" t="n">
-        <v>6495.82139300822</v>
+        <v>1179.144847705463</v>
       </c>
       <c r="F21" t="n">
-        <v>12516.05377663962</v>
+        <v>2605.793833789446</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.098920191617777</v>
+        <v>0.2489936446607239</v>
       </c>
       <c r="H21" t="n">
-        <v>14033.75992326731</v>
+        <v>2806.837151509023</v>
       </c>
       <c r="I21" t="n">
-        <v>6489.434073618047</v>
+        <v>1250.833622260753</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[-2.84375893e+08 -7.65295976e+06 -3.15478403e+08 -1.14801611e+08
- -2.62423221e+08]</t>
+          <t>[-11519690.39703216  -8962989.92203514  -7253496.60583008
+  -4701394.54227064  -6954102.50828841]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[-0.51982258  0.81076463 -7.36757771  0.8510779   0.7309568 ]</t>
+          <t>[0.35506189 0.34272945 0.05839585 0.20739719 0.28138384]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[ -6599.69333075  -2239.15570241  -6853.2380467   -6542.45944093
- -10212.62384729]</t>
+          <t>[-1438.87832456 -1265.94977611 -1272.32013131 -1117.4812266
+ -1159.53865274]</t>
         </is>
       </c>
     </row>
@@ -1552,38 +1553,38 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3840503604608698</v>
+        <v>0.5126461737097376</v>
       </c>
       <c r="E22" t="n">
-        <v>4483.48761441912</v>
+        <v>946.713077166178</v>
       </c>
       <c r="F22" t="n">
-        <v>9471.185569398307</v>
+        <v>2138.489133303085</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.358780385582489</v>
+        <v>0.315874333234914</v>
       </c>
       <c r="H22" t="n">
-        <v>13882.34548512351</v>
+        <v>2594.947351862484</v>
       </c>
       <c r="I22" t="n">
-        <v>6615.869484757915</v>
+        <v>1095.594982754393</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[-2.57935248e+08 -1.31018386e+07 -3.66423170e+08 -1.40614649e+08
- -1.85522675e+08]</t>
+          <t>[-10056434.67913384  -5687315.50722141  -7550463.41869108
+  -5951133.78120043  -4423411.40844384]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[-0.37851282  0.67602976 -8.71880903  0.8175929   0.80979726]</t>
+          <t>[ 0.43698331  0.58293996  0.01984546 -0.00329495  0.54289789]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[-7118.43301685 -2715.17663953 -6551.84894037 -7759.36063986
- -8934.52818719]</t>
+          <t>[-1252.23816093 -1025.99255181 -1140.47936886 -1091.23862008
+  -968.02621208]</t>
         </is>
       </c>
     </row>
@@ -1604,38 +1605,38 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.221424720562138</v>
+        <v>0.565733421028016</v>
       </c>
       <c r="E23" t="n">
-        <v>9244.704704309386</v>
+        <v>937.2988714345378</v>
       </c>
       <c r="F23" t="n">
-        <v>13337.21327104575</v>
+        <v>2018.659460365097</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6162352992704719</v>
+        <v>0.4187644195374382</v>
       </c>
       <c r="H23" t="n">
-        <v>18603.13994849129</v>
+        <v>2469.115319013638</v>
       </c>
       <c r="I23" t="n">
-        <v>10767.88651626235</v>
+        <v>1107.434869049275</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[-2.68957327e+08 -8.19447129e+07 -1.19554363e+08 -5.69136915e+08
- -6.90790762e+08]</t>
+          <t>[-9405255.16624845 -6632022.42249031 -5933764.25186838 -3730652.29804315
+ -4780958.15428881]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[-0.43741937 -1.02625366 -2.17099495  0.26170838  0.2917831 ]</t>
+          <t>[0.47344006 0.51366307 0.22971536 0.37105353 0.50595008]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[-10225.42836897  -6197.53710882  -8005.46944396 -13826.62474867
- -15584.37291089]</t>
+          <t>[-1286.35620523 -1103.06472113 -1135.6314599   -994.33301287
+ -1017.78894612]</t>
         </is>
       </c>
     </row>
@@ -1656,38 +1657,38 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3422212640109197</v>
+        <v>0.6065377467238257</v>
       </c>
       <c r="E24" t="n">
-        <v>5271.35977412747</v>
+        <v>895.0657820448289</v>
       </c>
       <c r="F24" t="n">
-        <v>9787.497364321365</v>
+        <v>1921.482330034781</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2949506147962433</v>
+        <v>0.4653793257810525</v>
       </c>
       <c r="H24" t="n">
-        <v>10828.20358026546</v>
+        <v>2341.183009587624</v>
       </c>
       <c r="I24" t="n">
-        <v>5601.215213592752</v>
+        <v>1002.189111812718</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[-9.19208325e+07 -1.24012758e+07 -8.61273568e+07 -1.36610705e+08
- -2.59189794e+08]</t>
+          <t>[-7473736.59598244 -6400244.19773829 -5640273.17988046 -3642468.14214725
+ -4248967.30616039]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[ 0.50873699  0.69335263 -1.2843952   0.82278686  0.73427179]</t>
+          <t>[0.58157751 0.53065974 0.26781456 0.3859204  0.56092442]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[-4552.33951582 -2604.53564337 -4254.73999135 -7748.52329999
- -8845.93761743]</t>
+          <t>[-1111.47215525 -1046.98385681 -1009.49108907  -916.95340535
+  -926.04505258]</t>
         </is>
       </c>
     </row>
@@ -1708,38 +1709,38 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.004669956856544921</v>
+        <v>-0.04176844789775203</v>
       </c>
       <c r="E25" t="n">
-        <v>6401.797175244348</v>
+        <v>1036.089348917875</v>
       </c>
       <c r="F25" t="n">
-        <v>12096.04658975622</v>
+        <v>3126.586566355648</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07891610895017079</v>
+        <v>-0.04624461709653369</v>
       </c>
       <c r="H25" t="n">
-        <v>21777.67178506815</v>
+        <v>3387.40374127831</v>
       </c>
       <c r="I25" t="n">
-        <v>9524.896983813527</v>
+        <v>1117.037599374863</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[-2.08255655e+08 -3.45142922e+07 -3.96870276e+07 -8.60074184e+08
- -1.22880378e+09]</t>
+          <t>[-18708945.1466581  -14286995.15561561  -8214555.84653381
+  -6124005.0311227  -10038019.35220123]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[-0.11300449  0.14656226 -0.05263715 -0.11569913 -0.25980202]</t>
+          <t>[-0.04743368 -0.04768846 -0.06636292 -0.03243912 -0.03729891]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[ -7347.64219923  -4142.74045595  -4105.91700643 -13022.72298743
- -19005.46227002]</t>
+          <t>[-1429.40378895 -1188.66639033 -1027.85503059  -881.57218867
+ -1057.69059833]</t>
         </is>
       </c>
     </row>
@@ -1760,38 +1761,38 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.08837499942213611</v>
+        <v>-0.06903327820549299</v>
       </c>
       <c r="E26" t="n">
-        <v>7020.831846484198</v>
+        <v>1047.295952902495</v>
       </c>
       <c r="F26" t="n">
-        <v>12589.86350800241</v>
+        <v>3167.236327360988</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1079539275646776</v>
+        <v>-0.07686134571251549</v>
       </c>
       <c r="H26" t="n">
-        <v>21911.00959004555</v>
+        <v>3434.574539961992</v>
       </c>
       <c r="I26" t="n">
-        <v>9818.659239470415</v>
+        <v>1136.762655943043</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[-2.04762804e+08 -4.03674508e+07 -3.91542982e+07 -8.79438312e+08
- -1.23673884e+09]</t>
+          <t>[-19274928.96411454 -14561019.94033882  -8327808.63228582
+  -6412717.96271793 -10405035.85331855]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[-0.09433725  0.00183072 -0.03850733 -0.14081852 -0.26793726]</t>
+          <t>[-0.07912069 -0.06778314 -0.0810647  -0.0811129  -0.0752253 ]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[ -7659.15175107  -4768.43299282  -4222.42677213 -13371.56783695
- -19071.71684439]</t>
+          <t>[-1448.3072123  -1202.6684692  -1031.25689554  -906.50866431
+ -1095.07203837]</t>
         </is>
       </c>
     </row>
@@ -1812,38 +1813,714 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.09101652355645018</v>
+        <v>-0.08787207612756953</v>
       </c>
       <c r="E27" t="n">
-        <v>7025.543332458004</v>
+        <v>1069.170787577493</v>
       </c>
       <c r="F27" t="n">
-        <v>12605.13226837616</v>
+        <v>3195.021406916168</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1097108296855151</v>
+        <v>-0.09451259919386637</v>
       </c>
       <c r="H27" t="n">
-        <v>21925.73538015443</v>
+        <v>3460.468125600244</v>
       </c>
       <c r="I27" t="n">
-        <v>9830.934588235679</v>
+        <v>1157.67631650427</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[-2.04924257e+08 -4.04818357e+07 -3.92261461e+07 -8.80302196e+08
- -1.23875492e+09]</t>
+          <t>[-19499066.67106559 -14767069.44021334  -8504116.66669209
+  -6537410.25886478 -10566535.20464054]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[-0.09520012 -0.00099768 -0.04041298 -0.14193917 -0.2700042 ]</t>
+          <t>[-0.0916692  -0.08289308 -0.10395192 -0.10213464 -0.09191416]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[ -7667.43979455  -4786.52320417  -4234.73977455 -13381.79287811
- -19084.17728978]</t>
+          <t>[-1464.40370569 -1227.6787365  -1050.18505607  -929.53914799
+ -1116.57493627]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2151351320811613</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1353.714277909558</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2713.827896903203</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2261286210895828</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2869.428867047494</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1424.285494767785</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[-12121383.25559279 -10597178.50815331  -6575017.18656238
+  -5103573.08375127  -6770958.08116759]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[0.32137569 0.22289176 0.14647186 0.13959436 0.30030944]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[-1616.55615288 -1531.19960295 -1378.9845694  -1273.6386828
+ -1321.04846581]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2151351244256742</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1353.714274915116</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2713.827910138395</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2262926134424211</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2869.152327664155</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1423.963967582059</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[-12121383.36307953 -10597178.67703185  -6575017.1366707
+  -5103573.08073685  -6763023.13918426]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[0.32137568 0.22289175 0.14647187 0.13959436 0.30112941]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[-1616.55614477 -1531.19961808 -1378.98456003 -1273.6386799
+ -1319.44083513]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2151337252722975</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1353.704964324053</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2713.830329064193</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2262922940011489</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2869.154657511771</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1423.961919386605</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[-12121448.40508131 -10597211.5067596   -6574996.96024227
+  -5103562.17754795  -6763023.19397631]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[0.32137204 0.22288934 0.14647449 0.1395962  0.3011294 ]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[-1616.55473921 -1531.20037551 -1378.98033214 -1273.63593694
+ -1319.43821314]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2151283959786779</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1353.703851732317</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2713.839542591753</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2262908957679086</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2869.158770465312</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1423.961635234111</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[-12121488.40702494 -10597308.71738622  -6574973.30080047
+  -5103565.76488847  -6763024.06059001]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[0.3213698  0.22288221 0.14647756 0.13959559 0.30112931]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[-1616.54997464 -1531.21015355 -1378.97610368 -1273.63536687
+ -1319.43657743]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4041314771086232</v>
+      </c>
+      <c r="E32" t="n">
+        <v>997.799838619823</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2364.613037400586</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3271962187563799</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2698.224600950643</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1032.993860803483</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[-12631462.8871277   -8105823.20984309  -6128714.34295046
+  -4312558.60123907  -5223520.94471598]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[0.29281851 0.40558687 0.20440814 0.2729506  0.46021696]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[-1298.02948104 -1046.28633633 -1008.33504472  -856.70410835
+  -955.61433357]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6093548127577726</v>
+      </c>
+      <c r="E33" t="n">
+        <v>830.9452233459065</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1914.591368902418</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4616535934528895</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2401.358985134706</v>
+      </c>
+      <c r="I33" t="n">
+        <v>972.3248904826581</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[-8465459.54801179 -7859881.64784857 -5936938.45760444 -2938657.25034407
+ -3631687.97362708]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[0.52605519 0.42362217 0.2293033  0.50457508 0.62471222]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[-1234.44051268  -997.1900636   -990.94309748  -789.19059461
+  -849.86018404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5364465606965185</v>
+      </c>
+      <c r="E34" t="n">
+        <v>955.409578864356</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2085.617976592639</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4547953726601358</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2409.939575127463</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1004.404426024213</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[-7460443.15022223 -8383881.39672952 -5980321.47643747 -2631321.02257785
+ -4583076.73286061]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[0.58232175 0.38519642 0.22367159 0.55638855 0.52639855]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[-1207.51618497 -1098.22839731  -985.07727316  -784.03454296
+  -947.16573172]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6722469110140918</v>
+      </c>
+      <c r="E35" t="n">
+        <v>786.9423864195361</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1753.711922128728</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4951040695046956</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2299.455416267803</v>
+      </c>
+      <c r="I35" t="n">
+        <v>891.1694868626251</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[-7020741.80841314 -6435855.07660991 -6166614.86102991 -2372180.03225054
+ -4442084.27871317]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[0.60693875 0.52804834 0.19948813 0.60007684 0.54096829]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[-1043.50841331  -889.88865766  -999.17830294  -708.64908749
+  -814.62297292]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5886526019691458</v>
+      </c>
+      <c r="E36" t="n">
+        <v>888.9458033539776</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1964.668286851007</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4345551015969569</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2457.995271877928</v>
+      </c>
+      <c r="I36" t="n">
+        <v>988.7524469525212</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[-8305785.31017234 -8468924.72357711 -5968428.89544332 -2987278.20156378
+ -4478286.6521147 ]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[0.53499467 0.37896005 0.22521541 0.49637813 0.53722725]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[-1174.92135479 -1063.7984548  -1015.29585149  -767.79254253
+  -921.95403116]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6807925560122159</v>
+      </c>
+      <c r="E37" t="n">
+        <v>770.6039449606109</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1730.698283691551</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4932270687087408</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2294.832233137671</v>
+      </c>
+      <c r="I37" t="n">
+        <v>886.1324749463098</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[-6160670.56549688 -7300930.3583402  -6239559.85972736 -2428264.25987763
+ -4201849.84779608]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[0.65509045 0.46461097 0.19001886 0.59062166 0.5657934 ]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[-1001.74417197  -942.94473103  -915.58441216  -728.30094257
+  -842.08811699]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.08819746262530814</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1032.315985447924</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2925.063212400676</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.09941979342267349</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3149.973063863226</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1098.054323226097</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[-16169160.4231522  -12595660.48153706  -6873545.06299052
+  -5176252.59882984  -8797032.9488098 ]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[0.09475799 0.07633985 0.10771882 0.1273414  0.09094092]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[-1402.18867659 -1165.96039401 -1010.09484744  -861.71160986
+ -1050.31608823]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.02463559736730758</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1018.507498266477</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3100.770171424251</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.03846166879091495</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3377.17814777256</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1106.576692047303</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[-18707260.58306427 -14180484.26265982  -8025001.68475249
+  -6102066.1949062  -10011848.48357972]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[-0.04733937 -0.03987784 -0.04175617 -0.02874047 -0.03459449]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[-1408.7561976  -1180.56893913 -1008.0167926   -866.06244442
+ -1069.47908649]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dataset 1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>target_enc</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.1914093078160795</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1302.146527895432</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3343.607971889892</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1712356254359423</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3569.421289693199</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1328.948740621766</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[-20479564.56162303 -15580388.85061814  -9248744.24224749
+  -7134905.37752636 -11260238.68456027]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[-0.14656307 -0.14253511 -0.20061488 -0.20286567 -0.1635994 ]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[-1620.87236774 -1405.04251677 -1236.15275298 -1108.82957604
+ -1273.84648957]</t>
         </is>
       </c>
     </row>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>RMSE</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSLE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,13 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-6.989866101497225e+24</v>
+        <v>-2.867925277833508e+24</v>
       </c>
       <c r="E2" t="n">
-        <v>1086411750911616</v>
+        <v>709895529476698.6</v>
       </c>
       <c r="F2" t="n">
-        <v>7200346766035045</v>
+        <v>5220572468396472</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.01450620692251</v>
       </c>
     </row>
     <row r="3">
@@ -504,13 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2475717525141119</v>
+        <v>0.2895719596189364</v>
       </c>
       <c r="E3" t="n">
-        <v>1325.581238482343</v>
+        <v>1396.320806890221</v>
       </c>
       <c r="F3" t="n">
-        <v>2362.389642440135</v>
+        <v>2598.329715364519</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.976611747671847</v>
       </c>
     </row>
     <row r="4">
@@ -528,13 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2561074488032475</v>
+        <v>0.2955805248733289</v>
       </c>
       <c r="E4" t="n">
-        <v>1266.002748877761</v>
+        <v>1346.770236798268</v>
       </c>
       <c r="F4" t="n">
-        <v>2348.951713180384</v>
+        <v>2587.318477157633</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.861419676717255</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.08757100731475997</v>
+        <v>0.09554075160152087</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.119479410258</v>
+        <v>1455.608988546472</v>
       </c>
       <c r="F5" t="n">
-        <v>2601.468205960253</v>
+        <v>2931.762022403742</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.746513784257023</v>
       </c>
     </row>
     <row r="6">
@@ -576,13 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.31604411807446</v>
+        <v>0.08980240259731942</v>
       </c>
       <c r="E6" t="n">
-        <v>781.1133423035863</v>
+        <v>996.9021345577129</v>
       </c>
       <c r="F6" t="n">
-        <v>2252.335222964349</v>
+        <v>2941.0476114782</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.615184806927609</v>
       </c>
     </row>
     <row r="7">
@@ -600,13 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4296540883580257</v>
+        <v>0.3927616186988533</v>
       </c>
       <c r="E7" t="n">
-        <v>793.3846054134563</v>
+        <v>935.0117515515016</v>
       </c>
       <c r="F7" t="n">
-        <v>2056.78146795998</v>
+        <v>2402.225759896623</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.489187067152245</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2941098565129783</v>
+        <v>0.322398366557731</v>
       </c>
       <c r="E8" t="n">
-        <v>1080.414417208937</v>
+        <v>1180.441402094499</v>
       </c>
       <c r="F8" t="n">
-        <v>2288.166078821196</v>
+        <v>2537.589887347104</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.220590041630822</v>
       </c>
     </row>
     <row r="9">
@@ -648,13 +674,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5112312419670165</v>
+        <v>0.4611422675718883</v>
       </c>
       <c r="E9" t="n">
-        <v>836.8496719922016</v>
+        <v>949.4402110489881</v>
       </c>
       <c r="F9" t="n">
-        <v>1904.016480841617</v>
+        <v>2262.930794213354</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.01644638378434</v>
       </c>
     </row>
     <row r="10">
@@ -672,13 +701,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4714522733037148</v>
+        <v>0.4457916624687571</v>
       </c>
       <c r="E10" t="n">
-        <v>963.2389864776363</v>
+        <v>1063.126988033655</v>
       </c>
       <c r="F10" t="n">
-        <v>1979.98130104247</v>
+        <v>2294.936854221487</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.429497546390396</v>
       </c>
     </row>
     <row r="11">
@@ -696,13 +728,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5643615493966172</v>
+        <v>0.5425248598112156</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9106878320425</v>
+        <v>945.0989622798276</v>
       </c>
       <c r="F11" t="n">
-        <v>1797.554582525596</v>
+        <v>2085.057145461897</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.121313708659138</v>
       </c>
     </row>
     <row r="12">
@@ -720,13 +755,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.003589270761523045</v>
+        <v>-0.02495288874998636</v>
       </c>
       <c r="E12" t="n">
-        <v>924.4874872359376</v>
+        <v>1080.966827959419</v>
       </c>
       <c r="F12" t="n">
-        <v>2728.330569089702</v>
+        <v>3120.945355561817</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.895480803952598</v>
       </c>
     </row>
     <row r="13">
@@ -744,13 +782,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.07361981407595497</v>
+        <v>-0.08903366880076824</v>
       </c>
       <c r="E13" t="n">
-        <v>965.7983111006278</v>
+        <v>1143.047928332661</v>
       </c>
       <c r="F13" t="n">
-        <v>2821.917047430647</v>
+        <v>3217.028187157065</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.961870033363017</v>
       </c>
     </row>
     <row r="14">
@@ -768,13 +809,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.07197042538013831</v>
+        <v>-0.0889744166421691</v>
       </c>
       <c r="E14" t="n">
-        <v>970.8008332858014</v>
+        <v>1148.012331225946</v>
       </c>
       <c r="F14" t="n">
-        <v>2819.748576324415</v>
+        <v>3216.940669910054</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.02365144553851</v>
       </c>
     </row>
     <row r="15">
@@ -792,13 +836,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1.005344950832661e+24</v>
+        <v>-9.559547492287205e+23</v>
       </c>
       <c r="E15" t="n">
-        <v>546865022180866.9</v>
+        <v>564496295314274.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3990785646397318</v>
+        <v>4022321484021146</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.465035823255369</v>
       </c>
     </row>
     <row r="16">
@@ -816,13 +863,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3453073196841445</v>
+        <v>0.3077853675711211</v>
       </c>
       <c r="E16" t="n">
-        <v>1569.535890161156</v>
+        <v>1534.409920307677</v>
       </c>
       <c r="F16" t="n">
-        <v>3220.472490056409</v>
+        <v>3422.77616278377</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.725745155153054</v>
       </c>
     </row>
     <row r="17">
@@ -840,13 +890,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3244263941709572</v>
+        <v>0.3230757069763286</v>
       </c>
       <c r="E17" t="n">
-        <v>1545.116788153284</v>
+        <v>1479.809633950871</v>
       </c>
       <c r="F17" t="n">
-        <v>3271.42665421917</v>
+        <v>3384.762190738005</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.679561720846992</v>
       </c>
     </row>
     <row r="18">
@@ -864,13 +917,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.07634975151016021</v>
+        <v>0.07004982140892568</v>
       </c>
       <c r="E18" t="n">
-        <v>1561.130233073396</v>
+        <v>1564.11713851896</v>
       </c>
       <c r="F18" t="n">
-        <v>3825.204224061426</v>
+        <v>3967.235231884708</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.63017409278514</v>
       </c>
     </row>
     <row r="19">
@@ -888,13 +944,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1523254611953173</v>
+        <v>0.1712329019212181</v>
       </c>
       <c r="E19" t="n">
-        <v>1255.916986277658</v>
+        <v>1288.189884547297</v>
       </c>
       <c r="F19" t="n">
-        <v>3664.505858202488</v>
+        <v>3745.194368866136</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.694057451680555</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +971,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3200109757129905</v>
+        <v>0.2750904014996376</v>
       </c>
       <c r="E20" t="n">
-        <v>1151.46919455016</v>
+        <v>1161.198599784603</v>
       </c>
       <c r="F20" t="n">
-        <v>3282.099948996728</v>
+        <v>3502.676561075143</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.548344906411252</v>
       </c>
     </row>
     <row r="21">
@@ -936,13 +998,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2731899102038076</v>
+        <v>0.257420349152697</v>
       </c>
       <c r="E21" t="n">
-        <v>1405.368681985043</v>
+        <v>1361.505547025442</v>
       </c>
       <c r="F21" t="n">
-        <v>3393.214583174643</v>
+        <v>3545.10932844516</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.262269180471062</v>
       </c>
     </row>
     <row r="22">
@@ -960,13 +1025,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.453865437398592</v>
+        <v>0.3787748204207524</v>
       </c>
       <c r="E22" t="n">
-        <v>1147.903180638686</v>
+        <v>1158.617531957178</v>
       </c>
       <c r="F22" t="n">
-        <v>2941.376931510795</v>
+        <v>3242.519796167359</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.070304161122249</v>
       </c>
     </row>
     <row r="23">
@@ -984,13 +1052,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5195940024827226</v>
+        <v>0.4071484247126065</v>
       </c>
       <c r="E23" t="n">
-        <v>1124.610919832051</v>
+        <v>1237.855213347684</v>
       </c>
       <c r="F23" t="n">
-        <v>2758.703724934518</v>
+        <v>3167.605585948439</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.369325295392418</v>
       </c>
     </row>
     <row r="24">
@@ -1008,13 +1079,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5102727900924761</v>
+        <v>0.4534619131641924</v>
       </c>
       <c r="E24" t="n">
-        <v>1106.072480657758</v>
+        <v>1133.21859871091</v>
       </c>
       <c r="F24" t="n">
-        <v>2785.338411069187</v>
+        <v>3041.363483068817</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.162882184471972</v>
       </c>
     </row>
     <row r="25">
@@ -1032,13 +1106,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.01769787453406724</v>
+        <v>-0.006421196886989389</v>
       </c>
       <c r="E25" t="n">
-        <v>1257.183217140723</v>
+        <v>1234.520476285182</v>
       </c>
       <c r="F25" t="n">
-        <v>4015.228679619019</v>
+        <v>4127.128572213122</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.824733748256382</v>
       </c>
     </row>
     <row r="26">
@@ -1056,13 +1133,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.07489022122680145</v>
+        <v>-0.06460507500806711</v>
       </c>
       <c r="E26" t="n">
-        <v>1323.527004202922</v>
+        <v>1291.788364570056</v>
       </c>
       <c r="F26" t="n">
-        <v>4126.51004793949</v>
+        <v>4244.752542488818</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.940926389286155</v>
       </c>
     </row>
     <row r="27">
@@ -1080,13 +1160,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.07395522328798587</v>
+        <v>-0.06374185923927822</v>
       </c>
       <c r="E27" t="n">
-        <v>1331.971234004065</v>
+        <v>1297.80303076979</v>
       </c>
       <c r="F27" t="n">
-        <v>4124.714926115281</v>
+        <v>4243.031303098521</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.118064110499436</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1187,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-6.755962035394491e+23</v>
+        <v>-5.913640945786288e+24</v>
       </c>
       <c r="E28" t="n">
-        <v>356377143537186.1</v>
+        <v>803465922855855.5</v>
       </c>
       <c r="F28" t="n">
-        <v>2837933941753324</v>
+        <v>7458661141965289</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.194137592588662</v>
       </c>
     </row>
     <row r="29">
@@ -1128,13 +1214,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2372251931133129</v>
+        <v>0.1254756833204242</v>
       </c>
       <c r="E29" t="n">
-        <v>1472.722554620419</v>
+        <v>1446.151334350247</v>
       </c>
       <c r="F29" t="n">
-        <v>3015.482776930721</v>
+        <v>2868.265477285155</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.903755408373901</v>
       </c>
     </row>
     <row r="30">
@@ -1152,13 +1241,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1379858201994785</v>
+        <v>-0.06818176762516881</v>
       </c>
       <c r="E30" t="n">
-        <v>1455.291315674793</v>
+        <v>1444.226968279515</v>
       </c>
       <c r="F30" t="n">
-        <v>3205.648402464852</v>
+        <v>3169.976051887703</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.816545833921174</v>
       </c>
     </row>
     <row r="31">
@@ -1176,13 +1268,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.09495567320812126</v>
+        <v>0.1055004467531034</v>
       </c>
       <c r="E31" t="n">
-        <v>1469.173800518245</v>
+        <v>1411.914801152233</v>
       </c>
       <c r="F31" t="n">
-        <v>3284.684092206387</v>
+        <v>2900.837926068789</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.818040632556881</v>
       </c>
     </row>
     <row r="32">
@@ -1200,13 +1295,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.2776347319010488</v>
+        <v>-0.6660578364412264</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.658980359366</v>
+        <v>1170.696606167809</v>
       </c>
       <c r="F32" t="n">
-        <v>3902.671857626063</v>
+        <v>3958.935604785964</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.57324186752301</v>
       </c>
     </row>
     <row r="33">
@@ -1224,13 +1322,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.200510448171651</v>
+        <v>0.03371457329333483</v>
       </c>
       <c r="E33" t="n">
-        <v>997.1281966525163</v>
+        <v>977.6391694000663</v>
       </c>
       <c r="F33" t="n">
-        <v>3087.202222870017</v>
+        <v>3014.991663611672</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.518044148739881</v>
       </c>
     </row>
     <row r="34">
@@ -1248,13 +1349,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1260728058457019</v>
+        <v>-0.05012804455984687</v>
       </c>
       <c r="E34" t="n">
-        <v>1243.279425795089</v>
+        <v>1259.273692538387</v>
       </c>
       <c r="F34" t="n">
-        <v>3227.723385517704</v>
+        <v>3143.073443878885</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.39647220656875</v>
       </c>
     </row>
     <row r="35">
@@ -1272,13 +1376,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.2300632352253922</v>
+        <v>0.1371842802564036</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.780755386525</v>
+        <v>1030.093540878541</v>
       </c>
       <c r="F35" t="n">
-        <v>3029.606409620308</v>
+        <v>2848.999843059776</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.176635411861262</v>
       </c>
     </row>
     <row r="36">
@@ -1296,13 +1403,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4150736371503394</v>
+        <v>0.4785699551283729</v>
       </c>
       <c r="E36" t="n">
-        <v>1118.295269099995</v>
+        <v>1017.188190645241</v>
       </c>
       <c r="F36" t="n">
-        <v>2640.640499778617</v>
+        <v>2214.784251081592</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.397442242422718</v>
       </c>
     </row>
     <row r="37">
@@ -1320,13 +1430,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3658766519112054</v>
+        <v>0.1518586025760378</v>
       </c>
       <c r="E37" t="n">
-        <v>1049.588342280602</v>
+        <v>1104.530546660761</v>
       </c>
       <c r="F37" t="n">
-        <v>2749.448276423539</v>
+        <v>2824.668790989908</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.334818191214927</v>
       </c>
     </row>
     <row r="38">
@@ -1344,13 +1457,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.01179627235978287</v>
+        <v>-0.001922920232712455</v>
       </c>
       <c r="E38" t="n">
-        <v>1116.877778953302</v>
+        <v>974.4008589047294</v>
       </c>
       <c r="F38" t="n">
-        <v>3473.003488441956</v>
+        <v>3070.086109534779</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.832463717506368</v>
       </c>
     </row>
     <row r="39">
@@ -1368,13 +1484,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.07117244588135296</v>
+        <v>-0.06172710718863228</v>
       </c>
       <c r="E39" t="n">
-        <v>1165.714495977881</v>
+        <v>1028.316454602611</v>
       </c>
       <c r="F39" t="n">
-        <v>3573.455500833898</v>
+        <v>3160.38399402205</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.957228044389503</v>
       </c>
     </row>
     <row r="40">
@@ -1392,13 +1511,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.07064838188645073</v>
+        <v>-0.0617371763629766</v>
       </c>
       <c r="E40" t="n">
-        <v>1171.720381501683</v>
+        <v>1036.036283142485</v>
       </c>
       <c r="F40" t="n">
-        <v>3572.5812492218</v>
+        <v>3160.398980161975</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.091597963929126</v>
       </c>
     </row>
     <row r="41">
@@ -1416,13 +1538,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2.394061206201223e+25</v>
+        <v>-1.416036023998171e+24</v>
       </c>
       <c r="E41" t="n">
-        <v>1161142159524775</v>
+        <v>446825827444156.3</v>
       </c>
       <c r="F41" t="n">
-        <v>1.270760718448676e+16</v>
+        <v>2983253789548036</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.571818233193989</v>
       </c>
     </row>
     <row r="42">
@@ -1440,13 +1565,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.2177516064418444</v>
+        <v>0.1236901424947141</v>
       </c>
       <c r="E42" t="n">
-        <v>1336.510414992264</v>
+        <v>1363.243323515604</v>
       </c>
       <c r="F42" t="n">
-        <v>2297.039676793402</v>
+        <v>2346.831444214013</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.051548119388714</v>
       </c>
     </row>
     <row r="43">
@@ -1464,13 +1592,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.2421128194860601</v>
+        <v>0.1261611055786291</v>
       </c>
       <c r="E43" t="n">
-        <v>1257.946743320879</v>
+        <v>1310.17089328807</v>
       </c>
       <c r="F43" t="n">
-        <v>2260.988937414133</v>
+        <v>2343.5203850873</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.910056554831476</v>
       </c>
     </row>
     <row r="44">
@@ -1488,13 +1619,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1157383715327138</v>
+        <v>0.1030301479998372</v>
       </c>
       <c r="E44" t="n">
-        <v>1238.342506869875</v>
+        <v>1209.779483007572</v>
       </c>
       <c r="F44" t="n">
-        <v>2442.22991545681</v>
+        <v>2374.334883185227</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.626666738212875</v>
       </c>
     </row>
     <row r="45">
@@ -1512,13 +1646,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.05143526365269868</v>
+        <v>0.004570972844638033</v>
       </c>
       <c r="E45" t="n">
-        <v>775.8976674389985</v>
+        <v>834.7033279593492</v>
       </c>
       <c r="F45" t="n">
-        <v>2529.470649927621</v>
+        <v>2501.256328097963</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.585514587510535</v>
       </c>
     </row>
     <row r="46">
@@ -1536,13 +1673,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.2025344377559846</v>
+        <v>0.1545227951815343</v>
       </c>
       <c r="E46" t="n">
-        <v>805.9082822180849</v>
+        <v>784.3056340877616</v>
       </c>
       <c r="F46" t="n">
-        <v>2319.274353749787</v>
+        <v>2305.175533541864</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.527051001042151</v>
       </c>
     </row>
     <row r="47">
@@ -1560,13 +1700,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.1905915921904777</v>
+        <v>0.09707942583007978</v>
       </c>
       <c r="E47" t="n">
-        <v>1026.327863881747</v>
+        <v>1040.516282801572</v>
       </c>
       <c r="F47" t="n">
-        <v>2336.576543338774</v>
+        <v>2382.197829061965</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.260960130694174</v>
       </c>
     </row>
     <row r="48">
@@ -1584,13 +1727,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.307311843719408</v>
+        <v>0.3097208004040846</v>
       </c>
       <c r="E48" t="n">
-        <v>862.5280058723855</v>
+        <v>820.8808728098621</v>
       </c>
       <c r="F48" t="n">
-        <v>2161.548765645044</v>
+        <v>2082.88572430007</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.073884191562555</v>
       </c>
     </row>
     <row r="49">
@@ -1608,13 +1754,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4246293050356639</v>
+        <v>0.4471679821709476</v>
       </c>
       <c r="E49" t="n">
-        <v>944.2477721174813</v>
+        <v>886.831975798042</v>
       </c>
       <c r="F49" t="n">
-        <v>1970.017236862885</v>
+        <v>1864.016034289034</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.327275618404001</v>
       </c>
     </row>
     <row r="50">
@@ -1632,13 +1781,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.4727044074683938</v>
+        <v>0.3723627406980587</v>
       </c>
       <c r="E50" t="n">
-        <v>823.8464544920064</v>
+        <v>845.6786557428835</v>
       </c>
       <c r="F50" t="n">
-        <v>1885.919831922763</v>
+        <v>1986.128798500944</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.076688823867509</v>
       </c>
     </row>
     <row r="51">
@@ -1656,13 +1808,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.01482392535947419</v>
+        <v>0.01292337085339712</v>
       </c>
       <c r="E51" t="n">
-        <v>822.4133537617231</v>
+        <v>843.5611564679534</v>
       </c>
       <c r="F51" t="n">
-        <v>2577.822945107887</v>
+        <v>2490.740512075741</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.787028089380176</v>
       </c>
     </row>
     <row r="52">
@@ -1680,13 +1835,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.06791337191859692</v>
+        <v>-0.07880980298928497</v>
       </c>
       <c r="E52" t="n">
-        <v>892.9082413919664</v>
+        <v>904.9668555994805</v>
       </c>
       <c r="F52" t="n">
-        <v>2683.88664416591</v>
+        <v>2603.907137739065</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.818365415195525</v>
       </c>
     </row>
     <row r="53">
@@ -1704,13 +1862,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.06590703544786813</v>
+        <v>-0.07568486532284435</v>
       </c>
       <c r="E53" t="n">
-        <v>897.2830264075525</v>
+        <v>910.0231269757604</v>
       </c>
       <c r="F53" t="n">
-        <v>2681.364290136931</v>
+        <v>2600.133095005732</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.956102667849924</v>
       </c>
     </row>
     <row r="54">
@@ -1730,13 +1891,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-8.15285482947039e+24</v>
+        <v>-2.788389249211672e+24</v>
       </c>
       <c r="E54" t="n">
-        <v>787699019038611.1</v>
+        <v>631170893772746.2</v>
       </c>
       <c r="F54" t="n">
-        <v>6684168384668112</v>
+        <v>4921202220982736</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.811374463990132</v>
       </c>
     </row>
     <row r="55">
@@ -1756,13 +1920,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2619639679383534</v>
+        <v>0.211630788251299</v>
       </c>
       <c r="E55" t="n">
-        <v>1426.087524564045</v>
+        <v>1435.031346265937</v>
       </c>
       <c r="F55" t="n">
-        <v>2723.846146555167</v>
+        <v>2809.050699911864</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.914415107646879</v>
       </c>
     </row>
     <row r="56">
@@ -1782,13 +1949,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.2401581206649358</v>
+        <v>0.1691588924507794</v>
       </c>
       <c r="E56" t="n">
-        <v>1381.089399006679</v>
+        <v>1395.244433079181</v>
       </c>
       <c r="F56" t="n">
-        <v>2771.753926819635</v>
+        <v>2871.39427621766</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.816895946579224</v>
       </c>
     </row>
     <row r="57">
@@ -1808,13 +1978,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.09365370089143882</v>
+        <v>0.0935302919408468</v>
       </c>
       <c r="E57" t="n">
-        <v>1405.691504967944</v>
+        <v>1410.355102806309</v>
       </c>
       <c r="F57" t="n">
-        <v>3038.396609421219</v>
+        <v>3043.542515885617</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.705348811952979</v>
       </c>
     </row>
     <row r="58">
@@ -1834,13 +2007,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.06054252775535679</v>
+        <v>-0.1001128897695127</v>
       </c>
       <c r="E58" t="n">
-        <v>1007.396744094902</v>
+        <v>1072.622988308042</v>
       </c>
       <c r="F58" t="n">
-        <v>3087.24589718013</v>
+        <v>3286.608478307066</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.616999678410427</v>
       </c>
     </row>
     <row r="59">
@@ -1860,13 +2036,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.2881774874996629</v>
+        <v>0.21402234716834</v>
       </c>
       <c r="E59" t="n">
-        <v>936.9725697085543</v>
+        <v>964.5387887059831</v>
       </c>
       <c r="F59" t="n">
-        <v>2686.339498394128</v>
+        <v>2806.267379531325</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.520656780836382</v>
       </c>
     </row>
     <row r="60">
@@ -1886,13 +2065,16 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.2209910411882414</v>
+        <v>0.1566925242451652</v>
       </c>
       <c r="E60" t="n">
-        <v>1188.847597217704</v>
+        <v>1210.434231114975</v>
       </c>
       <c r="F60" t="n">
-        <v>2811.420147713079</v>
+        <v>2901.992622183278</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.285072889841202</v>
       </c>
     </row>
     <row r="61">
@@ -1912,13 +2094,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.3756179395776021</v>
+        <v>0.3217055421632822</v>
       </c>
       <c r="E61" t="n">
-        <v>983.5154034724496</v>
+        <v>989.7580391736423</v>
       </c>
       <c r="F61" t="n">
-        <v>2509.137146904441</v>
+        <v>2609.33403943514</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.084317537082602</v>
       </c>
     </row>
     <row r="62">
@@ -1938,13 +2123,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.4576873044931101</v>
+        <v>0.444669506120171</v>
       </c>
       <c r="E62" t="n">
-        <v>1037.598236881791</v>
+        <v>1051.250591956155</v>
       </c>
       <c r="F62" t="n">
-        <v>2337.335690654622</v>
+        <v>2385.335681385138</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.380885175652383</v>
       </c>
     </row>
     <row r="63">
@@ -1964,13 +2152,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.4783038497171732</v>
+        <v>0.3800520290623761</v>
       </c>
       <c r="E63" t="n">
-        <v>958.1044913156022</v>
+        <v>1007.131690848596</v>
       </c>
       <c r="F63" t="n">
-        <v>2304.565275485271</v>
+        <v>2484.304554505391</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.173925727053386</v>
       </c>
     </row>
     <row r="64">
@@ -1990,13 +2181,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.00456487307397474</v>
+        <v>-0.00509340875407277</v>
       </c>
       <c r="E64" t="n">
-        <v>1030.240459272921</v>
+        <v>1033.362329904321</v>
       </c>
       <c r="F64" t="n">
-        <v>3198.596420564641</v>
+        <v>3202.225137346365</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.834926589773881</v>
       </c>
     </row>
     <row r="65">
@@ -2016,13 +2210,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.07189896327567658</v>
+        <v>-0.07354391349668815</v>
       </c>
       <c r="E65" t="n">
-        <v>1086.987013168349</v>
+        <v>1092.029900776202</v>
       </c>
       <c r="F65" t="n">
-        <v>3301.442310092486</v>
+        <v>3306.517965351749</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.91959747055855</v>
       </c>
     </row>
     <row r="66">
@@ -2042,13 +2239,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.07062026650061076</v>
+        <v>-0.07253457939181707</v>
       </c>
       <c r="E66" t="n">
-        <v>1092.943868799776</v>
+        <v>1097.968693028495</v>
       </c>
       <c r="F66" t="n">
-        <v>3299.602260449607</v>
+        <v>3305.126012044071</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.047354046954249</v>
       </c>
     </row>
     <row r="67">
@@ -2066,13 +2266,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.04408308199179345</v>
+        <v>0.08542820337366563</v>
       </c>
       <c r="E67" t="n">
-        <v>1414.249770327463</v>
+        <v>1498.008209711312</v>
       </c>
       <c r="F67" t="n">
-        <v>2662.741813447696</v>
+        <v>2948.106138668624</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.745499403596078</v>
       </c>
     </row>
     <row r="68">
@@ -2090,13 +2293,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.04407824263288618</v>
+        <v>0.08547001996236558</v>
       </c>
       <c r="E68" t="n">
-        <v>1414.24462953268</v>
+        <v>1497.976088569983</v>
       </c>
       <c r="F68" t="n">
-        <v>2662.748553545481</v>
+        <v>2948.038740378244</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.745442866345561</v>
       </c>
     </row>
     <row r="69">
@@ -2114,13 +2320,16 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.044000546296458</v>
+        <v>0.08578948795900909</v>
       </c>
       <c r="E69" t="n">
-        <v>1414.158584627901</v>
+        <v>1497.657783589634</v>
       </c>
       <c r="F69" t="n">
-        <v>2662.856764077436</v>
+        <v>2947.523783890093</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.744448039764006</v>
       </c>
     </row>
     <row r="70">
@@ -2138,13 +2347,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.04359674425931914</v>
+        <v>0.08961462780850127</v>
       </c>
       <c r="E70" t="n">
-        <v>1417.221732572541</v>
+        <v>1493.84996616225</v>
       </c>
       <c r="F70" t="n">
-        <v>2663.419083156683</v>
+        <v>2941.350966549657</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.82601398544567</v>
       </c>
     </row>
     <row r="71">
@@ -2162,13 +2374,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.1766772923457474</v>
+        <v>0.0757483911364063</v>
       </c>
       <c r="E71" t="n">
-        <v>894.1463627553553</v>
+        <v>1136.437402249549</v>
       </c>
       <c r="F71" t="n">
-        <v>2471.178011662563</v>
+        <v>2963.666427030441</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.714154898481153</v>
       </c>
     </row>
     <row r="72">
@@ -2186,13 +2401,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.5596891273161072</v>
+        <v>0.5756357340703506</v>
       </c>
       <c r="E72" t="n">
-        <v>828.8116903858612</v>
+        <v>935.7049465040277</v>
       </c>
       <c r="F72" t="n">
-        <v>1807.168670854451</v>
+        <v>2008.184524790955</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.734167964079</v>
       </c>
     </row>
     <row r="73">
@@ -2210,13 +2428,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.0440298897520921</v>
+        <v>0.2191436555894121</v>
       </c>
       <c r="E73" t="n">
-        <v>1219.625585532802</v>
+        <v>1273.525936432737</v>
       </c>
       <c r="F73" t="n">
-        <v>2662.815896889379</v>
+        <v>2724.079540625129</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.535473438659026</v>
       </c>
     </row>
     <row r="74">
@@ -2234,13 +2455,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.4012773115758766</v>
+        <v>0.6017692084113193</v>
       </c>
       <c r="E74" t="n">
-        <v>901.4007891665536</v>
+        <v>895.6251794108697</v>
       </c>
       <c r="F74" t="n">
-        <v>2107.326566078131</v>
+        <v>1945.367388914671</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.174807421805489</v>
       </c>
     </row>
     <row r="75">
@@ -2258,13 +2482,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4941940307366983</v>
+        <v>0.4951121591238561</v>
       </c>
       <c r="E75" t="n">
-        <v>958.0492351078752</v>
+        <v>1064.695052981714</v>
       </c>
       <c r="F75" t="n">
-        <v>1936.916770104786</v>
+        <v>2190.441548904644</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.471250898294541</v>
       </c>
     </row>
     <row r="76">
@@ -2282,13 +2509,16 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5258459588494332</v>
+        <v>0.5992508356791877</v>
       </c>
       <c r="E76" t="n">
-        <v>854.3682198574641</v>
+        <v>886.0104133567038</v>
       </c>
       <c r="F76" t="n">
-        <v>1875.334366391834</v>
+        <v>1951.50885164303</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.21197297570812</v>
       </c>
     </row>
     <row r="77">
@@ -2306,13 +2536,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.04660090862539135</v>
+        <v>-0.06727463167320824</v>
       </c>
       <c r="E77" t="n">
-        <v>983.2036235427117</v>
+        <v>1148.909155559098</v>
       </c>
       <c r="F77" t="n">
-        <v>2786.182357597987</v>
+        <v>3184.727706215495</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.200321551889889</v>
       </c>
     </row>
     <row r="78">
@@ -2330,13 +2563,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.07379935359847711</v>
+        <v>-0.08898570880670653</v>
       </c>
       <c r="E78" t="n">
-        <v>987.9083522804743</v>
+        <v>1160.989390158796</v>
       </c>
       <c r="F78" t="n">
-        <v>2822.152989638987</v>
+        <v>3216.957348965423</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.067094734536603</v>
       </c>
     </row>
     <row r="79">
@@ -2354,13 +2590,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.09551079239703442</v>
+        <v>-0.111261947839153</v>
       </c>
       <c r="E79" t="n">
-        <v>1009.93554080744</v>
+        <v>1189.302761001933</v>
       </c>
       <c r="F79" t="n">
-        <v>2850.54114709563</v>
+        <v>3249.693744969264</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.26777080118166</v>
       </c>
     </row>
     <row r="80">
@@ -2378,13 +2617,16 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0855130795481428</v>
+        <v>0.0815080228441627</v>
       </c>
       <c r="E80" t="n">
-        <v>1630.841182690511</v>
+        <v>1646.293561612038</v>
       </c>
       <c r="F80" t="n">
-        <v>3806.182429894108</v>
+        <v>3942.718717775891</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.746127117064881</v>
       </c>
     </row>
     <row r="81">
@@ -2402,13 +2644,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.08550372055780131</v>
+        <v>0.08158282084459945</v>
       </c>
       <c r="E81" t="n">
-        <v>1630.819301963498</v>
+        <v>1646.012790873878</v>
       </c>
       <c r="F81" t="n">
-        <v>3806.201906352799</v>
+        <v>3942.558175556715</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.74615151450749</v>
       </c>
     </row>
     <row r="82">
@@ -2426,13 +2671,16 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.08540853737025322</v>
+        <v>0.08160360790929699</v>
       </c>
       <c r="E82" t="n">
-        <v>1630.522022675233</v>
+        <v>1645.54833792526</v>
       </c>
       <c r="F82" t="n">
-        <v>3806.399980971363</v>
+        <v>3942.513558209902</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.746531465405588</v>
       </c>
     </row>
     <row r="83">
@@ -2450,13 +2698,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.07991538466249393</v>
+        <v>0.07896304625953454</v>
       </c>
       <c r="E83" t="n">
-        <v>1632.204862591003</v>
+        <v>1636.535830747948</v>
       </c>
       <c r="F83" t="n">
-        <v>3817.813729848797</v>
+        <v>3948.177222579006</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.713447393276684</v>
       </c>
     </row>
     <row r="84">
@@ -2474,13 +2725,16 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.004051485594809945</v>
+        <v>0.4399183015114917</v>
       </c>
       <c r="E84" t="n">
-        <v>1451.392081400917</v>
+        <v>1052.9472902268</v>
       </c>
       <c r="F84" t="n">
-        <v>3988.217570686621</v>
+        <v>3078.816475440996</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.733174117180833</v>
       </c>
     </row>
     <row r="85">
@@ -2498,13 +2752,16 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.5007450800270921</v>
+        <v>0.4044450926211944</v>
       </c>
       <c r="E85" t="n">
-        <v>1043.286895509221</v>
+        <v>1130.264678677029</v>
       </c>
       <c r="F85" t="n">
-        <v>2812.302465949332</v>
+        <v>3174.819322671979</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.76971345000705</v>
       </c>
     </row>
     <row r="86">
@@ -2522,13 +2779,16 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.330177226642186</v>
+        <v>0.2443605540569769</v>
       </c>
       <c r="E86" t="n">
-        <v>1338.491036125683</v>
+        <v>1403.396986637805</v>
       </c>
       <c r="F86" t="n">
-        <v>3257.472856144875</v>
+        <v>3576.147486268379</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.465965092291587</v>
       </c>
     </row>
     <row r="87">
@@ -2546,13 +2806,16 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5853453022007664</v>
+        <v>0.4582701661467874</v>
       </c>
       <c r="E87" t="n">
-        <v>1045.441963512957</v>
+        <v>1126.830260575705</v>
       </c>
       <c r="F87" t="n">
-        <v>2562.973678274869</v>
+        <v>3027.955496417832</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.230689145674505</v>
       </c>
     </row>
     <row r="88">
@@ -2570,13 +2833,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.4934216581792592</v>
+        <v>0.3719957050811401</v>
       </c>
       <c r="E88" t="n">
-        <v>1119.987010322889</v>
+        <v>1240.067606740417</v>
       </c>
       <c r="F88" t="n">
-        <v>2832.853788988078</v>
+        <v>3260.163778884802</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.476850023414699</v>
       </c>
     </row>
     <row r="89">
@@ -2594,13 +2860,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5552270600952535</v>
+        <v>0.3736403714129251</v>
       </c>
       <c r="E89" t="n">
-        <v>1075.764748160607</v>
+        <v>1169.076906583268</v>
       </c>
       <c r="F89" t="n">
-        <v>2654.422374200507</v>
+        <v>3255.891995412293</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.191352579753478</v>
       </c>
     </row>
     <row r="90">
@@ -2618,13 +2887,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.05287755694871499</v>
+        <v>-0.03665232773912774</v>
       </c>
       <c r="E90" t="n">
-        <v>1323.093624380385</v>
+        <v>1289.438772057901</v>
       </c>
       <c r="F90" t="n">
-        <v>4084.038101982091</v>
+        <v>4188.655806746755</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.034237947891849</v>
       </c>
     </row>
     <row r="91">
@@ -2642,13 +2914,16 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.07575087289195936</v>
+        <v>-0.06450711319162306</v>
       </c>
       <c r="E91" t="n">
-        <v>1347.553043280564</v>
+        <v>1309.389357780193</v>
       </c>
       <c r="F91" t="n">
-        <v>4128.161740851947</v>
+        <v>4244.557243196462</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.057957031144731</v>
       </c>
     </row>
     <row r="92">
@@ -2666,13 +2941,16 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.09290884171543823</v>
+        <v>-0.0797189164120411</v>
       </c>
       <c r="E92" t="n">
-        <v>1372.458139170403</v>
+        <v>1332.194975470714</v>
       </c>
       <c r="F92" t="n">
-        <v>4160.953100143805</v>
+        <v>4274.777020691938</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.241754247289913</v>
       </c>
     </row>
     <row r="93">
@@ -2690,13 +2968,16 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.09447997212462211</v>
+        <v>0.08772675117222384</v>
       </c>
       <c r="E93" t="n">
-        <v>1536.024247764726</v>
+        <v>1474.798819350083</v>
       </c>
       <c r="F93" t="n">
-        <v>3285.547211541503</v>
+        <v>2929.515976355901</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.873349286094972</v>
       </c>
     </row>
     <row r="94">
@@ -2714,13 +2995,16 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.09451821663496462</v>
+        <v>0.08773160768383204</v>
       </c>
       <c r="E94" t="n">
-        <v>1535.923697430463</v>
+        <v>1474.76101962024</v>
       </c>
       <c r="F94" t="n">
-        <v>3285.477828497937</v>
+        <v>2929.508178666284</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.873009158539146</v>
       </c>
     </row>
     <row r="95">
@@ -2738,13 +3022,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.09471868600291589</v>
+        <v>0.08772035134956802</v>
       </c>
       <c r="E95" t="n">
-        <v>1535.29824212063</v>
+        <v>1474.249595397094</v>
       </c>
       <c r="F95" t="n">
-        <v>3285.114113769134</v>
+        <v>2929.526251977739</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.873153054860178</v>
       </c>
     </row>
     <row r="96">
@@ -2762,13 +3049,16 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.1004230457748946</v>
+        <v>0.0899701241471017</v>
       </c>
       <c r="E96" t="n">
-        <v>1523.361415690177</v>
+        <v>1471.746085005976</v>
       </c>
       <c r="F96" t="n">
-        <v>3274.747675083833</v>
+        <v>2925.911769909303</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.923145326421794</v>
       </c>
     </row>
     <row r="97">
@@ -2786,13 +3076,16 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.2441085367714828</v>
+        <v>0.04634214727141817</v>
       </c>
       <c r="E97" t="n">
-        <v>1072.91580483029</v>
+        <v>1092.152392953554</v>
       </c>
       <c r="F97" t="n">
-        <v>3001.845957858802</v>
+        <v>2995.226679318938</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.681215509855311</v>
       </c>
     </row>
     <row r="98">
@@ -2810,13 +3103,16 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.5282168664649444</v>
+        <v>0.5759403348247734</v>
       </c>
       <c r="E98" t="n">
-        <v>916.0679076005229</v>
+        <v>874.0105326064547</v>
       </c>
       <c r="F98" t="n">
-        <v>2371.536904634752</v>
+        <v>1997.316472964123</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.763632390789461</v>
       </c>
     </row>
     <row r="99">
@@ -2834,13 +3130,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.3036301852925997</v>
+        <v>0.3463894401027767</v>
       </c>
       <c r="E99" t="n">
-        <v>1242.311438575675</v>
+        <v>1152.827889415388</v>
       </c>
       <c r="F99" t="n">
-        <v>2881.234794816505</v>
+        <v>2479.66453651548</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.54822809350866</v>
       </c>
     </row>
     <row r="100">
@@ -2858,13 +3157,16 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.4715712182146968</v>
+        <v>0.5850681374094044</v>
       </c>
       <c r="E100" t="n">
-        <v>992.1183360286534</v>
+        <v>893.3493598494489</v>
       </c>
       <c r="F100" t="n">
-        <v>2509.873967656905</v>
+        <v>1975.703610995496</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.366324021479748</v>
       </c>
     </row>
     <row r="101">
@@ -2882,13 +3184,16 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.5266172193961853</v>
+        <v>0.5997220410784356</v>
       </c>
       <c r="E101" t="n">
-        <v>1044.748024150163</v>
+        <v>989.8829971805206</v>
       </c>
       <c r="F101" t="n">
-        <v>2375.554017081508</v>
+        <v>1940.502645375614</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.435369947852978</v>
       </c>
     </row>
     <row r="102">
@@ -2906,13 +3211,16 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.5730229222853878</v>
+        <v>0.5725289204333758</v>
       </c>
       <c r="E102" t="n">
-        <v>926.7014075101215</v>
+        <v>949.5844304049118</v>
       </c>
       <c r="F102" t="n">
-        <v>2256.11359367832</v>
+        <v>2005.33424280326</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.290953329352429</v>
       </c>
     </row>
     <row r="103">
@@ -2930,13 +3238,16 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.04977549443946705</v>
+        <v>-0.03942790838764121</v>
       </c>
       <c r="E103" t="n">
-        <v>1170.239844756886</v>
+        <v>1030.938973103542</v>
       </c>
       <c r="F103" t="n">
-        <v>3537.585110201676</v>
+        <v>3127.01948564715</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.264637163236357</v>
       </c>
     </row>
     <row r="104">
@@ -2954,13 +3265,16 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.06642578254965237</v>
+        <v>-0.05677903895480485</v>
       </c>
       <c r="E104" t="n">
-        <v>1182.914709601125</v>
+        <v>1047.791703362183</v>
       </c>
       <c r="F104" t="n">
-        <v>3565.529222094585</v>
+        <v>3153.011074135705</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.071747685670083</v>
       </c>
     </row>
     <row r="105">
@@ -2978,13 +3292,16 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.08603157857131927</v>
+        <v>-0.07547358148621841</v>
       </c>
       <c r="E105" t="n">
-        <v>1207.144794699158</v>
+        <v>1068.216731320723</v>
       </c>
       <c r="F105" t="n">
-        <v>3598.155339123613</v>
+        <v>3180.777379132859</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.215497218094323</v>
       </c>
     </row>
     <row r="106">
@@ -3002,13 +3319,16 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.06663115618583959</v>
+        <v>0.02841143079537012</v>
       </c>
       <c r="E106" t="n">
-        <v>1343.439287639539</v>
+        <v>1321.855369891165</v>
       </c>
       <c r="F106" t="n">
-        <v>2509.127941879467</v>
+        <v>2471.122347926832</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.997486023662339</v>
       </c>
     </row>
     <row r="107">
@@ -3026,13 +3346,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.06671737802060773</v>
+        <v>0.02856207335911343</v>
       </c>
       <c r="E107" t="n">
-        <v>1343.24547970705</v>
+        <v>1321.720766657589</v>
       </c>
       <c r="F107" t="n">
-        <v>2509.012046318601</v>
+        <v>2470.930769594142</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.998162642105929</v>
       </c>
     </row>
     <row r="108">
@@ -3050,13 +3373,16 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.06717485538572843</v>
+        <v>0.02924253118263731</v>
       </c>
       <c r="E108" t="n">
-        <v>1342.389593846269</v>
+        <v>1321.02451120244</v>
       </c>
       <c r="F108" t="n">
-        <v>2508.397035984718</v>
+        <v>2470.0652182992</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.999953847766965</v>
       </c>
     </row>
     <row r="109">
@@ -3074,13 +3400,16 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.08222387890575611</v>
+        <v>0.05559589231714712</v>
       </c>
       <c r="E109" t="n">
-        <v>1310.765660401615</v>
+        <v>1291.095723665444</v>
       </c>
       <c r="F109" t="n">
-        <v>2488.081109034898</v>
+        <v>2436.306835349109</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.901364870766013</v>
       </c>
     </row>
     <row r="110">
@@ -3098,13 +3427,16 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.08594360108264953</v>
+        <v>-0.0006626185022184927</v>
       </c>
       <c r="E110" t="n">
-        <v>986.2107470988178</v>
+        <v>899.6881918305637</v>
       </c>
       <c r="F110" t="n">
-        <v>2706.448653765994</v>
+        <v>2507.823040490819</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.525839027633642</v>
       </c>
     </row>
     <row r="111">
@@ -3122,13 +3454,16 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.4284592831610112</v>
+        <v>0.45175785151269</v>
       </c>
       <c r="E111" t="n">
-        <v>828.1971727055768</v>
+        <v>782.1852574533146</v>
       </c>
       <c r="F111" t="n">
-        <v>1963.44953967387</v>
+        <v>1856.261940821436</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.607721529328668</v>
       </c>
     </row>
     <row r="112">
@@ -3146,13 +3481,16 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.2648531478253073</v>
+        <v>0.1697402477217747</v>
       </c>
       <c r="E112" t="n">
-        <v>1025.323592421564</v>
+        <v>1065.998695318327</v>
       </c>
       <c r="F112" t="n">
-        <v>2226.810230259236</v>
+        <v>2284.336308666318</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.537834088092289</v>
       </c>
     </row>
     <row r="113">
@@ -3170,13 +3508,16 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.3771168373352609</v>
+        <v>0.2601422737987711</v>
       </c>
       <c r="E113" t="n">
-        <v>888.691545985675</v>
+        <v>920.3929385890035</v>
       </c>
       <c r="F113" t="n">
-        <v>2049.743191923762</v>
+        <v>2156.389242943549</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.264932473007933</v>
       </c>
     </row>
     <row r="114">
@@ -3194,13 +3535,16 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.3922277038155672</v>
+        <v>0.4310883429210213</v>
       </c>
       <c r="E114" t="n">
-        <v>924.9914513307003</v>
+        <v>856.7333190838534</v>
       </c>
       <c r="F114" t="n">
-        <v>2024.72761800686</v>
+        <v>1890.930061930293</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.310883595106748</v>
       </c>
     </row>
     <row r="115">
@@ -3218,13 +3562,16 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.4454844153777535</v>
+        <v>0.4580998955356267</v>
       </c>
       <c r="E115" t="n">
-        <v>874.9569958581344</v>
+        <v>811.0104419023406</v>
       </c>
       <c r="F115" t="n">
-        <v>1933.984704886167</v>
+        <v>1845.494126564866</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.245931951028577</v>
       </c>
     </row>
     <row r="116">
@@ -3242,13 +3589,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.03133611193062524</v>
+        <v>-0.04989869156522353</v>
       </c>
       <c r="E116" t="n">
-        <v>890.766070477243</v>
+        <v>910.4648807707488</v>
       </c>
       <c r="F116" t="n">
-        <v>2637.523083293258</v>
+        <v>2568.779029897105</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.178683155395358</v>
       </c>
     </row>
     <row r="117">
@@ -3266,13 +3616,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.06770845034216855</v>
+        <v>-0.07451885094186461</v>
       </c>
       <c r="E117" t="n">
-        <v>916.2196899447123</v>
+        <v>925.3634444387004</v>
       </c>
       <c r="F117" t="n">
-        <v>2683.629126710258</v>
+        <v>2598.723474623105</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.970508513641754</v>
       </c>
     </row>
     <row r="118">
@@ -3290,13 +3643,16 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.08908373346887877</v>
+        <v>-0.1037720292409683</v>
       </c>
       <c r="E118" t="n">
-        <v>942.5144870984584</v>
+        <v>953.6593424142575</v>
       </c>
       <c r="F118" t="n">
-        <v>2710.358834851566</v>
+        <v>2633.86033597936</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.240826111969335</v>
       </c>
     </row>
     <row r="119">
@@ -3316,13 +3672,16 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.07267682246259949</v>
+        <v>0.07076860204635557</v>
       </c>
       <c r="E119" t="n">
-        <v>1481.13862210556</v>
+        <v>1485.238990141149</v>
       </c>
       <c r="F119" t="n">
-        <v>3065.899849190694</v>
+        <v>3072.865795181812</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.840615457604567</v>
       </c>
     </row>
     <row r="120">
@@ -3342,13 +3701,16 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.07270438946156496</v>
+        <v>0.07083663046247762</v>
       </c>
       <c r="E120" t="n">
-        <v>1481.058277158422</v>
+        <v>1485.117666430422</v>
       </c>
       <c r="F120" t="n">
-        <v>3065.860083678705</v>
+        <v>3072.758966048847</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.840691545374531</v>
       </c>
     </row>
     <row r="121">
@@ -3368,13 +3730,16 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.07282565626383888</v>
+        <v>0.07108899460012785</v>
       </c>
       <c r="E121" t="n">
-        <v>1480.592110817508</v>
+        <v>1484.620057028607</v>
       </c>
       <c r="F121" t="n">
-        <v>3065.691973700662</v>
+        <v>3072.407203094233</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.841021601949184</v>
       </c>
     </row>
     <row r="122">
@@ -3394,13 +3759,16 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.07653976340061594</v>
+        <v>0.07853592263307116</v>
       </c>
       <c r="E122" t="n">
-        <v>1470.888417813834</v>
+        <v>1473.306901395404</v>
       </c>
       <c r="F122" t="n">
-        <v>3061.015399281053</v>
+        <v>3062.936698596769</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.84099289397754</v>
       </c>
     </row>
     <row r="123">
@@ -3420,13 +3788,16 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.08269768560994267</v>
+        <v>0.1403365553542744</v>
       </c>
       <c r="E123" t="n">
-        <v>1101.166249021345</v>
+        <v>1045.306319315117</v>
       </c>
       <c r="F123" t="n">
-        <v>3041.922548493495</v>
+        <v>2886.383155570299</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.663595888287734</v>
       </c>
     </row>
     <row r="124">
@@ -3446,13 +3817,16 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.5042775892422887</v>
+        <v>0.5019447532572521</v>
       </c>
       <c r="E124" t="n">
-        <v>904.0909165502956</v>
+        <v>930.5413538102067</v>
       </c>
       <c r="F124" t="n">
-        <v>2238.614395278101</v>
+        <v>2259.145565312123</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.718808833551045</v>
       </c>
     </row>
     <row r="125">
@@ -3472,13 +3846,16 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.2356726123780463</v>
+        <v>0.2449084743677351</v>
       </c>
       <c r="E125" t="n">
-        <v>1206.437913163931</v>
+        <v>1223.937376951064</v>
       </c>
       <c r="F125" t="n">
-        <v>2757.083444527499</v>
+        <v>2766.056968018826</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.52187517813789</v>
       </c>
     </row>
     <row r="126">
@@ -3498,13 +3875,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.4588276673316502</v>
+        <v>0.4763124464415706</v>
       </c>
       <c r="E126" t="n">
-        <v>956.9131586734596</v>
+        <v>959.0494346062567</v>
       </c>
       <c r="F126" t="n">
-        <v>2307.479350983417</v>
+        <v>2276.353934817887</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.259188265491919</v>
       </c>
     </row>
     <row r="127">
@@ -3524,13 +3904,16 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.4766151530319275</v>
+        <v>0.4744795620511133</v>
       </c>
       <c r="E127" t="n">
-        <v>1011.943930227907</v>
+        <v>1037.844743996626</v>
       </c>
       <c r="F127" t="n">
-        <v>2292.513048545308</v>
+        <v>2320.509508773838</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.423588616167242</v>
       </c>
     </row>
     <row r="128">
@@ -3550,13 +3933,16 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.524895089151957</v>
+        <v>0.5008800057652788</v>
       </c>
       <c r="E128" t="n">
-        <v>932.9478428465818</v>
+        <v>953.9205480618059</v>
       </c>
       <c r="F128" t="n">
-        <v>2179.963759789207</v>
+        <v>2264.557304105862</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.235052708960652</v>
       </c>
     </row>
     <row r="129">
@@ -3576,13 +3962,16 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.04514751798604966</v>
+        <v>-0.04831338984130018</v>
       </c>
       <c r="E129" t="n">
-        <v>1091.825790789306</v>
+        <v>1094.937945372822</v>
       </c>
       <c r="F129" t="n">
-        <v>3261.332163268753</v>
+        <v>3267.295507126626</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.169469954603363</v>
       </c>
     </row>
     <row r="130">
@@ -3602,13 +3991,16 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.07092111484556435</v>
+        <v>-0.07119767797374976</v>
       </c>
       <c r="E130" t="n">
-        <v>1108.648948776719</v>
+        <v>1110.883473934968</v>
       </c>
       <c r="F130" t="n">
-        <v>3299.868269823945</v>
+        <v>3303.312285230174</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.041826991248293</v>
       </c>
     </row>
     <row r="131">
@@ -3628,13 +4020,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.09088373653816767</v>
+        <v>-0.0925566187445952</v>
       </c>
       <c r="E131" t="n">
-        <v>1133.013240443865</v>
+        <v>1135.843452551907</v>
       </c>
       <c r="F131" t="n">
-        <v>3330.002105303653</v>
+        <v>3334.777120193355</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.241462094633808</v>
       </c>
     </row>
     <row r="132">
@@ -3652,13 +4047,16 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.173138106559236</v>
+        <v>0.2156653392914109</v>
       </c>
       <c r="E132" t="n">
-        <v>1298.484319049486</v>
+        <v>1379.370403131089</v>
       </c>
       <c r="F132" t="n">
-        <v>2476.483695073353</v>
+        <v>2730.139990771495</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.77713056199924</v>
       </c>
     </row>
     <row r="133">
@@ -3676,13 +4074,16 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.1731380069756455</v>
+        <v>0.2156653251685405</v>
       </c>
       <c r="E133" t="n">
-        <v>1298.484450464962</v>
+        <v>1379.370415773424</v>
       </c>
       <c r="F133" t="n">
-        <v>2476.483844201722</v>
+        <v>2730.14001535119</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.777130629232713</v>
       </c>
     </row>
     <row r="134">
@@ -3700,13 +4101,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.1729559710563187</v>
+        <v>0.2156595154633689</v>
       </c>
       <c r="E134" t="n">
-        <v>1298.826977612865</v>
+        <v>1379.359276505658</v>
       </c>
       <c r="F134" t="n">
-        <v>2476.756431530746</v>
+        <v>2730.1501266466</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.777155130268098</v>
       </c>
     </row>
     <row r="135">
@@ -3724,13 +4128,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1729278278518611</v>
+        <v>0.2156498996456642</v>
       </c>
       <c r="E135" t="n">
-        <v>1298.827041822689</v>
+        <v>1379.368844702305</v>
       </c>
       <c r="F135" t="n">
-        <v>2476.798571530088</v>
+        <v>2730.166862073356</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.777204000441944</v>
       </c>
     </row>
     <row r="136">
@@ -3748,13 +4155,16 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.3439605097066609</v>
+        <v>0.2747202507137354</v>
       </c>
       <c r="E136" t="n">
-        <v>959.7739927084426</v>
+        <v>1055.772174148992</v>
       </c>
       <c r="F136" t="n">
-        <v>2205.890627454608</v>
+        <v>2625.348662677777</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.950161946720089</v>
       </c>
     </row>
     <row r="137">
@@ -3772,13 +4182,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.5244388138540861</v>
+        <v>0.460610021931417</v>
       </c>
       <c r="E137" t="n">
-        <v>795.3007775261353</v>
+        <v>957.7514613080053</v>
       </c>
       <c r="F137" t="n">
-        <v>1878.115015927873</v>
+        <v>2264.048100053327</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.761639115106576</v>
       </c>
     </row>
     <row r="138">
@@ -3796,13 +4209,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.4467769822876594</v>
+        <v>0.3836603125510701</v>
       </c>
       <c r="E138" t="n">
-        <v>910.0986335531215</v>
+        <v>1048.836545540809</v>
       </c>
       <c r="F138" t="n">
-        <v>2025.671905612415</v>
+        <v>2420.161119960637</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.181798564296466</v>
       </c>
     </row>
     <row r="139">
@@ -3820,13 +4236,16 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.5364641275088871</v>
+        <v>0.5324534742691418</v>
       </c>
       <c r="E139" t="n">
-        <v>833.0472492879852</v>
+        <v>911.5155361808949</v>
       </c>
       <c r="F139" t="n">
-        <v>1854.217428388244</v>
+        <v>2107.883624101039</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.115548682169935</v>
       </c>
     </row>
     <row r="140">
@@ -3844,13 +4263,16 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.5091407951372073</v>
+        <v>0.3957189020826191</v>
       </c>
       <c r="E140" t="n">
-        <v>861.5235562745761</v>
+        <v>989.8131051510329</v>
       </c>
       <c r="F140" t="n">
-        <v>1908.083842334589</v>
+        <v>2396.369136732445</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.087797203961329</v>
       </c>
     </row>
     <row r="141">
@@ -3868,13 +4290,16 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.6137292486892516</v>
+        <v>0.6025156441524735</v>
       </c>
       <c r="E141" t="n">
-        <v>747.8155013873252</v>
+        <v>869.5353717746119</v>
       </c>
       <c r="F141" t="n">
-        <v>1692.641155763889</v>
+        <v>1943.543355137337</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.940655076548429</v>
       </c>
     </row>
     <row r="142">
@@ -3892,13 +4317,16 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.06771588083801738</v>
+        <v>0.07062946269027426</v>
       </c>
       <c r="E142" t="n">
-        <v>985.8952086435421</v>
+        <v>1134.284521966525</v>
       </c>
       <c r="F142" t="n">
-        <v>2629.62080637254</v>
+        <v>2971.862165343676</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2.104456557570597</v>
       </c>
     </row>
     <row r="143">
@@ -3916,13 +4344,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.01882507346544182</v>
+        <v>-0.04142016124845105</v>
       </c>
       <c r="E143" t="n">
-        <v>959.9100282832632</v>
+        <v>1123.428270719461</v>
       </c>
       <c r="F143" t="n">
-        <v>2748.962379533474</v>
+        <v>3145.916587607142</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.945711089772712</v>
       </c>
     </row>
     <row r="144">
@@ -3940,13 +4371,16 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.2253955452612975</v>
+        <v>-0.2364685133396385</v>
       </c>
       <c r="E144" t="n">
-        <v>1269.648438883613</v>
+        <v>1460.048803825936</v>
       </c>
       <c r="F144" t="n">
-        <v>3014.790463114143</v>
+        <v>3427.881053052013</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4.393223523691502</v>
       </c>
     </row>
     <row r="145">
@@ -3964,13 +4398,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.2636531099300611</v>
+        <v>0.2171403019232306</v>
       </c>
       <c r="E145" t="n">
-        <v>1575.306745239911</v>
+        <v>1588.004002083803</v>
       </c>
       <c r="F145" t="n">
-        <v>3415.403974290998</v>
+        <v>3639.989065711259</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2.70823158188943</v>
       </c>
     </row>
     <row r="146">
@@ -3988,13 +4425,16 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.2636531034361369</v>
+        <v>0.2171403065900265</v>
       </c>
       <c r="E146" t="n">
-        <v>1575.306721799568</v>
+        <v>1588.004048233969</v>
       </c>
       <c r="F146" t="n">
-        <v>3415.403989351409</v>
+        <v>3639.989054861879</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.708231592993315</v>
       </c>
     </row>
     <row r="147">
@@ -4012,13 +4452,16 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.2636520386542079</v>
+        <v>0.2171810587954471</v>
       </c>
       <c r="E147" t="n">
-        <v>1575.259804555577</v>
+        <v>1588.43993344211</v>
       </c>
       <c r="F147" t="n">
-        <v>3415.406458743995</v>
+        <v>3639.894312781375</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2.708387379837018</v>
       </c>
     </row>
     <row r="148">
@@ -4036,13 +4479,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.2636476002205991</v>
+        <v>0.2171811426004515</v>
       </c>
       <c r="E148" t="n">
-        <v>1575.242344743595</v>
+        <v>1588.439658882969</v>
       </c>
       <c r="F148" t="n">
-        <v>3415.416752132968</v>
+        <v>3639.894117946177</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2.708388068933323</v>
       </c>
     </row>
     <row r="149">
@@ -4060,13 +4506,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.1746395099179315</v>
+        <v>0.08078800858271673</v>
       </c>
       <c r="E149" t="n">
-        <v>1166.897619218104</v>
+        <v>1251.662262747942</v>
       </c>
       <c r="F149" t="n">
-        <v>3615.952265510478</v>
+        <v>3944.26378166932</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2.011900981747316</v>
       </c>
     </row>
     <row r="150">
@@ -4084,13 +4533,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.4555677789240641</v>
+        <v>0.3535661909984352</v>
       </c>
       <c r="E150" t="n">
-        <v>1085.537543476255</v>
+        <v>1190.364852266945</v>
       </c>
       <c r="F150" t="n">
-        <v>2936.789109659398</v>
+        <v>3307.654523301912</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.812465902232127</v>
       </c>
     </row>
     <row r="151">
@@ -4108,13 +4560,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.4271824825160442</v>
+        <v>0.3621398940226591</v>
       </c>
       <c r="E151" t="n">
-        <v>1210.117622553559</v>
+        <v>1257.995412805749</v>
       </c>
       <c r="F151" t="n">
-        <v>3012.374734177518</v>
+        <v>3285.646463546463</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2.167965154060535</v>
       </c>
     </row>
     <row r="152">
@@ -4132,13 +4587,16 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.4589348337103707</v>
+        <v>0.4513249023722631</v>
       </c>
       <c r="E152" t="n">
-        <v>1043.966456862112</v>
+        <v>1151.074096431053</v>
       </c>
       <c r="F152" t="n">
-        <v>2927.693702039342</v>
+        <v>3047.303678092561</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.134981213974924</v>
       </c>
     </row>
     <row r="153">
@@ -4156,13 +4614,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.4972608684266482</v>
+        <v>0.3784867619740805</v>
       </c>
       <c r="E153" t="n">
-        <v>1079.222782812675</v>
+        <v>1189.714797584238</v>
       </c>
       <c r="F153" t="n">
-        <v>2822.098684381374</v>
+        <v>3243.271477679095</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2.101849340749497</v>
       </c>
     </row>
     <row r="154">
@@ -4180,13 +4641,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.5507763790701847</v>
+        <v>0.4702038745850365</v>
       </c>
       <c r="E154" t="n">
-        <v>1004.067259140868</v>
+        <v>1097.72840090873</v>
       </c>
       <c r="F154" t="n">
-        <v>2667.670234648177</v>
+        <v>2994.418518754497</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.111258568606569</v>
       </c>
     </row>
     <row r="155">
@@ -4204,13 +4668,16 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.05737695362020412</v>
+        <v>0.07823693841038704</v>
       </c>
       <c r="E155" t="n">
-        <v>1292.358917524751</v>
+        <v>1282.803835553577</v>
       </c>
       <c r="F155" t="n">
-        <v>3864.29148368609</v>
+        <v>3949.733206660136</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.182935803675122</v>
       </c>
     </row>
     <row r="156">
@@ -4228,13 +4695,16 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-0.0422363533587029</v>
+        <v>-0.03050158463683572</v>
       </c>
       <c r="E156" t="n">
-        <v>1301.900035465093</v>
+        <v>1269.060263520616</v>
       </c>
       <c r="F156" t="n">
-        <v>4063.347449532639</v>
+        <v>4176.211096902286</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.871161600962432</v>
       </c>
     </row>
     <row r="157">
@@ -4252,13 +4722,16 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.161885291796084</v>
+        <v>-0.1422741558229388</v>
       </c>
       <c r="E157" t="n">
-        <v>1585.287969815897</v>
+        <v>1559.447780830483</v>
       </c>
       <c r="F157" t="n">
-        <v>4290.24879497755</v>
+        <v>4396.866570643566</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4.289131451011245</v>
       </c>
     </row>
     <row r="158">
@@ -4276,13 +4749,16 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.2718242717877354</v>
+        <v>0.271607295206871</v>
       </c>
       <c r="E158" t="n">
-        <v>1411.605375071681</v>
+        <v>1354.885250515634</v>
       </c>
       <c r="F158" t="n">
-        <v>2946.298749306268</v>
+        <v>2617.677828455592</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.067805356087644</v>
       </c>
     </row>
     <row r="159">
@@ -4300,13 +4776,16 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.2718242792876112</v>
+        <v>0.2716073065576843</v>
       </c>
       <c r="E159" t="n">
-        <v>1411.605375740653</v>
+        <v>1354.885254861779</v>
       </c>
       <c r="F159" t="n">
-        <v>2946.298734133506</v>
+        <v>2617.67780805947</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.067805335059314</v>
       </c>
     </row>
     <row r="160">
@@ -4324,13 +4803,16 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.271916418321471</v>
+        <v>0.2717590483676661</v>
       </c>
       <c r="E160" t="n">
-        <v>1411.632731640353</v>
+        <v>1355.096722321661</v>
       </c>
       <c r="F160" t="n">
-        <v>2946.112324659</v>
+        <v>2617.405131067067</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3.067512306144107</v>
       </c>
     </row>
     <row r="161">
@@ -4348,13 +4830,16 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.2719170998701737</v>
+        <v>0.2717589749656553</v>
       </c>
       <c r="E161" t="n">
-        <v>1411.630906023932</v>
+        <v>1355.090251083172</v>
       </c>
       <c r="F161" t="n">
-        <v>2946.11094575172</v>
+        <v>2617.405262975878</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3.067521002819057</v>
       </c>
     </row>
     <row r="162">
@@ -4372,13 +4857,16 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.1764907121737148</v>
+        <v>0.3424192928627429</v>
       </c>
       <c r="E162" t="n">
-        <v>1097.4308015381</v>
+        <v>940.217948527012</v>
       </c>
       <c r="F162" t="n">
-        <v>3133.234737575552</v>
+        <v>2487.184097577696</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.845120796323503</v>
       </c>
     </row>
     <row r="163">
@@ -4396,13 +4884,16 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.5894961496787966</v>
+        <v>0.6892590150726972</v>
       </c>
       <c r="E163" t="n">
-        <v>868.2171850412296</v>
+        <v>733.4559265331127</v>
       </c>
       <c r="F163" t="n">
-        <v>2212.163892983838</v>
+        <v>1709.750225980445</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.728093992132039</v>
       </c>
     </row>
     <row r="164">
@@ -4420,13 +4911,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.339922284600587</v>
+        <v>0.4811507298691712</v>
       </c>
       <c r="E164" t="n">
-        <v>1090.906783282847</v>
+        <v>966.5347090898459</v>
       </c>
       <c r="F164" t="n">
-        <v>2805.15082816963</v>
+        <v>2209.296506937023</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2.281778779944087</v>
       </c>
     </row>
     <row r="165">
@@ -4444,13 +4938,16 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.619937354462273</v>
+        <v>0.7059816800676604</v>
       </c>
       <c r="E165" t="n">
-        <v>819.3604096790342</v>
+        <v>722.2349433311476</v>
       </c>
       <c r="F165" t="n">
-        <v>2128.561857206009</v>
+        <v>1663.108551484552</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2.063514956810269</v>
       </c>
     </row>
     <row r="166">
@@ -4468,13 +4965,16 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.5816209705945329</v>
+        <v>0.5846968327251513</v>
       </c>
       <c r="E166" t="n">
-        <v>904.5291234301434</v>
+        <v>848.910928593865</v>
       </c>
       <c r="F166" t="n">
-        <v>2233.282362374793</v>
+        <v>1976.587399432682</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2.244637191373061</v>
       </c>
     </row>
     <row r="167">
@@ -4492,13 +4992,16 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.6253171818633501</v>
+        <v>0.6953276453212013</v>
       </c>
       <c r="E167" t="n">
-        <v>844.9914517019146</v>
+        <v>734.4035157349026</v>
       </c>
       <c r="F167" t="n">
-        <v>2113.443154424219</v>
+        <v>1692.972584619468</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2.032660044051113</v>
       </c>
     </row>
     <row r="168">
@@ -4516,13 +5019,16 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.06692237489407848</v>
+        <v>0.09933396298364916</v>
       </c>
       <c r="E168" t="n">
-        <v>1134.460094929391</v>
+        <v>1011.383543141108</v>
       </c>
       <c r="F168" t="n">
-        <v>3335.166882327879</v>
+        <v>2910.819622983436</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2.201161539962271</v>
       </c>
     </row>
     <row r="169">
@@ -4540,13 +5046,16 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-0.03444246904565262</v>
+        <v>-0.01625127367218915</v>
       </c>
       <c r="E169" t="n">
-        <v>1147.122542490405</v>
+        <v>1009.591151581562</v>
       </c>
       <c r="F169" t="n">
-        <v>3511.655086728817</v>
+        <v>3091.960607822676</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.932446110771024</v>
       </c>
     </row>
     <row r="170">
@@ -4564,13 +5073,16 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-0.1799841122010375</v>
+        <v>-0.1842182733073163</v>
       </c>
       <c r="E170" t="n">
-        <v>1449.303120792659</v>
+        <v>1301.769514309972</v>
       </c>
       <c r="F170" t="n">
-        <v>3750.565564955687</v>
+        <v>3337.715226484263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4.075588422418827</v>
       </c>
     </row>
     <row r="171">
@@ -4588,13 +5100,16 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.1852359625662167</v>
+        <v>0.1430381550711409</v>
       </c>
       <c r="E171" t="n">
-        <v>1276.740507300292</v>
+        <v>1246.983462833161</v>
       </c>
       <c r="F171" t="n">
-        <v>2344.294035825453</v>
+        <v>2320.779037194368</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.003881602198972</v>
       </c>
     </row>
     <row r="172">
@@ -4612,13 +5127,16 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.1852359753251123</v>
+        <v>0.1430381407653778</v>
       </c>
       <c r="E172" t="n">
-        <v>1276.740506033677</v>
+        <v>1246.98347191656</v>
       </c>
       <c r="F172" t="n">
-        <v>2344.294017470075</v>
+        <v>2320.779056565426</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.003881883034129</v>
       </c>
     </row>
     <row r="173">
@@ -4636,13 +5154,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.1853917262560419</v>
+        <v>0.1429357920920599</v>
       </c>
       <c r="E173" t="n">
-        <v>1276.776608587987</v>
+        <v>1247.088280012096</v>
       </c>
       <c r="F173" t="n">
-        <v>2344.069938217895</v>
+        <v>2320.91764007602</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3.004660420799247</v>
       </c>
     </row>
     <row r="174">
@@ -4660,13 +5181,16 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.1853919994840599</v>
+        <v>0.1429370457068807</v>
       </c>
       <c r="E174" t="n">
-        <v>1276.775639564574</v>
+        <v>1247.08252583125</v>
       </c>
       <c r="F174" t="n">
-        <v>2344.069545105244</v>
+        <v>2320.91594268988</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3.004689130693992</v>
       </c>
     </row>
     <row r="175">
@@ -4684,13 +5208,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.07380628909479348</v>
+        <v>0.3757545098101397</v>
       </c>
       <c r="E175" t="n">
-        <v>900.3694351872851</v>
+        <v>802.714768422131</v>
       </c>
       <c r="F175" t="n">
-        <v>2499.465063325502</v>
+        <v>1980.754981116047</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.730992465297056</v>
       </c>
     </row>
     <row r="176">
@@ -4708,13 +5235,16 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.4696741252710945</v>
+        <v>0.5058772727842866</v>
       </c>
       <c r="E176" t="n">
-        <v>750.6786297296781</v>
+        <v>751.4065106443984</v>
       </c>
       <c r="F176" t="n">
-        <v>1891.331106238872</v>
+        <v>1762.26195261178</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.64291334549998</v>
       </c>
     </row>
     <row r="177">
@@ -4732,13 +5262,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.4045111423079651</v>
+        <v>0.3097904393178633</v>
       </c>
       <c r="E177" t="n">
-        <v>878.191054897572</v>
+        <v>882.4528999002562</v>
       </c>
       <c r="F177" t="n">
-        <v>2004.162707493491</v>
+        <v>2082.780655540951</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.092021018675299</v>
       </c>
     </row>
     <row r="178">
@@ -4756,13 +5289,16 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.5016486335256624</v>
+        <v>0.5757709614693314</v>
       </c>
       <c r="E178" t="n">
-        <v>735.1630194011012</v>
+        <v>724.1340342509291</v>
       </c>
       <c r="F178" t="n">
-        <v>1833.428523454024</v>
+        <v>1632.876152341614</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.128937713667065</v>
       </c>
     </row>
     <row r="179">
@@ -4780,13 +5316,16 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.4565059999004478</v>
+        <v>0.3108412291620175</v>
       </c>
       <c r="E179" t="n">
-        <v>792.6591205298358</v>
+        <v>858.5392384330028</v>
       </c>
       <c r="F179" t="n">
-        <v>1914.668242222917</v>
+        <v>2081.194616677302</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2.074899917428043</v>
       </c>
     </row>
     <row r="180">
@@ -4804,13 +5343,16 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.5089720428924795</v>
+        <v>0.5617519437459314</v>
       </c>
       <c r="E180" t="n">
-        <v>731.8653624294428</v>
+        <v>699.7002268458291</v>
       </c>
       <c r="F180" t="n">
-        <v>1819.907298769252</v>
+        <v>1659.636773882964</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.994715690037199</v>
       </c>
     </row>
     <row r="181">
@@ -4828,13 +5370,16 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.1274377693325109</v>
+        <v>0.080019271343169</v>
       </c>
       <c r="E181" t="n">
-        <v>877.3571319544343</v>
+        <v>886.667568554425</v>
       </c>
       <c r="F181" t="n">
-        <v>2426.019917350776</v>
+        <v>2404.597631555789</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.964633135344635</v>
       </c>
     </row>
     <row r="182">
@@ -4852,13 +5397,16 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.01691647015276199</v>
+        <v>-0.02700853808702108</v>
       </c>
       <c r="E182" t="n">
-        <v>878.8986046739824</v>
+        <v>900.4632157035096</v>
       </c>
       <c r="F182" t="n">
-        <v>2619.019895117513</v>
+        <v>2540.622132248577</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.852938835044538</v>
       </c>
     </row>
     <row r="183">
@@ -4876,13 +5424,16 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.2104705765519062</v>
+        <v>-0.2354819664151675</v>
       </c>
       <c r="E183" t="n">
-        <v>1176.310172961003</v>
+        <v>1182.815210099882</v>
       </c>
       <c r="F183" t="n">
-        <v>2857.414705840753</v>
+        <v>2786.578329003765</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4.04158398029845</v>
       </c>
     </row>
     <row r="184">
@@ -4902,13 +5453,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.2234628627108123</v>
+        <v>0.2118627728731634</v>
       </c>
       <c r="E184" t="n">
-        <v>1390.534236665342</v>
+        <v>1392.310779640922</v>
       </c>
       <c r="F184" t="n">
-        <v>2795.620113624018</v>
+        <v>2827.146480533178</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2.889262275543822</v>
       </c>
     </row>
     <row r="185">
@@ -4928,13 +5482,16 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.2234628412561265</v>
+        <v>0.2118627697704073</v>
       </c>
       <c r="E185" t="n">
-        <v>1390.534263509715</v>
+        <v>1392.310797696433</v>
       </c>
       <c r="F185" t="n">
-        <v>2795.620146289178</v>
+        <v>2827.146483709491</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2.889262360079868</v>
       </c>
     </row>
     <row r="186">
@@ -4954,13 +5511,16 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.2234790385720099</v>
+        <v>0.2118838536796355</v>
       </c>
       <c r="E186" t="n">
-        <v>1390.624030599196</v>
+        <v>1392.496053070381</v>
       </c>
       <c r="F186" t="n">
-        <v>2795.586288287909</v>
+        <v>2827.091802642766</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2.889428809262117</v>
       </c>
     </row>
     <row r="187">
@@ -4980,13 +5540,16 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.2234711318566734</v>
+        <v>0.2118817657296629</v>
       </c>
       <c r="E187" t="n">
-        <v>1390.618983038697</v>
+        <v>1392.495320124924</v>
       </c>
       <c r="F187" t="n">
-        <v>2795.598953630005</v>
+        <v>2827.095546421323</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.889450550722079</v>
       </c>
     </row>
     <row r="188">
@@ -5006,13 +5569,16 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.1922242552232752</v>
+        <v>0.2684205154923337</v>
       </c>
       <c r="E188" t="n">
-        <v>1031.117962162983</v>
+        <v>1012.591788461519</v>
       </c>
       <c r="F188" t="n">
-        <v>2863.635673466536</v>
+        <v>2759.38788076021</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.884544047521991</v>
       </c>
     </row>
     <row r="189">
@@ -5032,13 +5598,16 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.5097942169320103</v>
+        <v>0.502328125196709</v>
       </c>
       <c r="E189" t="n">
-        <v>874.9335339433245</v>
+        <v>908.2446876881154</v>
       </c>
       <c r="F189" t="n">
-        <v>2229.599781202495</v>
+        <v>2260.928700486866</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.73627808874268</v>
       </c>
     </row>
     <row r="190">
@@ -5058,13 +5627,16 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.4045982229280639</v>
+        <v>0.384185343940191</v>
       </c>
       <c r="E190" t="n">
-        <v>1022.328523571775</v>
+        <v>1038.954891834165</v>
       </c>
       <c r="F190" t="n">
-        <v>2461.840043863263</v>
+        <v>2499.471186496269</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2.180890879244097</v>
       </c>
     </row>
     <row r="191">
@@ -5084,13 +5656,16 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.5292462373017983</v>
+        <v>0.5663827545445992</v>
       </c>
       <c r="E191" t="n">
-        <v>857.8842838075582</v>
+        <v>877.2396525485062</v>
       </c>
       <c r="F191" t="n">
-        <v>2185.975377771905</v>
+        <v>2112.793001504942</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2.110745641655548</v>
       </c>
     </row>
     <row r="192">
@@ -5110,13 +5685,16 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.5111321585147091</v>
+        <v>0.4174359314859671</v>
       </c>
       <c r="E192" t="n">
-        <v>909.4836457618077</v>
+        <v>971.7445174405345</v>
       </c>
       <c r="F192" t="n">
-        <v>2219.533282828418</v>
+        <v>2424.355657630381</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.127295913377982</v>
       </c>
     </row>
     <row r="193">
@@ -5136,13 +5714,16 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.5746987131288165</v>
+        <v>0.5824497769511606</v>
       </c>
       <c r="E193" t="n">
-        <v>832.1848936648878</v>
+        <v>850.3418788160185</v>
       </c>
       <c r="F193" t="n">
-        <v>2073.415460901384</v>
+        <v>2072.642808098567</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.019822344810827</v>
       </c>
     </row>
     <row r="194">
@@ -5162,13 +5743,16 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.07986324467120273</v>
+        <v>0.08205490885686986</v>
       </c>
       <c r="E194" t="n">
-        <v>1072.51783826303</v>
+        <v>1078.784867303909</v>
       </c>
       <c r="F194" t="n">
-        <v>3063.774772434322</v>
+        <v>3059.253156635759</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2.113296759138156</v>
       </c>
     </row>
     <row r="195">
@@ -5188,13 +5772,16 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-0.02810509150563983</v>
+        <v>-0.02879538941112425</v>
       </c>
       <c r="E195" t="n">
-        <v>1071.957802728186</v>
+        <v>1075.635725381287</v>
       </c>
       <c r="F195" t="n">
-        <v>3235.746202728111</v>
+        <v>3238.67760614517</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.900564409137676</v>
       </c>
     </row>
     <row r="196">
@@ -5214,13 +5801,1797 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-0.1944338814525813</v>
+        <v>-0.1996107272212653</v>
       </c>
       <c r="E196" t="n">
-        <v>1370.137425613293</v>
+        <v>1376.020327266568</v>
       </c>
       <c r="F196" t="n">
-        <v>3478.254882222033</v>
+        <v>3487.260294795902</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4.199881844355006</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1361147946595725</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1502.2939804249</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2865.248085562765</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.756674249374389</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.134151061504195</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1500.257569443743</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2868.50279391631</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.773852690133381</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.135728073338378</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1499.555467058183</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2865.889333115202</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2.767635522247734</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.09847708554492329</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1481.746805378943</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2926.999159556014</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2.764256545848189</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.1155443995781573</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1232.353090553493</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3255.949369411123</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.695849763344315</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5595791238535717</v>
+      </c>
+      <c r="E202" t="n">
+        <v>940.2271511125068</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2045.82349105854</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.770710863898862</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.2854704898193183</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1253.355766698755</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2605.819308389157</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2.389761925181495</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4434299106766573</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1046.342727199326</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2299.821577836644</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.374187727776649</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5209836578212335</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1066.442365929134</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2133.582192011951</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.479349957522629</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6021525069896332</v>
+      </c>
+      <c r="E206" t="n">
+        <v>921.3386717444847</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1944.430951952857</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.302494578073885</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.05747181008934588</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1127.033297693041</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3170.068248216161</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.079045501232187</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.09026038274179982</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1162.014895550091</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3218.839546503297</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.070505825997597</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.1083254514314937</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1186.95021789519</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3245.397266314232</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.252243005106361</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.09579209553347767</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1635.219173962264</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3911.940680859673</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.766930529113728</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.09582055039331261</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1635.002308381986</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3911.87912720649</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.766705577460505</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.09581955785188012</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1634.287097829548</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3911.881274291922</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.764296520573951</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.08345709938624635</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1626.607701626505</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3938.533193091792</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.744796586466244</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.3671406113073298</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1085.3746428498</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3272.741659628097</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.769240298856994</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.3745666403851879</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1157.952293470838</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3253.483676466662</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.820227980823697</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.2896309526528934</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1363.865618191831</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3467.369510314597</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.422947803709899</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.435502358159977</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1145.437442480238</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3090.930052139836</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2.283119317065726</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.3630698853805268</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1252.562940088105</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3283.250375937083</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.488833721593373</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3566344332668309</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1234.79608042166</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3299.795438268548</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2.27806819659914</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.0336172004617501</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1278.845791726293</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4182.519505207471</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.043694805075906</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-0.0655730511358863</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1310.179348701677</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4246.681842695977</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2.049924110670716</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.07832565867600749</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1330.219263713153</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4272.018067111302</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2.259782844473843</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.09449911026298519</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1504.31648317227</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2918.621931128391</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2.907287195978644</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.09455430516307339</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1503.988811619683</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2918.532977322468</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.907320805392604</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.09460154979102697</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1503.084749622386</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2918.456834267081</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.907900527706962</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.09601351103605449</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1458.865870217087</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2916.180291952385</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2.843708551718659</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.4720343756085961</v>
+      </c>
+      <c r="E227" t="n">
+        <v>849.9107189783546</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2228.621029239865</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.696668341580671</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.5981865875875757</v>
+      </c>
+      <c r="E228" t="n">
+        <v>863.4136098806835</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1944.220936122826</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.808768044654984</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.3612140865665294</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1177.805583961522</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2451.382413350284</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2.502448199402619</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6107362854414085</v>
+      </c>
+      <c r="E230" t="n">
+        <v>933.4700384653855</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1913.618505456996</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2.426425469792686</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5549975975763148</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1028.986617738301</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2046.042161185668</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2.442346316154915</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.5980913562900911</v>
+      </c>
+      <c r="E232" t="n">
+        <v>969.173197396086</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1944.451316328627</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2.314836461979214</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>-0.03197967060327001</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1022.85852789285</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3115.795687245272</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2.16642011010356</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>-0.05797901308689113</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1048.310636840973</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3154.800690576624</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2.075832964782276</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.07504183030236145</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1067.639119646352</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3180.138850079546</v>
+      </c>
+      <c r="G235" t="n">
+        <v>2.217855065896392</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.05869370674018437</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1314.193272239415</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2432.30779212876</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2.938592677465739</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.05884992917750798</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1313.863620023301</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2432.105946660724</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2.938258371121495</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>4</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.05976132970928383</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1312.494191557953</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2430.928047608924</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2.92587889205108</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>4</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.07493709950121186</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1276.924167762837</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2411.230241986346</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2.843936988615174</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>4</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>-0.1261188973793415</v>
+      </c>
+      <c r="E240" t="n">
+        <v>924.7325242779337</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2660.389182097473</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.646431301850243</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>4</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4621236382321683</v>
+      </c>
+      <c r="E241" t="n">
+        <v>762.2115570498784</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1838.62973453261</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.635827889359331</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2900748765861877</v>
+      </c>
+      <c r="E242" t="n">
+        <v>990.5421856076148</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2112.318111517046</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2.392809798886114</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>4</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3178263515768772</v>
+      </c>
+      <c r="E243" t="n">
+        <v>919.8993812104479</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2070.620548392268</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2.351638994565759</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>4</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4940134314882173</v>
+      </c>
+      <c r="E244" t="n">
+        <v>814.9004944410086</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1783.292340757557</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2.40309820662402</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>4</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.5210889818618714</v>
+      </c>
+      <c r="E245" t="n">
+        <v>746.0120926748456</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1734.924038108038</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2.148234998931829</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>4</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>-0.03771258301280511</v>
+      </c>
+      <c r="E246" t="n">
+        <v>897.931401292284</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2553.82768955478</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2.083164598266048</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>4</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>-0.07553407184304994</v>
+      </c>
+      <c r="E247" t="n">
+        <v>925.8331846012409</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2599.950840484988</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.97307171744657</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>-0.101443947247966</v>
+      </c>
+      <c r="E248" t="n">
+        <v>950.5291712619841</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2631.08119345662</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2.223589727667129</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.09627492679905494</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1489.005727449712</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3032.029622419897</v>
+      </c>
+      <c r="G249" t="n">
+        <v>2.842371162983125</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.09584396155952224</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1488.278077367179</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3032.755211276498</v>
+      </c>
+      <c r="G250" t="n">
+        <v>2.846534361026996</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.09647762767264223</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1487.355376517018</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3031.788872320782</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2.841427865644932</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.088221198867109</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1461.036136246343</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3048.235721646634</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2.799174668162067</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.1493779224896068</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1023.092744164895</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2854.42531009414</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.702047426408056</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.4986139975146259</v>
+      </c>
+      <c r="E254" t="n">
+        <v>930.9511528784765</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2270.539459545159</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.758883694684218</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3065976014062322</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1196.392288614931</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2659.222335892771</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2.426991931795031</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4518737264637299</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1011.287397338849</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2343.747670956436</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2.358842877300205</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.4832661430665731</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1040.723104549137</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2311.541767473065</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2.453407050473734</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5194918196021066</v>
+      </c>
+      <c r="E258" t="n">
+        <v>967.830010559269</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2230.900436164517</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2.260908558896017</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>-0.04019531604179277</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1081.667254651117</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3255.552782555921</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2.093081253669425</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-0.0723366297019068</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1111.584516423496</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3305.068230065222</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.04233365472429</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>mix_enc</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>-0.09078422191445717</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1133.83444312917</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3332.158844240425</v>
+      </c>
+      <c r="G261" t="n">
+        <v>2.238367660785931</v>
       </c>
     </row>
   </sheetData>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.322398366557731</v>
+        <v>0.3203696550767509</v>
       </c>
       <c r="E8" t="n">
-        <v>1180.441402094499</v>
+        <v>1181.942584118529</v>
       </c>
       <c r="F8" t="n">
-        <v>2537.589887347104</v>
+        <v>2541.38576828115</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220590041630822</v>
+        <v>2.219760455317013</v>
       </c>
     </row>
     <row r="9">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.257420349152697</v>
+        <v>0.2573778295203104</v>
       </c>
       <c r="E21" t="n">
-        <v>1361.505547025442</v>
+        <v>1360.075832579008</v>
       </c>
       <c r="F21" t="n">
-        <v>3545.10932844516</v>
+        <v>3545.210822330384</v>
       </c>
       <c r="G21" t="n">
-        <v>2.262269180471062</v>
+        <v>2.262185706310029</v>
       </c>
     </row>
     <row r="22">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.05012804455984687</v>
+        <v>-0.05421823327147846</v>
       </c>
       <c r="E34" t="n">
-        <v>1259.273692538387</v>
+        <v>1258.278033431012</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.073443878885</v>
+        <v>3149.188540885376</v>
       </c>
       <c r="G34" t="n">
-        <v>2.39647220656875</v>
+        <v>2.3966713918949</v>
       </c>
     </row>
     <row r="35">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.09707942583007978</v>
+        <v>0.0993202871358837</v>
       </c>
       <c r="E47" t="n">
-        <v>1040.516282801572</v>
+        <v>1037.162742812388</v>
       </c>
       <c r="F47" t="n">
-        <v>2382.197829061965</v>
+        <v>2379.239932616053</v>
       </c>
       <c r="G47" t="n">
-        <v>2.260960130694174</v>
+        <v>2.260734302578673</v>
       </c>
     </row>
     <row r="48">
@@ -2065,16 +2065,16 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1566925242451652</v>
+        <v>0.1557123846153666</v>
       </c>
       <c r="E60" t="n">
-        <v>1210.434231114975</v>
+        <v>1209.364798235234</v>
       </c>
       <c r="F60" t="n">
-        <v>2901.992622183278</v>
+        <v>2903.756266028241</v>
       </c>
       <c r="G60" t="n">
-        <v>2.285072889841202</v>
+        <v>2.284837964025154</v>
       </c>
     </row>
     <row r="61">
@@ -2428,16 +2428,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2191436555894121</v>
+        <v>0.2131585368715174</v>
       </c>
       <c r="E73" t="n">
-        <v>1273.525936432737</v>
+        <v>1287.453859489324</v>
       </c>
       <c r="F73" t="n">
-        <v>2724.079540625129</v>
+        <v>2734.499393814607</v>
       </c>
       <c r="G73" t="n">
-        <v>2.535473438659026</v>
+        <v>2.549313863433032</v>
       </c>
     </row>
     <row r="74">
@@ -2779,16 +2779,16 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.2443605540569769</v>
+        <v>0.2446963164717784</v>
       </c>
       <c r="E86" t="n">
-        <v>1403.396986637805</v>
+        <v>1401.762166380502</v>
       </c>
       <c r="F86" t="n">
-        <v>3576.147486268379</v>
+        <v>3575.352881555679</v>
       </c>
       <c r="G86" t="n">
-        <v>2.465965092291587</v>
+        <v>2.464964051417502</v>
       </c>
     </row>
     <row r="87">
@@ -3130,16 +3130,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.3463894401027767</v>
+        <v>0.3533782728015001</v>
       </c>
       <c r="E99" t="n">
-        <v>1152.827889415388</v>
+        <v>1146.32787344184</v>
       </c>
       <c r="F99" t="n">
-        <v>2479.66453651548</v>
+        <v>2466.371807766017</v>
       </c>
       <c r="G99" t="n">
-        <v>2.54822809350866</v>
+        <v>2.54638560107847</v>
       </c>
     </row>
     <row r="100">
@@ -3481,16 +3481,16 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1697402477217747</v>
+        <v>0.1696168718745271</v>
       </c>
       <c r="E112" t="n">
-        <v>1065.998695318327</v>
+        <v>1065.6075747525</v>
       </c>
       <c r="F112" t="n">
-        <v>2284.336308666318</v>
+        <v>2284.506027514843</v>
       </c>
       <c r="G112" t="n">
-        <v>2.537834088092289</v>
+        <v>2.537925866443591</v>
       </c>
     </row>
     <row r="113">
@@ -3846,16 +3846,16 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.2449084743677351</v>
+        <v>0.2452124995048308</v>
       </c>
       <c r="E125" t="n">
-        <v>1223.937376951064</v>
+        <v>1225.287868516042</v>
       </c>
       <c r="F125" t="n">
-        <v>2766.056968018826</v>
+        <v>2765.182527662786</v>
       </c>
       <c r="G125" t="n">
-        <v>2.52187517813789</v>
+        <v>2.524647345593149</v>
       </c>
     </row>
     <row r="126">
@@ -4209,16 +4209,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.3836603125510701</v>
+        <v>0.3843468651814392</v>
       </c>
       <c r="E138" t="n">
-        <v>1048.836545540809</v>
+        <v>1048.16851226923</v>
       </c>
       <c r="F138" t="n">
-        <v>2420.161119960637</v>
+        <v>2418.812812373364</v>
       </c>
       <c r="G138" t="n">
-        <v>2.181798564296466</v>
+        <v>2.181526273238971</v>
       </c>
     </row>
     <row r="139">
@@ -4560,16 +4560,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.3621398940226591</v>
+        <v>0.3650737309589819</v>
       </c>
       <c r="E151" t="n">
-        <v>1257.995412805749</v>
+        <v>1256.591259993101</v>
       </c>
       <c r="F151" t="n">
-        <v>3285.646463546463</v>
+        <v>3278.08159101023</v>
       </c>
       <c r="G151" t="n">
-        <v>2.167965154060535</v>
+        <v>2.168053439215266</v>
       </c>
     </row>
     <row r="152">
@@ -4911,16 +4911,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.4811507298691712</v>
+        <v>0.4943645853005236</v>
       </c>
       <c r="E164" t="n">
-        <v>966.5347090898459</v>
+        <v>961.9960783216304</v>
       </c>
       <c r="F164" t="n">
-        <v>2209.296506937023</v>
+        <v>2180.982309865845</v>
       </c>
       <c r="G164" t="n">
-        <v>2.281778779944087</v>
+        <v>2.281502254908425</v>
       </c>
     </row>
     <row r="165">
@@ -5265,7 +5265,7 @@
         <v>0.3097904393178633</v>
       </c>
       <c r="E177" t="n">
-        <v>882.4528999002562</v>
+        <v>882.4528999002563</v>
       </c>
       <c r="F177" t="n">
         <v>2082.780655540951</v>
@@ -5627,16 +5627,16 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.384185343940191</v>
+        <v>0.3883939051897021</v>
       </c>
       <c r="E190" t="n">
-        <v>1038.954891834165</v>
+        <v>1037.302187621054</v>
       </c>
       <c r="F190" t="n">
-        <v>2499.471186496269</v>
+        <v>2490.164342197598</v>
       </c>
       <c r="G190" t="n">
-        <v>2.180890879244097</v>
+        <v>2.18077574650949</v>
       </c>
     </row>
     <row r="191">
@@ -5990,16 +5990,16 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2854704898193183</v>
+        <v>0.2832307229418557</v>
       </c>
       <c r="E203" t="n">
-        <v>1253.355766698755</v>
+        <v>1253.782903093457</v>
       </c>
       <c r="F203" t="n">
-        <v>2605.819308389157</v>
+        <v>2609.900218361937</v>
       </c>
       <c r="G203" t="n">
-        <v>2.389761925181495</v>
+        <v>2.391713698839453</v>
       </c>
     </row>
     <row r="204">
@@ -6341,16 +6341,16 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.2896309526528934</v>
+        <v>0.2949525608941385</v>
       </c>
       <c r="E216" t="n">
-        <v>1363.865618191831</v>
+        <v>1362.34020622945</v>
       </c>
       <c r="F216" t="n">
-        <v>3467.369510314597</v>
+        <v>3454.357492302452</v>
       </c>
       <c r="G216" t="n">
-        <v>2.422947803709899</v>
+        <v>2.421854576172256</v>
       </c>
     </row>
     <row r="217">
@@ -6692,16 +6692,16 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.3612140865665294</v>
+        <v>0.3556752241499839</v>
       </c>
       <c r="E229" t="n">
-        <v>1177.805583961522</v>
+        <v>1179.944786216126</v>
       </c>
       <c r="F229" t="n">
-        <v>2451.382413350284</v>
+        <v>2461.987346389159</v>
       </c>
       <c r="G229" t="n">
-        <v>2.502448199402619</v>
+        <v>2.506090725547989</v>
       </c>
     </row>
     <row r="230">
@@ -7043,16 +7043,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.2900748765861877</v>
+        <v>0.2957908001956221</v>
       </c>
       <c r="E242" t="n">
-        <v>990.5421856076148</v>
+        <v>988.5080915780369</v>
       </c>
       <c r="F242" t="n">
-        <v>2112.318111517046</v>
+        <v>2103.797318349993</v>
       </c>
       <c r="G242" t="n">
-        <v>2.392809798886114</v>
+        <v>2.392633794343006</v>
       </c>
     </row>
     <row r="243">
@@ -7408,16 +7408,16 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.3065976014062322</v>
+        <v>0.3074123270454</v>
       </c>
       <c r="E255" t="n">
-        <v>1196.392288614931</v>
+        <v>1196.143996779268</v>
       </c>
       <c r="F255" t="n">
-        <v>2659.222335892771</v>
+        <v>2657.510593850885</v>
       </c>
       <c r="G255" t="n">
-        <v>2.426991931795031</v>
+        <v>2.428073198725676</v>
       </c>
     </row>
     <row r="256">
@@ -7592,6 +7592,1787 @@
       </c>
       <c r="G261" t="n">
         <v>2.238367660785931</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2295887809690887</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1499.014782236917</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2705.798876140491</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3.000586959540698</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2314380954479228</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1487.222589265751</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2702.549391073327</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2.990359506166595</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2340582459313095</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1475.181017945082</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2697.93874650482</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2.948561455193562</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.09550655220327797</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1455.732262893529</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2931.817449748508</v>
+      </c>
+      <c r="G265" t="n">
+        <v>2.746125940581579</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1409819043110194</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1172.858051427704</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2857.165313582948</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1.939173247692426</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.3320881814402206</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1123.429540230176</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2519.380577382539</v>
+      </c>
+      <c r="G267" t="n">
+        <v>2.008250484825088</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.3256212835557628</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1160.174352106995</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2531.547849314308</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2.296401060659067</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.27343059716458</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1138.182970425431</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2627.68175308389</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2.098841853107741</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.3562633920288275</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1134.512605124896</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2473.365600990243</v>
+      </c>
+      <c r="G270" t="n">
+        <v>2.341437840758826</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.440186284406497</v>
+      </c>
+      <c r="E271" t="n">
+        <v>993.063003244401</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2306.513389638585</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2.046788105305075</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>-0.02522404221319108</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1083.811696808333</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3121.358154622474</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1.889392273956243</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>-0.08799331017859968</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1141.821766044464</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3215.491199454842</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.958425942422332</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>-0.08212903363332313</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1139.221821293339</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3206.813752959269</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2.020044363394809</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.209348005263679</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1559.430785528611</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3658.05976402323</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2.759143516689199</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2088350938368916</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1553.191758142023</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3659.246099144266</v>
+      </c>
+      <c r="G276" t="n">
+        <v>2.746658785398421</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2077959974995865</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1547.434149078099</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3661.648292128223</v>
+      </c>
+      <c r="G277" t="n">
+        <v>2.739754188470988</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.0695759382416461</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1563.976442758627</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3968.245913208488</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2.629611206538204</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>-0.3140299462960423</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1734.96707690901</v>
+      </c>
+      <c r="F279" t="n">
+        <v>4715.858249082165</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2.151713185292054</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.197836309035945</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1368.076250409658</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3684.593750764102</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2.065558134019752</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1735805033922124</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1396.957992243103</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3739.886207518868</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2.237129958457857</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.1412779789975371</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1406.163634386153</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3812.276667725093</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2.104237204456869</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2642568305156586</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1279.84755953895</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3528.752757266131</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2.235680918904583</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2912897172143961</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1214.266951078179</v>
+      </c>
+      <c r="F284" t="n">
+        <v>3463.318861439393</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2.094436070902707</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>-0.007499683514692768</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1236.080814126876</v>
+      </c>
+      <c r="F285" t="n">
+        <v>4129.339307233821</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1.820633904165713</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>-0.06364458142559526</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1290.293647722228</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4242.837288807447</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1.933686567837928</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>-0.05828289658719576</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1291.434412863649</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4232.130001064194</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2.085253988306097</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>3</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2803648696001587</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1408.83758496359</v>
+      </c>
+      <c r="F288" t="n">
+        <v>2601.893875828968</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2.875355978645969</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>3</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2826744682686956</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1398.104039373749</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2597.715258276866</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2.863569199116419</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>3</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2855885485144231</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1387.359376045542</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2592.433378484723</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2.855025657421919</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>3</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.104553818506691</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1412.670878807696</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2902.372465120357</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2.818128776936377</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.03743535622595651</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1186.729125366266</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3009.181294749545</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2.06759338974217</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>3</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.406822766002737</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1070.690523010228</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2362.248805802767</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2.110783667531934</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>3</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.4031188607618331</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1077.666044407498</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2369.612481677912</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2.50162590320169</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>3</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4141341813962379</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1000.838159350645</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2347.645300336291</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2.176315322521002</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>3</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.4628947861482892</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1022.375330709813</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2247.82804275159</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2.310851548473315</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>3</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.5220645701245448</v>
+      </c>
+      <c r="E297" t="n">
+        <v>933.3538653211011</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2120.401066793753</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2.208935901820831</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>3</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>-0.003209371869600242</v>
+      </c>
+      <c r="E298" t="n">
+        <v>976.7580664153428</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3072.056445903278</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1.846148072838379</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>3</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>-0.06151146680750674</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1026.42303804225</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3160.063035363304</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1.945100493387643</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>3</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>-0.05485010147588087</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1029.870440955709</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3150.132166202746</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2.066878139423097</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>4</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.1754972193220675</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1316.741068301994</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2276.40280627935</v>
+      </c>
+      <c r="G301" t="n">
+        <v>3.055086825456224</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.1806226126401214</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1304.887752992983</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2269.316324085688</v>
+      </c>
+      <c r="G302" t="n">
+        <v>3.023077365595401</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>4</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.1842154203003483</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1294.822664676999</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2264.335606770375</v>
+      </c>
+      <c r="G303" t="n">
+        <v>3.029621618851422</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1031266005859006</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1209.629947941855</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2374.207221761627</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2.62617812551097</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>4</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>-0.4816898013391051</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1159.95996298203</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3051.628735708698</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2.102177254835716</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>4</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0.2191506490807835</v>
+      </c>
+      <c r="E306" t="n">
+        <v>891.1673319615646</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2215.321063337053</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1.907222447548962</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0.233450671907882</v>
+      </c>
+      <c r="E307" t="n">
+        <v>944.739719157889</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2194.942277355609</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2.288717398921437</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>4</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0.1413147999797839</v>
+      </c>
+      <c r="E308" t="n">
+        <v>936.6556004986055</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2323.111415027236</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1.928526623842519</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>4</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0.3556582021123225</v>
+      </c>
+      <c r="E309" t="n">
+        <v>850.9808945985552</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2012.385605937034</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2.287237224291951</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0.3842073787494874</v>
+      </c>
+      <c r="E310" t="n">
+        <v>804.8144645256762</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1967.298633627645</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2.059861226533194</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>4</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0.01099531148697019</v>
+      </c>
+      <c r="E311" t="n">
+        <v>845.5807218084664</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2493.171910325541</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1.821550119849438</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>-0.07733643796432799</v>
+      </c>
+      <c r="E312" t="n">
+        <v>902.6199681504281</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2602.128410618114</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1.810325748496983</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>4</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>-0.06638527053087384</v>
+      </c>
+      <c r="E313" t="n">
+        <v>901.3829399139114</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2588.869260583583</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1.923544738883135</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Regressao Linear</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0.2236997187887485</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1446.006055257778</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2810.53883056801</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2.922543320083023</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Ridge</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0.2258925675484078</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1435.851534943627</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2807.206768145037</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2.905916214069209</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0.2279145530614169</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1426.19930193643</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2804.089005972035</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2.893240729984472</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0.09319072738437892</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1410.502383100427</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3044.160762459745</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2.705011012391782</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Arvore de Decisao</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>-0.1543256217745429</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1313.628554171253</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3408.458398280839</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2.065164269390591</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.2889744763899215</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1113.340911402907</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2695.386049321615</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2.022953683481434</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Gradient Boosting</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0.2839428299044226</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1144.884526978871</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2708.997203966674</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2.330968580310012</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0.2425393893845347</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1120.460091165209</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2777.678784043128</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2.076980250982033</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0.3597683027012745</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1071.929097493054</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2565.58300173625</v>
+      </c>
+      <c r="G322" t="n">
+        <v>2.293801883107169</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4094369876237313</v>
+      </c>
+      <c r="E323" t="n">
+        <v>986.3745710423392</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2464.382987874844</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2.102505326140452</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SVR (Linear Kernel)</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.006234446527628473</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1035.557824789754</v>
+      </c>
+      <c r="F324" t="n">
+        <v>3203.981454521278</v>
+      </c>
+      <c r="G324" t="n">
+        <v>1.844431092702443</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SVR (RBF Kernel)</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>-0.07262144909400742</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1090.289604989842</v>
+      </c>
+      <c r="F325" t="n">
+        <v>3305.129983560927</v>
+      </c>
+      <c r="G325" t="n">
+        <v>1.911884688036221</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>onehot_pca</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SVR (Sigmoid Kernel)</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.0654118255568184</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1090.477403756652</v>
+      </c>
+      <c r="F326" t="n">
+        <v>3294.486295202448</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2.023930307501784</v>
       </c>
     </row>
   </sheetData>

--- a/Jupyter/Python/resultados_regressao.xlsx
+++ b/Jupyter/Python/resultados_regressao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>RMSLE</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Negative_Preds</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,16 +490,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-2.867925277833508e+24</v>
+        <v>-1.592322264078952e+24</v>
       </c>
       <c r="E2" t="n">
-        <v>709895529476698.6</v>
+        <v>461619983179436</v>
       </c>
       <c r="F2" t="n">
-        <v>5220572468396472</v>
+        <v>3837401378030230</v>
       </c>
       <c r="G2" t="n">
-        <v>6.01450620692251</v>
+        <v>5.529885139006331</v>
+      </c>
+      <c r="H2" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +520,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2895719596189364</v>
+        <v>0.3997272897506922</v>
       </c>
       <c r="E3" t="n">
-        <v>1396.320806890221</v>
+        <v>1353.40773169392</v>
       </c>
       <c r="F3" t="n">
-        <v>2598.329715364519</v>
+        <v>2356.112608238819</v>
       </c>
       <c r="G3" t="n">
-        <v>2.976611747671847</v>
+        <v>2.853655465741253</v>
+      </c>
+      <c r="H3" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +550,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2955805248733289</v>
+        <v>0.4178506837725592</v>
       </c>
       <c r="E4" t="n">
-        <v>1346.770236798268</v>
+        <v>1302.874719662409</v>
       </c>
       <c r="F4" t="n">
-        <v>2587.318477157633</v>
+        <v>2320.272214088614</v>
       </c>
       <c r="G4" t="n">
-        <v>2.861419676717255</v>
+        <v>2.75520614887195</v>
+      </c>
+      <c r="H4" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +580,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.09554075160152087</v>
+        <v>0.09969059615019948</v>
       </c>
       <c r="E5" t="n">
-        <v>1455.608988546472</v>
+        <v>1407.551950151327</v>
       </c>
       <c r="F5" t="n">
-        <v>2931.762022403742</v>
+        <v>2885.47713099162</v>
       </c>
       <c r="G5" t="n">
-        <v>2.746513784257023</v>
+        <v>2.722827434481883</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +610,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.08980240259731942</v>
+        <v>0.1706693615750283</v>
       </c>
       <c r="E6" t="n">
-        <v>996.9021345577129</v>
+        <v>981.9914525156605</v>
       </c>
       <c r="F6" t="n">
-        <v>2941.0476114782</v>
+        <v>2769.399429796014</v>
       </c>
       <c r="G6" t="n">
-        <v>1.615184806927609</v>
+        <v>1.74095716843879</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +640,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3927616186988533</v>
+        <v>0.3195012725841146</v>
       </c>
       <c r="E7" t="n">
-        <v>935.0117515515016</v>
+        <v>929.3721729185762</v>
       </c>
       <c r="F7" t="n">
-        <v>2402.225759896623</v>
+        <v>2508.623013739441</v>
       </c>
       <c r="G7" t="n">
-        <v>1.489187067152245</v>
+        <v>1.543385101104303</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +670,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3203696550767509</v>
+        <v>0.4265159619674753</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.942584118529</v>
+        <v>1093.651460701554</v>
       </c>
       <c r="F8" t="n">
-        <v>2541.38576828115</v>
+        <v>2302.93887337027</v>
       </c>
       <c r="G8" t="n">
-        <v>2.219760455317013</v>
+        <v>2.282211647643622</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -674,16 +700,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4611422675718883</v>
+        <v>0.5672629498974959</v>
       </c>
       <c r="E9" t="n">
-        <v>949.4402110489881</v>
+        <v>893.752385357781</v>
       </c>
       <c r="F9" t="n">
-        <v>2262.930794213354</v>
+        <v>2000.478017932805</v>
       </c>
       <c r="G9" t="n">
-        <v>2.01644638378434</v>
+        <v>2.14556304515884</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -701,16 +730,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4457916624687571</v>
+        <v>0.4688842385659576</v>
       </c>
       <c r="E10" t="n">
-        <v>1063.126988033655</v>
+        <v>1071.903830146317</v>
       </c>
       <c r="F10" t="n">
-        <v>2294.936854221487</v>
+        <v>2216.237699986836</v>
       </c>
       <c r="G10" t="n">
-        <v>2.429497546390396</v>
+        <v>2.377911184718395</v>
+      </c>
+      <c r="H10" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -728,16 +760,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5425248598112156</v>
+        <v>0.5287636968399408</v>
       </c>
       <c r="E11" t="n">
-        <v>945.0989622798276</v>
+        <v>937.5889306390438</v>
       </c>
       <c r="F11" t="n">
-        <v>2085.057145461897</v>
+        <v>2087.570319594349</v>
       </c>
       <c r="G11" t="n">
-        <v>2.121313708659138</v>
+        <v>2.291137307416063</v>
+      </c>
+      <c r="H11" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -755,16 +790,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.02495288874998636</v>
+        <v>-0.004429523101890265</v>
       </c>
       <c r="E12" t="n">
-        <v>1080.966827959419</v>
+        <v>1040.053724739916</v>
       </c>
       <c r="F12" t="n">
-        <v>3120.945355561817</v>
+        <v>3047.765005153264</v>
       </c>
       <c r="G12" t="n">
-        <v>1.895480803952598</v>
+        <v>1.797886794994241</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -782,16 +820,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.08903366880076824</v>
+        <v>-0.08028538224336335</v>
       </c>
       <c r="E13" t="n">
-        <v>1143.047928332661</v>
+        <v>1090.533928977883</v>
       </c>
       <c r="F13" t="n">
-        <v>3217.028187157065</v>
+        <v>3160.75616125669</v>
       </c>
       <c r="G13" t="n">
-        <v>1.961870033363017</v>
+        <v>1.942745787623052</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -809,16 +850,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.0889744166421691</v>
+        <v>-0.07841456491920584</v>
       </c>
       <c r="E14" t="n">
-        <v>1148.012331225946</v>
+        <v>1097.746966674595</v>
       </c>
       <c r="F14" t="n">
-        <v>3216.940669910054</v>
+        <v>3158.018107132049</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02365144553851</v>
+        <v>2.072593488391361</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -836,16 +880,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-9.559547492287205e+23</v>
+        <v>-5.378069581374653e+23</v>
       </c>
       <c r="E15" t="n">
-        <v>564496295314274.5</v>
+        <v>410305155080626.4</v>
       </c>
       <c r="F15" t="n">
-        <v>4022321484021146</v>
+        <v>2451791984194746</v>
       </c>
       <c r="G15" t="n">
-        <v>5.465035823255369</v>
+        <v>6.970839817866756</v>
+      </c>
+      <c r="H15" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -863,16 +910,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3077853675711211</v>
+        <v>0.2503426771962697</v>
       </c>
       <c r="E16" t="n">
-        <v>1534.409920307677</v>
+        <v>1524.099689963957</v>
       </c>
       <c r="F16" t="n">
-        <v>3422.77616278377</v>
+        <v>2894.688303264472</v>
       </c>
       <c r="G16" t="n">
-        <v>2.725745155153054</v>
+        <v>2.985518350278918</v>
+      </c>
+      <c r="H16" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -890,16 +940,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3230757069763286</v>
+        <v>0.2422553446733627</v>
       </c>
       <c r="E17" t="n">
-        <v>1479.809633950871</v>
+        <v>1454.35574676427</v>
       </c>
       <c r="F17" t="n">
-        <v>3384.762190738005</v>
+        <v>2910.260423091441</v>
       </c>
       <c r="G17" t="n">
-        <v>2.679561720846992</v>
+        <v>2.866188277583473</v>
+      </c>
+      <c r="H17" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -917,16 +970,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.07004982140892568</v>
+        <v>0.09501688705986133</v>
       </c>
       <c r="E18" t="n">
-        <v>1564.11713851896</v>
+        <v>1441.842801922568</v>
       </c>
       <c r="F18" t="n">
-        <v>3967.235231884708</v>
+        <v>3180.465215462801</v>
       </c>
       <c r="G18" t="n">
-        <v>2.63017409278514</v>
+        <v>2.708198570901513</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -944,16 +1000,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1712329019212181</v>
+        <v>-0.1605366403805579</v>
       </c>
       <c r="E19" t="n">
-        <v>1288.189884547297</v>
+        <v>1114.465029248337</v>
       </c>
       <c r="F19" t="n">
-        <v>3745.194368866136</v>
+        <v>3601.636182820291</v>
       </c>
       <c r="G19" t="n">
-        <v>1.694057451680555</v>
+        <v>1.681652298682436</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -971,16 +1030,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2750904014996376</v>
+        <v>0.146137111025056</v>
       </c>
       <c r="E20" t="n">
-        <v>1161.198599784603</v>
+        <v>993.0691055355387</v>
       </c>
       <c r="F20" t="n">
-        <v>3502.676561075143</v>
+        <v>3089.331279356214</v>
       </c>
       <c r="G20" t="n">
-        <v>1.548344906411252</v>
+        <v>1.567125904700558</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -998,16 +1060,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2573778295203104</v>
+        <v>0.1485858698036768</v>
       </c>
       <c r="E21" t="n">
-        <v>1360.075832579008</v>
+        <v>1252.560187047256</v>
       </c>
       <c r="F21" t="n">
-        <v>3545.210822330384</v>
+        <v>3084.898214728274</v>
       </c>
       <c r="G21" t="n">
-        <v>2.262185706310029</v>
+        <v>2.297888777000552</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1025,16 +1090,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3787748204207524</v>
+        <v>0.3611831214847881</v>
       </c>
       <c r="E22" t="n">
-        <v>1158.617531957178</v>
+        <v>987.1436923345797</v>
       </c>
       <c r="F22" t="n">
-        <v>3242.519796167359</v>
+        <v>2672.136280283721</v>
       </c>
       <c r="G22" t="n">
-        <v>2.070304161122249</v>
+        <v>2.18375278570989</v>
+      </c>
+      <c r="H22" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1052,16 +1120,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4071484247126065</v>
+        <v>0.3668053863386416</v>
       </c>
       <c r="E23" t="n">
-        <v>1237.855213347684</v>
+        <v>1115.64545171129</v>
       </c>
       <c r="F23" t="n">
-        <v>3167.605585948439</v>
+        <v>2660.351479153191</v>
       </c>
       <c r="G23" t="n">
-        <v>2.369325295392418</v>
+        <v>2.416020048751442</v>
+      </c>
+      <c r="H23" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -1079,16 +1150,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4534619131641924</v>
+        <v>0.3102248295235113</v>
       </c>
       <c r="E24" t="n">
-        <v>1133.21859871091</v>
+        <v>1063.364503182594</v>
       </c>
       <c r="F24" t="n">
-        <v>3041.363483068817</v>
+        <v>2776.669507639615</v>
       </c>
       <c r="G24" t="n">
-        <v>2.162882184471972</v>
+        <v>2.29386312927073</v>
+      </c>
+      <c r="H24" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -1106,16 +1180,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.006421196886989389</v>
+        <v>-0.003826386465421328</v>
       </c>
       <c r="E25" t="n">
-        <v>1234.520476285182</v>
+        <v>1073.376218698251</v>
       </c>
       <c r="F25" t="n">
-        <v>4127.128572213122</v>
+        <v>3349.652201813631</v>
       </c>
       <c r="G25" t="n">
-        <v>1.824733748256382</v>
+        <v>2.004694960395474</v>
+      </c>
+      <c r="H25" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1133,16 +1210,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.06460507500806711</v>
+        <v>-0.07204912001860753</v>
       </c>
       <c r="E26" t="n">
-        <v>1291.788364570056</v>
+        <v>1133.285025289757</v>
       </c>
       <c r="F26" t="n">
-        <v>4244.752542488818</v>
+        <v>3461.606955004008</v>
       </c>
       <c r="G26" t="n">
-        <v>1.940926389286155</v>
+        <v>1.933897356827847</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,16 +1240,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.06374185923927822</v>
+        <v>-0.06984876699240594</v>
       </c>
       <c r="E27" t="n">
-        <v>1297.80303076979</v>
+        <v>1138.997325992726</v>
       </c>
       <c r="F27" t="n">
-        <v>4243.031303098521</v>
+        <v>3458.052701046844</v>
       </c>
       <c r="G27" t="n">
-        <v>2.118064110499436</v>
+        <v>2.112597649230286</v>
+      </c>
+      <c r="H27" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1187,16 +1270,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-5.913640945786288e+24</v>
+        <v>-3.605566668712857e+23</v>
       </c>
       <c r="E28" t="n">
-        <v>803465922855855.5</v>
+        <v>309031783512812.1</v>
       </c>
       <c r="F28" t="n">
-        <v>7458661141965289</v>
+        <v>1922533779305720</v>
       </c>
       <c r="G28" t="n">
-        <v>6.194137592588662</v>
+        <v>5.614884242422216</v>
+      </c>
+      <c r="H28" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1214,16 +1300,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1254756833204242</v>
+        <v>0.3612334512109217</v>
       </c>
       <c r="E29" t="n">
-        <v>1446.151334350247</v>
+        <v>1366.755743337335</v>
       </c>
       <c r="F29" t="n">
-        <v>2868.265477285155</v>
+        <v>2558.929355160757</v>
       </c>
       <c r="G29" t="n">
-        <v>2.903755408373901</v>
+        <v>3.025238404095295</v>
+      </c>
+      <c r="H29" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="30">
@@ -1241,16 +1330,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.06818176762516881</v>
+        <v>0.3810114880630234</v>
       </c>
       <c r="E30" t="n">
-        <v>1444.226968279515</v>
+        <v>1312.07531494434</v>
       </c>
       <c r="F30" t="n">
-        <v>3169.976051887703</v>
+        <v>2519.001977644461</v>
       </c>
       <c r="G30" t="n">
-        <v>2.816545833921174</v>
+        <v>2.968116547459752</v>
+      </c>
+      <c r="H30" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -1268,16 +1360,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1055004467531034</v>
+        <v>0.1010620078237334</v>
       </c>
       <c r="E31" t="n">
-        <v>1411.914801152233</v>
+        <v>1347.472754946318</v>
       </c>
       <c r="F31" t="n">
-        <v>2900.837926068789</v>
+        <v>3035.652686718811</v>
       </c>
       <c r="G31" t="n">
-        <v>2.818040632556881</v>
+        <v>2.673706713388869</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1295,16 +1390,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.6660578364412264</v>
+        <v>0.2143158931296586</v>
       </c>
       <c r="E32" t="n">
-        <v>1170.696606167809</v>
+        <v>965.641857771829</v>
       </c>
       <c r="F32" t="n">
-        <v>3958.935604785964</v>
+        <v>2837.992204013594</v>
       </c>
       <c r="G32" t="n">
-        <v>1.57324186752301</v>
+        <v>1.677139463673699</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1322,16 +1420,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.03371457329333483</v>
+        <v>0.3450453237718719</v>
       </c>
       <c r="E33" t="n">
-        <v>977.6391694000663</v>
+        <v>911.9783516943349</v>
       </c>
       <c r="F33" t="n">
-        <v>3014.991663611672</v>
+        <v>2591.15168800685</v>
       </c>
       <c r="G33" t="n">
-        <v>1.518044148739881</v>
+        <v>1.504435124439863</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1349,16 +1450,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.05421823327147846</v>
+        <v>0.4435691424151509</v>
       </c>
       <c r="E34" t="n">
-        <v>1258.278033431012</v>
+        <v>1051.209627009056</v>
       </c>
       <c r="F34" t="n">
-        <v>3149.188540885376</v>
+        <v>2388.321659331786</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3966713918949</v>
+        <v>2.260834657766575</v>
+      </c>
+      <c r="H34" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1376,16 +1480,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1371842802564036</v>
+        <v>0.4940648412019374</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.093540878541</v>
+        <v>944.0282003597277</v>
       </c>
       <c r="F35" t="n">
-        <v>2848.999843059776</v>
+        <v>2277.37550111249</v>
       </c>
       <c r="G35" t="n">
-        <v>2.176635411861262</v>
+        <v>2.289788153229296</v>
+      </c>
+      <c r="H35" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -1403,16 +1510,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4785699551283729</v>
+        <v>0.5245172006299725</v>
       </c>
       <c r="E36" t="n">
-        <v>1017.188190645241</v>
+        <v>998.4309650108037</v>
       </c>
       <c r="F36" t="n">
-        <v>2214.784251081592</v>
+        <v>2207.774025198183</v>
       </c>
       <c r="G36" t="n">
-        <v>2.397442242422718</v>
+        <v>2.381307842450196</v>
+      </c>
+      <c r="H36" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -1430,16 +1540,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1518586025760378</v>
+        <v>0.5802401970303743</v>
       </c>
       <c r="E37" t="n">
-        <v>1104.530546660761</v>
+        <v>922.6508800817164</v>
       </c>
       <c r="F37" t="n">
-        <v>2824.668790989908</v>
+        <v>2074.376757498379</v>
       </c>
       <c r="G37" t="n">
-        <v>2.334818191214927</v>
+        <v>2.060926649789841</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -1457,16 +1570,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.001922920232712455</v>
+        <v>-0.008360670995307906</v>
       </c>
       <c r="E38" t="n">
-        <v>974.4008589047294</v>
+        <v>987.0138460189997</v>
       </c>
       <c r="F38" t="n">
-        <v>3070.086109534779</v>
+        <v>3215.105018499131</v>
       </c>
       <c r="G38" t="n">
-        <v>1.832463717506368</v>
+        <v>1.919070596626002</v>
+      </c>
+      <c r="H38" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1484,16 +1600,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.06172710718863228</v>
+        <v>-0.06263966885973149</v>
       </c>
       <c r="E39" t="n">
-        <v>1028.316454602611</v>
+        <v>1038.133598248545</v>
       </c>
       <c r="F39" t="n">
-        <v>3160.38399402205</v>
+        <v>3300.503717006187</v>
       </c>
       <c r="G39" t="n">
-        <v>1.957228044389503</v>
+        <v>1.884858791520268</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1511,16 +1630,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.0617371763629766</v>
+        <v>-0.06277645928084663</v>
       </c>
       <c r="E40" t="n">
-        <v>1036.036283142485</v>
+        <v>1044.213471431058</v>
       </c>
       <c r="F40" t="n">
-        <v>3160.398980161975</v>
+        <v>3300.716142148113</v>
       </c>
       <c r="G40" t="n">
-        <v>2.091597963929126</v>
+        <v>1.963120163675869</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1538,16 +1660,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1.416036023998171e+24</v>
+        <v>-1.987006824183268e+24</v>
       </c>
       <c r="E41" t="n">
-        <v>446825827444156.3</v>
+        <v>616805481572576.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2983253789548036</v>
+        <v>4784269074114535</v>
       </c>
       <c r="G41" t="n">
-        <v>5.571818233193989</v>
+        <v>6.038013760977576</v>
+      </c>
+      <c r="H41" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="42">
@@ -1565,16 +1690,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1236901424947141</v>
+        <v>0.2313022432844434</v>
       </c>
       <c r="E42" t="n">
-        <v>1363.243323515604</v>
+        <v>1432.690617648044</v>
       </c>
       <c r="F42" t="n">
-        <v>2346.831444214013</v>
+        <v>2975.73137824048</v>
       </c>
       <c r="G42" t="n">
-        <v>3.051548119388714</v>
+        <v>2.834397778106996</v>
+      </c>
+      <c r="H42" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="43">
@@ -1592,16 +1720,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.1261611055786291</v>
+        <v>0.2021417893746218</v>
       </c>
       <c r="E43" t="n">
-        <v>1310.17089328807</v>
+        <v>1400.891383894131</v>
       </c>
       <c r="F43" t="n">
-        <v>2343.5203850873</v>
+        <v>3031.648016651249</v>
       </c>
       <c r="G43" t="n">
-        <v>2.910056554831476</v>
+        <v>2.621371609006038</v>
+      </c>
+      <c r="H43" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -1619,16 +1750,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1030301479998372</v>
+        <v>0.08612734465156047</v>
       </c>
       <c r="E44" t="n">
-        <v>1209.779483007572</v>
+        <v>1436.577489868926</v>
       </c>
       <c r="F44" t="n">
-        <v>2374.334883185227</v>
+        <v>3244.582033656549</v>
       </c>
       <c r="G44" t="n">
-        <v>2.626666738212875</v>
+        <v>2.715573407539163</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1646,16 +1780,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.004570972844638033</v>
+        <v>0.01174739513395284</v>
       </c>
       <c r="E45" t="n">
-        <v>834.7033279593492</v>
+        <v>1019.949841176655</v>
       </c>
       <c r="F45" t="n">
-        <v>2501.256328097963</v>
+        <v>3374.037472043206</v>
       </c>
       <c r="G45" t="n">
-        <v>1.585514587510535</v>
+        <v>1.574619324964359</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1673,16 +1810,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.1545227951815343</v>
+        <v>0.2591891034985172</v>
       </c>
       <c r="E46" t="n">
-        <v>784.3056340877616</v>
+        <v>1020.693996835395</v>
       </c>
       <c r="F46" t="n">
-        <v>2305.175533541864</v>
+        <v>2921.255873080574</v>
       </c>
       <c r="G46" t="n">
-        <v>1.527051001042151</v>
+        <v>1.526932194681984</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1700,16 +1840,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0993202871358837</v>
+        <v>0.2256854684223176</v>
       </c>
       <c r="E47" t="n">
-        <v>1037.162742812388</v>
+        <v>1245.672570467745</v>
       </c>
       <c r="F47" t="n">
-        <v>2379.239932616053</v>
+        <v>2986.583232765292</v>
       </c>
       <c r="G47" t="n">
-        <v>2.260734302578673</v>
+        <v>2.287161544655181</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1727,16 +1870,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3097208004040846</v>
+        <v>0.3600297594210146</v>
       </c>
       <c r="E48" t="n">
-        <v>820.8808728098621</v>
+        <v>1066.416870324602</v>
       </c>
       <c r="F48" t="n">
-        <v>2082.88572430007</v>
+        <v>2715.162377814103</v>
       </c>
       <c r="G48" t="n">
-        <v>2.073884191562555</v>
+        <v>2.019360611896114</v>
+      </c>
+      <c r="H48" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -1754,16 +1900,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4471679821709476</v>
+        <v>0.4934442381100398</v>
       </c>
       <c r="E49" t="n">
-        <v>886.831975798042</v>
+        <v>1027.893045282514</v>
       </c>
       <c r="F49" t="n">
-        <v>1864.016034289034</v>
+        <v>2415.625177510413</v>
       </c>
       <c r="G49" t="n">
-        <v>2.327275618404001</v>
+        <v>2.284834609302596</v>
+      </c>
+      <c r="H49" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1781,16 +1930,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.3723627406980587</v>
+        <v>0.4885693836212207</v>
       </c>
       <c r="E50" t="n">
-        <v>845.6786557428835</v>
+        <v>960.0379652968409</v>
       </c>
       <c r="F50" t="n">
-        <v>1986.128798500944</v>
+        <v>2427.220767167818</v>
       </c>
       <c r="G50" t="n">
-        <v>2.076688823867509</v>
+        <v>2.041223012595303</v>
+      </c>
+      <c r="H50" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1808,16 +1960,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.01292337085339712</v>
+        <v>-0.007746822793929686</v>
       </c>
       <c r="E51" t="n">
-        <v>843.5611564679534</v>
+        <v>1049.814480740635</v>
       </c>
       <c r="F51" t="n">
-        <v>2490.740512075741</v>
+        <v>3407.153001947172</v>
       </c>
       <c r="G51" t="n">
-        <v>1.787028089380176</v>
+        <v>1.730988927417502</v>
+      </c>
+      <c r="H51" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1835,16 +1990,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.07880980298928497</v>
+        <v>-0.06678661892259208</v>
       </c>
       <c r="E52" t="n">
-        <v>904.9668555994805</v>
+        <v>1105.370972744947</v>
       </c>
       <c r="F52" t="n">
-        <v>2603.907137739065</v>
+        <v>3505.53814715959</v>
       </c>
       <c r="G52" t="n">
-        <v>1.818365415195525</v>
+        <v>1.904007366080658</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1862,16 +2020,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.07568486532284435</v>
+        <v>-0.0661813348421858</v>
       </c>
       <c r="E53" t="n">
-        <v>910.0231269757604</v>
+        <v>1111.622957919936</v>
       </c>
       <c r="F53" t="n">
-        <v>2600.133095005732</v>
+        <v>3504.543502373028</v>
       </c>
       <c r="G53" t="n">
-        <v>1.956102667849924</v>
+        <v>2.000921694261105</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -1891,16 +2052,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-2.788389249211672e+24</v>
+        <v>-1.119423178317743e+24</v>
       </c>
       <c r="E54" t="n">
-        <v>631170893772746.2</v>
+        <v>449440600836362.8</v>
       </c>
       <c r="F54" t="n">
-        <v>4921202220982736</v>
+        <v>3248999053911308</v>
       </c>
       <c r="G54" t="n">
-        <v>5.811374463990132</v>
+        <v>6.03840574006822</v>
+      </c>
+      <c r="H54" t="n">
+        <v>703</v>
       </c>
     </row>
     <row r="55">
@@ -1920,16 +2084,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.211630788251299</v>
+        <v>0.3106514153605817</v>
       </c>
       <c r="E55" t="n">
-        <v>1435.031346265937</v>
+        <v>1419.238445660814</v>
       </c>
       <c r="F55" t="n">
-        <v>2809.050699911864</v>
+        <v>2696.365411226132</v>
       </c>
       <c r="G55" t="n">
-        <v>2.914415107646879</v>
+        <v>2.924702499555615</v>
+      </c>
+      <c r="H55" t="n">
+        <v>636</v>
       </c>
     </row>
     <row r="56">
@@ -1949,16 +2116,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1691588924507794</v>
+        <v>0.3108148264708918</v>
       </c>
       <c r="E56" t="n">
-        <v>1395.244433079181</v>
+        <v>1367.549291316288</v>
       </c>
       <c r="F56" t="n">
-        <v>2871.39427621766</v>
+        <v>2695.295657868941</v>
       </c>
       <c r="G56" t="n">
-        <v>2.816895946579224</v>
+        <v>2.802720645730303</v>
+      </c>
+      <c r="H56" t="n">
+        <v>551</v>
       </c>
     </row>
     <row r="57">
@@ -1978,16 +2148,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.0935302919408468</v>
+        <v>0.09547420892133868</v>
       </c>
       <c r="E57" t="n">
-        <v>1410.355102806309</v>
+        <v>1408.361249222284</v>
       </c>
       <c r="F57" t="n">
-        <v>3043.542515885617</v>
+        <v>3086.544266707445</v>
       </c>
       <c r="G57" t="n">
-        <v>2.705348811952979</v>
+        <v>2.705076531577857</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2007,16 +2180,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.1001128897695127</v>
+        <v>0.05904900236452046</v>
       </c>
       <c r="E58" t="n">
-        <v>1072.622988308042</v>
+        <v>1020.512045178121</v>
       </c>
       <c r="F58" t="n">
-        <v>3286.608478307066</v>
+        <v>3145.766322168276</v>
       </c>
       <c r="G58" t="n">
-        <v>1.616999678410427</v>
+        <v>1.668592063939821</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2036,16 +2212,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.21402234716834</v>
+        <v>0.2674682027198899</v>
       </c>
       <c r="E59" t="n">
-        <v>964.5387887059831</v>
+        <v>963.7784067459611</v>
       </c>
       <c r="F59" t="n">
-        <v>2806.267379531325</v>
+        <v>2777.59046354577</v>
       </c>
       <c r="G59" t="n">
-        <v>1.520656780836382</v>
+        <v>1.535469581231677</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2065,16 +2244,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1557123846153666</v>
+        <v>0.3110891106521552</v>
       </c>
       <c r="E60" t="n">
-        <v>1209.364798235234</v>
+        <v>1160.773461306403</v>
       </c>
       <c r="F60" t="n">
-        <v>2903.756266028241</v>
+        <v>2690.685495048906</v>
       </c>
       <c r="G60" t="n">
-        <v>2.284837964025154</v>
+        <v>2.282024156766482</v>
+      </c>
+      <c r="H60" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="61">
@@ -2094,16 +2276,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.3217055421632822</v>
+        <v>0.445635168001309</v>
       </c>
       <c r="E61" t="n">
-        <v>989.7580391736423</v>
+        <v>972.8352870941727</v>
       </c>
       <c r="F61" t="n">
-        <v>2609.33403943514</v>
+        <v>2416.28804428578</v>
       </c>
       <c r="G61" t="n">
-        <v>2.084317537082602</v>
+        <v>2.159616148998535</v>
+      </c>
+      <c r="H61" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="62">
@@ -2123,16 +2308,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.444669506120171</v>
+        <v>0.4634127659111529</v>
       </c>
       <c r="E62" t="n">
-        <v>1051.250591956155</v>
+        <v>1053.468323037731</v>
       </c>
       <c r="F62" t="n">
-        <v>2385.335681385138</v>
+        <v>2374.997095462156</v>
       </c>
       <c r="G62" t="n">
-        <v>2.380885175652383</v>
+        <v>2.365018421305658</v>
+      </c>
+      <c r="H62" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="63">
@@ -2152,16 +2340,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.3800520290623761</v>
+        <v>0.4769495267537618</v>
       </c>
       <c r="E63" t="n">
-        <v>1007.131690848596</v>
+        <v>970.9105698000488</v>
       </c>
       <c r="F63" t="n">
-        <v>2484.304554505391</v>
+        <v>2341.45933797504</v>
       </c>
       <c r="G63" t="n">
-        <v>2.173925727053386</v>
+        <v>2.171787524767984</v>
+      </c>
+      <c r="H63" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="64">
@@ -2181,16 +2372,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.00509340875407277</v>
+        <v>-0.006090850839137296</v>
       </c>
       <c r="E64" t="n">
-        <v>1033.362329904321</v>
+        <v>1037.564567549451</v>
       </c>
       <c r="F64" t="n">
-        <v>3202.225137346365</v>
+        <v>3254.918806853299</v>
       </c>
       <c r="G64" t="n">
-        <v>1.834926589773881</v>
+        <v>1.863160319858305</v>
+      </c>
+      <c r="H64" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="65">
@@ -2210,16 +2404,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.07354391349668815</v>
+        <v>-0.07044019751107361</v>
       </c>
       <c r="E65" t="n">
-        <v>1092.029900776202</v>
+        <v>1091.830881315283</v>
       </c>
       <c r="F65" t="n">
-        <v>3306.517965351749</v>
+        <v>3357.101245106619</v>
       </c>
       <c r="G65" t="n">
-        <v>1.91959747055855</v>
+        <v>1.916377325512956</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2239,16 +2436,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.07253457939181707</v>
+        <v>-0.06930528150866105</v>
       </c>
       <c r="E66" t="n">
-        <v>1097.968693028495</v>
+        <v>1098.145180504579</v>
       </c>
       <c r="F66" t="n">
-        <v>3305.126012044071</v>
+        <v>3355.332613175008</v>
       </c>
       <c r="G66" t="n">
-        <v>2.047354046954249</v>
+        <v>2.037308248889655</v>
+      </c>
+      <c r="H66" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="67">
@@ -2266,16 +2466,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.08542820337366563</v>
+        <v>0.07494059767788452</v>
       </c>
       <c r="E67" t="n">
-        <v>1498.008209711312</v>
+        <v>1487.784262140787</v>
       </c>
       <c r="F67" t="n">
-        <v>2948.106138668624</v>
+        <v>2924.869907374777</v>
       </c>
       <c r="G67" t="n">
-        <v>2.745499403596078</v>
+        <v>2.877882437309525</v>
+      </c>
+      <c r="H67" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -2293,16 +2496,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.08547001996236558</v>
+        <v>0.07493300104121969</v>
       </c>
       <c r="E68" t="n">
-        <v>1497.976088569983</v>
+        <v>1487.744268637409</v>
       </c>
       <c r="F68" t="n">
-        <v>2948.038740378244</v>
+        <v>2924.881916943193</v>
       </c>
       <c r="G68" t="n">
-        <v>2.745442866345561</v>
+        <v>2.878022233478789</v>
+      </c>
+      <c r="H68" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="69">
@@ -2320,16 +2526,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.08578948795900909</v>
+        <v>0.07491723821038121</v>
       </c>
       <c r="E69" t="n">
-        <v>1497.657783589634</v>
+        <v>1487.252175871677</v>
       </c>
       <c r="F69" t="n">
-        <v>2947.523783890093</v>
+        <v>2924.906836339589</v>
       </c>
       <c r="G69" t="n">
-        <v>2.744448039764006</v>
+        <v>2.87875478630811</v>
+      </c>
+      <c r="H69" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -2347,16 +2556,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.08961462780850127</v>
+        <v>0.07067528036823734</v>
       </c>
       <c r="E70" t="n">
-        <v>1493.84996616225</v>
+        <v>1487.143722732946</v>
       </c>
       <c r="F70" t="n">
-        <v>2941.350966549657</v>
+        <v>2931.605231930477</v>
       </c>
       <c r="G70" t="n">
-        <v>2.82601398544567</v>
+        <v>2.913074068022159</v>
+      </c>
+      <c r="H70" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="71">
@@ -2374,16 +2586,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.0757483911364063</v>
+        <v>0.5968918206571712</v>
       </c>
       <c r="E71" t="n">
-        <v>1136.437402249549</v>
+        <v>784.2236549036483</v>
       </c>
       <c r="F71" t="n">
-        <v>2963.666427030441</v>
+        <v>1930.778920026713</v>
       </c>
       <c r="G71" t="n">
-        <v>1.714154898481153</v>
+        <v>1.534664730129238</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2401,16 +2616,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.5756357340703506</v>
+        <v>0.597741149257119</v>
       </c>
       <c r="E72" t="n">
-        <v>935.7049465040277</v>
+        <v>838.2297691351348</v>
       </c>
       <c r="F72" t="n">
-        <v>2008.184524790955</v>
+        <v>1928.74382060327</v>
       </c>
       <c r="G72" t="n">
-        <v>1.734167964079</v>
+        <v>1.668960156740267</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2428,16 +2646,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2131585368715174</v>
+        <v>0.4333146152389752</v>
       </c>
       <c r="E73" t="n">
-        <v>1287.453859489324</v>
+        <v>1120.685441073812</v>
       </c>
       <c r="F73" t="n">
-        <v>2734.499393814607</v>
+        <v>2289.247504421769</v>
       </c>
       <c r="G73" t="n">
-        <v>2.549313863433032</v>
+        <v>2.38146996679754</v>
+      </c>
+      <c r="H73" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="74">
@@ -2455,16 +2676,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6017692084113193</v>
+        <v>0.5407695224163727</v>
       </c>
       <c r="E74" t="n">
-        <v>895.6251794108697</v>
+        <v>887.564530537461</v>
       </c>
       <c r="F74" t="n">
-        <v>1945.367388914671</v>
+        <v>2060.805927880731</v>
       </c>
       <c r="G74" t="n">
-        <v>2.174807421805489</v>
+        <v>2.286044647924478</v>
+      </c>
+      <c r="H74" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="75">
@@ -2482,16 +2706,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4951121591238561</v>
+        <v>0.5120032119812539</v>
       </c>
       <c r="E75" t="n">
-        <v>1064.695052981714</v>
+        <v>965.9968791166386</v>
       </c>
       <c r="F75" t="n">
-        <v>2190.441548904644</v>
+        <v>2124.370319960485</v>
       </c>
       <c r="G75" t="n">
-        <v>2.471250898294541</v>
+        <v>2.316049253573085</v>
+      </c>
+      <c r="H75" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -2509,16 +2736,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5992508356791877</v>
+        <v>0.6467230073507481</v>
       </c>
       <c r="E76" t="n">
-        <v>886.0104133567038</v>
+        <v>850.8403339997599</v>
       </c>
       <c r="F76" t="n">
-        <v>1951.50885164303</v>
+        <v>1807.504639719175</v>
       </c>
       <c r="G76" t="n">
-        <v>2.21197297570812</v>
+        <v>2.221569948186045</v>
+      </c>
+      <c r="H76" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="77">
@@ -2536,16 +2766,19 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.06727463167320824</v>
+        <v>-0.05177279686736846</v>
       </c>
       <c r="E77" t="n">
-        <v>1148.909155559098</v>
+        <v>1094.217475082841</v>
       </c>
       <c r="F77" t="n">
-        <v>3184.727706215495</v>
+        <v>3118.765421270235</v>
       </c>
       <c r="G77" t="n">
-        <v>2.200321551889889</v>
+        <v>2.116014534906651</v>
+      </c>
+      <c r="H77" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -2563,16 +2796,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.08898570880670653</v>
+        <v>-0.07677864890785613</v>
       </c>
       <c r="E78" t="n">
-        <v>1160.989390158796</v>
+        <v>1110.508559028988</v>
       </c>
       <c r="F78" t="n">
-        <v>3216.957348965423</v>
+        <v>3155.62189824549</v>
       </c>
       <c r="G78" t="n">
-        <v>2.067094734536603</v>
+        <v>2.067215338502105</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2590,16 +2826,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.111261947839153</v>
+        <v>-0.1014979787995107</v>
       </c>
       <c r="E79" t="n">
-        <v>1189.302761001933</v>
+        <v>1137.371750747098</v>
       </c>
       <c r="F79" t="n">
-        <v>3249.693744969264</v>
+        <v>3191.637768618794</v>
       </c>
       <c r="G79" t="n">
-        <v>2.26777080118166</v>
+        <v>2.252562761305828</v>
+      </c>
+      <c r="H79" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -2617,16 +2856,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0815080228441627</v>
+        <v>0.09810755836947238</v>
       </c>
       <c r="E80" t="n">
-        <v>1646.293561612038</v>
+        <v>1470.395890426411</v>
       </c>
       <c r="F80" t="n">
-        <v>3942.718717775891</v>
+        <v>3175.029655726843</v>
       </c>
       <c r="G80" t="n">
-        <v>2.746127117064881</v>
+        <v>2.733845266394325</v>
+      </c>
+      <c r="H80" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="81">
@@ -2644,16 +2886,19 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.08158282084459945</v>
+        <v>0.09811800546995364</v>
       </c>
       <c r="E81" t="n">
-        <v>1646.012790873878</v>
+        <v>1470.32611225597</v>
       </c>
       <c r="F81" t="n">
-        <v>3942.558175556715</v>
+        <v>3175.01126664386</v>
       </c>
       <c r="G81" t="n">
-        <v>2.74615151450749</v>
+        <v>2.733651289378856</v>
+      </c>
+      <c r="H81" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="82">
@@ -2671,16 +2916,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.08160360790929699</v>
+        <v>0.09813748286049973</v>
       </c>
       <c r="E82" t="n">
-        <v>1645.54833792526</v>
+        <v>1469.649995953097</v>
       </c>
       <c r="F82" t="n">
-        <v>3942.513558209902</v>
+        <v>3174.976982076315</v>
       </c>
       <c r="G82" t="n">
-        <v>2.746531465405588</v>
+        <v>2.732789179768592</v>
+      </c>
+      <c r="H82" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="83">
@@ -2698,16 +2946,19 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.07896304625953454</v>
+        <v>0.09891136877861983</v>
       </c>
       <c r="E83" t="n">
-        <v>1636.535830747948</v>
+        <v>1465.402051017996</v>
       </c>
       <c r="F83" t="n">
-        <v>3948.177222579006</v>
+        <v>3173.614469909707</v>
       </c>
       <c r="G83" t="n">
-        <v>2.713447393276684</v>
+        <v>2.723295787795896</v>
+      </c>
+      <c r="H83" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -2725,16 +2976,19 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.4399183015114917</v>
+        <v>0.1540724836839853</v>
       </c>
       <c r="E84" t="n">
-        <v>1052.9472902268</v>
+        <v>1129.025790888288</v>
       </c>
       <c r="F84" t="n">
-        <v>3078.816475440996</v>
+        <v>3074.94242430007</v>
       </c>
       <c r="G84" t="n">
-        <v>1.733174117180833</v>
+        <v>1.774149387301448</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2752,16 +3006,19 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.4044450926211944</v>
+        <v>0.5199100439100603</v>
       </c>
       <c r="E85" t="n">
-        <v>1130.264678677029</v>
+        <v>968.1562763511205</v>
       </c>
       <c r="F85" t="n">
-        <v>3174.819322671979</v>
+        <v>2316.496895717426</v>
       </c>
       <c r="G85" t="n">
-        <v>1.76971345000705</v>
+        <v>1.786053342831021</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2779,16 +3036,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.2446963164717784</v>
+        <v>0.3831398380461326</v>
       </c>
       <c r="E86" t="n">
-        <v>1401.762166380502</v>
+        <v>1199.445148686894</v>
       </c>
       <c r="F86" t="n">
-        <v>3575.352881555679</v>
+        <v>2625.812879615988</v>
       </c>
       <c r="G86" t="n">
-        <v>2.464964051417502</v>
+        <v>2.602096439030511</v>
+      </c>
+      <c r="H86" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="87">
@@ -2806,16 +3066,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.4582701661467874</v>
+        <v>0.454213583224543</v>
       </c>
       <c r="E87" t="n">
-        <v>1126.830260575705</v>
+        <v>1013.917828022946</v>
       </c>
       <c r="F87" t="n">
-        <v>3027.955496417832</v>
+        <v>2469.913670812879</v>
       </c>
       <c r="G87" t="n">
-        <v>2.230689145674505</v>
+        <v>2.159915519045811</v>
+      </c>
+      <c r="H87" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="88">
@@ -2833,16 +3096,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.3719957050811401</v>
+        <v>0.4518687567738087</v>
       </c>
       <c r="E88" t="n">
-        <v>1240.067606740417</v>
+        <v>1031.179902113968</v>
       </c>
       <c r="F88" t="n">
-        <v>3260.163778884802</v>
+        <v>2475.213648628465</v>
       </c>
       <c r="G88" t="n">
-        <v>2.476850023414699</v>
+        <v>2.32891968029358</v>
+      </c>
+      <c r="H88" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -2860,16 +3126,19 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.3736403714129251</v>
+        <v>0.5019897016442816</v>
       </c>
       <c r="E89" t="n">
-        <v>1169.076906583268</v>
+        <v>1008.122397320927</v>
       </c>
       <c r="F89" t="n">
-        <v>3255.891995412293</v>
+        <v>2359.334803745996</v>
       </c>
       <c r="G89" t="n">
-        <v>2.191352579753478</v>
+        <v>2.290498628714559</v>
+      </c>
+      <c r="H89" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="90">
@@ -2887,16 +3156,19 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.03665232773912774</v>
+        <v>-0.0444663534118579</v>
       </c>
       <c r="E90" t="n">
-        <v>1289.438772057901</v>
+        <v>1126.769289440856</v>
       </c>
       <c r="F90" t="n">
-        <v>4188.655806746755</v>
+        <v>3416.784902931659</v>
       </c>
       <c r="G90" t="n">
-        <v>2.034237947891849</v>
+        <v>2.134541561532416</v>
+      </c>
+      <c r="H90" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -2914,16 +3186,19 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.06450711319162306</v>
+        <v>-0.06970838127712931</v>
       </c>
       <c r="E91" t="n">
-        <v>1309.389357780193</v>
+        <v>1147.927596465591</v>
       </c>
       <c r="F91" t="n">
-        <v>4244.557243196462</v>
+        <v>3457.825810507033</v>
       </c>
       <c r="G91" t="n">
-        <v>2.057957031144731</v>
+        <v>2.019937073407092</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2941,16 +3216,19 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.0797189164120411</v>
+        <v>-0.08731894874450963</v>
       </c>
       <c r="E92" t="n">
-        <v>1332.194975470714</v>
+        <v>1171.271997000475</v>
       </c>
       <c r="F92" t="n">
-        <v>4274.777020691938</v>
+        <v>3486.172644465893</v>
       </c>
       <c r="G92" t="n">
-        <v>2.241754247289913</v>
+        <v>2.185609380385168</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2968,16 +3246,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.08772675117222384</v>
+        <v>0.09500825781218281</v>
       </c>
       <c r="E93" t="n">
-        <v>1474.798819350083</v>
+        <v>1441.065431857062</v>
       </c>
       <c r="F93" t="n">
-        <v>2929.515976355901</v>
+        <v>3045.85708737209</v>
       </c>
       <c r="G93" t="n">
-        <v>2.873349286094972</v>
+        <v>2.913306995131378</v>
+      </c>
+      <c r="H93" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="94">
@@ -2995,16 +3276,19 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.08773160768383204</v>
+        <v>0.09505676831475474</v>
       </c>
       <c r="E94" t="n">
-        <v>1474.76101962024</v>
+        <v>1441.003613489471</v>
       </c>
       <c r="F94" t="n">
-        <v>2929.508178666284</v>
+        <v>3045.775452351964</v>
       </c>
       <c r="G94" t="n">
-        <v>2.873009158539146</v>
+        <v>2.913410781673825</v>
+      </c>
+      <c r="H94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95">
@@ -3022,16 +3306,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.08772035134956802</v>
+        <v>0.09532381057043837</v>
       </c>
       <c r="E95" t="n">
-        <v>1474.249595397094</v>
+        <v>1440.428648167145</v>
       </c>
       <c r="F95" t="n">
-        <v>2929.526251977739</v>
+        <v>3045.326025950965</v>
       </c>
       <c r="G95" t="n">
-        <v>2.873153054860178</v>
+        <v>2.906426177436902</v>
+      </c>
+      <c r="H95" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="96">
@@ -3049,16 +3336,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.0899701241471017</v>
+        <v>0.09690740799373554</v>
       </c>
       <c r="E96" t="n">
-        <v>1471.746085005976</v>
+        <v>1428.408720262957</v>
       </c>
       <c r="F96" t="n">
-        <v>2925.911769909303</v>
+        <v>3042.659501298432</v>
       </c>
       <c r="G96" t="n">
-        <v>2.923145326421794</v>
+        <v>2.892469769509654</v>
+      </c>
+      <c r="H96" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="97">
@@ -3076,16 +3366,19 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.04634214727141817</v>
+        <v>0.08137877814763228</v>
       </c>
       <c r="E97" t="n">
-        <v>1092.152392953554</v>
+        <v>1099.467053870917</v>
       </c>
       <c r="F97" t="n">
-        <v>2995.226679318938</v>
+        <v>3068.707191800917</v>
       </c>
       <c r="G97" t="n">
-        <v>1.681215509855311</v>
+        <v>1.554052903708621</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3103,16 +3396,19 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.5759403348247734</v>
+        <v>0.5344675152942548</v>
       </c>
       <c r="E98" t="n">
-        <v>874.0105326064547</v>
+        <v>890.1170020006979</v>
       </c>
       <c r="F98" t="n">
-        <v>1997.316472964123</v>
+        <v>2184.551108599228</v>
       </c>
       <c r="G98" t="n">
-        <v>1.763632390789461</v>
+        <v>1.715359865716059</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3130,16 +3426,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.3533782728015001</v>
+        <v>0.4785387874207381</v>
       </c>
       <c r="E99" t="n">
-        <v>1146.32787344184</v>
+        <v>1045.164148214924</v>
       </c>
       <c r="F99" t="n">
-        <v>2466.371807766017</v>
+        <v>2312.05530935071</v>
       </c>
       <c r="G99" t="n">
-        <v>2.54638560107847</v>
+        <v>2.494610367030175</v>
+      </c>
+      <c r="H99" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="100">
@@ -3157,16 +3456,19 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.5850681374094044</v>
+        <v>0.5272442939531786</v>
       </c>
       <c r="E100" t="n">
-        <v>893.3493598494489</v>
+        <v>965.7271718325052</v>
       </c>
       <c r="F100" t="n">
-        <v>1975.703610995496</v>
+        <v>2201.433665863472</v>
       </c>
       <c r="G100" t="n">
-        <v>2.366324021479748</v>
+        <v>2.238666493028829</v>
+      </c>
+      <c r="H100" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="101">
@@ -3184,16 +3486,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.5997220410784356</v>
+        <v>0.512202326745512</v>
       </c>
       <c r="E101" t="n">
-        <v>989.8829971805206</v>
+        <v>1026.877980075323</v>
       </c>
       <c r="F101" t="n">
-        <v>1940.502645375614</v>
+        <v>2236.18163406443</v>
       </c>
       <c r="G101" t="n">
-        <v>2.435369947852978</v>
+        <v>2.418368688964228</v>
+      </c>
+      <c r="H101" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="102">
@@ -3211,16 +3516,19 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.5725289204333758</v>
+        <v>0.6133713726815576</v>
       </c>
       <c r="E102" t="n">
-        <v>949.5844304049118</v>
+        <v>946.0402304518689</v>
       </c>
       <c r="F102" t="n">
-        <v>2005.33424280326</v>
+        <v>1990.830189159757</v>
       </c>
       <c r="G102" t="n">
-        <v>2.290953329352429</v>
+        <v>2.269679335800676</v>
+      </c>
+      <c r="H102" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -3238,16 +3546,19 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.03942790838764121</v>
+        <v>-0.03430072280464147</v>
       </c>
       <c r="E103" t="n">
-        <v>1030.938973103542</v>
+        <v>1042.668732855512</v>
       </c>
       <c r="F103" t="n">
-        <v>3127.01948564715</v>
+        <v>3256.196672272109</v>
       </c>
       <c r="G103" t="n">
-        <v>2.264637163236357</v>
+        <v>2.170532271835901</v>
+      </c>
+      <c r="H103" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
@@ -3265,16 +3576,19 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.05677903895480485</v>
+        <v>-0.05929049280214782</v>
       </c>
       <c r="E104" t="n">
-        <v>1047.791703362183</v>
+        <v>1060.431368203904</v>
       </c>
       <c r="F104" t="n">
-        <v>3153.011074135705</v>
+        <v>3295.298428730369</v>
       </c>
       <c r="G104" t="n">
-        <v>2.071747685670083</v>
+        <v>2.046965583904976</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -3292,16 +3606,19 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.07547358148621841</v>
+        <v>-0.08048520658457847</v>
       </c>
       <c r="E105" t="n">
-        <v>1068.216731320723</v>
+        <v>1086.9612819931</v>
       </c>
       <c r="F105" t="n">
-        <v>3180.777379132859</v>
+        <v>3328.101988363989</v>
       </c>
       <c r="G105" t="n">
-        <v>2.215497218094323</v>
+        <v>2.303040915820453</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -3319,16 +3636,19 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.02841143079537012</v>
+        <v>0.07065113471793194</v>
       </c>
       <c r="E106" t="n">
-        <v>1321.855369891165</v>
+        <v>1555.241566254871</v>
       </c>
       <c r="F106" t="n">
-        <v>2471.122347926832</v>
+        <v>3271.939797296312</v>
       </c>
       <c r="G106" t="n">
-        <v>2.997486023662339</v>
+        <v>2.774024312495746</v>
+      </c>
+      <c r="H106" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="107">
@@ -3346,16 +3666,19 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.02856207335911343</v>
+        <v>0.07067055117853993</v>
       </c>
       <c r="E107" t="n">
-        <v>1321.720766657589</v>
+        <v>1555.139914807333</v>
       </c>
       <c r="F107" t="n">
-        <v>2470.930769594142</v>
+        <v>3271.90561754725</v>
       </c>
       <c r="G107" t="n">
-        <v>2.998162642105929</v>
+        <v>2.774278893282154</v>
+      </c>
+      <c r="H107" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="108">
@@ -3373,16 +3696,19 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.02924253118263731</v>
+        <v>0.07071481213092035</v>
       </c>
       <c r="E108" t="n">
-        <v>1321.02451120244</v>
+        <v>1554.597390534422</v>
       </c>
       <c r="F108" t="n">
-        <v>2470.0652182992</v>
+        <v>3271.827701484623</v>
       </c>
       <c r="G108" t="n">
-        <v>2.999953847766965</v>
+        <v>2.776203592928157</v>
+      </c>
+      <c r="H108" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="109">
@@ -3400,16 +3726,19 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.05559589231714712</v>
+        <v>0.07245556007768217</v>
       </c>
       <c r="E109" t="n">
-        <v>1291.095723665444</v>
+        <v>1540.264251062442</v>
       </c>
       <c r="F109" t="n">
-        <v>2436.306835349109</v>
+        <v>3268.761851993901</v>
       </c>
       <c r="G109" t="n">
-        <v>2.901364870766013</v>
+        <v>2.773612818813763</v>
+      </c>
+      <c r="H109" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -3427,16 +3756,19 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.0006626185022184927</v>
+        <v>0.4204514019514409</v>
       </c>
       <c r="E110" t="n">
-        <v>899.6881918305637</v>
+        <v>993.0706647146658</v>
       </c>
       <c r="F110" t="n">
-        <v>2507.823040490819</v>
+        <v>2583.811622681485</v>
       </c>
       <c r="G110" t="n">
-        <v>1.525839027633642</v>
+        <v>1.597428333114178</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3454,16 +3786,19 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.45175785151269</v>
+        <v>0.5463466802678305</v>
       </c>
       <c r="E111" t="n">
-        <v>782.1852574533146</v>
+        <v>948.4107828461678</v>
       </c>
       <c r="F111" t="n">
-        <v>1856.261940821436</v>
+        <v>2286.009149757208</v>
       </c>
       <c r="G111" t="n">
-        <v>1.607721529328668</v>
+        <v>1.704418015337731</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3481,16 +3816,19 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1696168718745271</v>
+        <v>0.2953372298718546</v>
       </c>
       <c r="E112" t="n">
-        <v>1065.6075747525</v>
+        <v>1198.878568385975</v>
       </c>
       <c r="F112" t="n">
-        <v>2284.506027514843</v>
+        <v>2849.092707179381</v>
       </c>
       <c r="G112" t="n">
-        <v>2.537925866443591</v>
+        <v>2.481992531063991</v>
+      </c>
+      <c r="H112" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="113">
@@ -3508,16 +3846,19 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.2601422737987711</v>
+        <v>0.4425492189043196</v>
       </c>
       <c r="E113" t="n">
-        <v>920.3929385890035</v>
+        <v>1037.311792675938</v>
       </c>
       <c r="F113" t="n">
-        <v>2156.389242943549</v>
+        <v>2534.073351440994</v>
       </c>
       <c r="G113" t="n">
-        <v>2.264932473007933</v>
+        <v>2.234102252793314</v>
+      </c>
+      <c r="H113" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="114">
@@ -3535,16 +3876,19 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.4310883429210213</v>
+        <v>0.5239785274113573</v>
       </c>
       <c r="E114" t="n">
-        <v>856.7333190838534</v>
+        <v>1032.77386561394</v>
       </c>
       <c r="F114" t="n">
-        <v>1890.930061930293</v>
+        <v>2341.688857507257</v>
       </c>
       <c r="G114" t="n">
-        <v>2.310883595106748</v>
+        <v>2.325154665534869</v>
+      </c>
+      <c r="H114" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="115">
@@ -3562,16 +3906,19 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.4580998955356267</v>
+        <v>0.460069036925727</v>
       </c>
       <c r="E115" t="n">
-        <v>811.0104419023406</v>
+        <v>1028.647836350213</v>
       </c>
       <c r="F115" t="n">
-        <v>1845.494126564866</v>
+        <v>2493.934449888825</v>
       </c>
       <c r="G115" t="n">
-        <v>2.245931951028577</v>
+        <v>2.201180918299583</v>
+      </c>
+      <c r="H115" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="116">
@@ -3589,16 +3936,19 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.04989869156522353</v>
+        <v>-0.04381065384585159</v>
       </c>
       <c r="E116" t="n">
-        <v>910.4648807707488</v>
+        <v>1119.358715458086</v>
       </c>
       <c r="F116" t="n">
-        <v>2568.779029897105</v>
+        <v>3467.582322690868</v>
       </c>
       <c r="G116" t="n">
-        <v>2.178683155395358</v>
+        <v>2.234733648845685</v>
+      </c>
+      <c r="H116" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
@@ -3616,16 +3966,19 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.07451885094186461</v>
+        <v>-0.06651990231994098</v>
       </c>
       <c r="E117" t="n">
-        <v>925.3634444387004</v>
+        <v>1126.912778681911</v>
       </c>
       <c r="F117" t="n">
-        <v>2598.723474623105</v>
+        <v>3505.099894721501</v>
       </c>
       <c r="G117" t="n">
-        <v>1.970508513641754</v>
+        <v>2.05623796534657</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3643,16 +3996,19 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1037720292409683</v>
+        <v>-0.08253744823876041</v>
       </c>
       <c r="E118" t="n">
-        <v>953.6593424142575</v>
+        <v>1146.538028936683</v>
       </c>
       <c r="F118" t="n">
-        <v>2633.86033597936</v>
+        <v>3531.322504403557</v>
       </c>
       <c r="G118" t="n">
-        <v>2.240826111969335</v>
+        <v>2.198502771756879</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -3672,16 +4028,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.07076860204635557</v>
+        <v>0.08467688714436791</v>
       </c>
       <c r="E119" t="n">
-        <v>1485.238990141149</v>
+        <v>1488.621787669782</v>
       </c>
       <c r="F119" t="n">
-        <v>3072.865795181812</v>
+        <v>3104.424111942505</v>
       </c>
       <c r="G119" t="n">
-        <v>2.840615457604567</v>
+        <v>2.824764752832743</v>
+      </c>
+      <c r="H119" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="120">
@@ -3701,16 +4060,19 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.07083663046247762</v>
+        <v>0.084694581501117</v>
       </c>
       <c r="E120" t="n">
-        <v>1485.117666430422</v>
+        <v>1488.553477297546</v>
       </c>
       <c r="F120" t="n">
-        <v>3072.758966048847</v>
+        <v>3104.393563371567</v>
       </c>
       <c r="G120" t="n">
-        <v>2.840691545374531</v>
+        <v>2.824840799453406</v>
+      </c>
+      <c r="H120" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="121">
@@ -3730,16 +4092,19 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.07108899460012785</v>
+        <v>0.08477333594305991</v>
       </c>
       <c r="E121" t="n">
-        <v>1484.620057028607</v>
+        <v>1487.982052631585</v>
       </c>
       <c r="F121" t="n">
-        <v>3072.407203094233</v>
+        <v>3104.259386462873</v>
       </c>
       <c r="G121" t="n">
-        <v>2.841021601949184</v>
+        <v>2.82354343411044</v>
+      </c>
+      <c r="H121" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="122">
@@ -3759,16 +4124,19 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.07853592263307116</v>
+        <v>0.08473740430456872</v>
       </c>
       <c r="E122" t="n">
-        <v>1473.306901395404</v>
+        <v>1480.304686269085</v>
       </c>
       <c r="F122" t="n">
-        <v>3062.936698596769</v>
+        <v>3104.160263783129</v>
       </c>
       <c r="G122" t="n">
-        <v>2.84099289397754</v>
+        <v>2.825613111035368</v>
+      </c>
+      <c r="H122" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="123">
@@ -3788,16 +4156,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.1403365553542744</v>
+        <v>0.3131986211100574</v>
       </c>
       <c r="E123" t="n">
-        <v>1045.306319315117</v>
+        <v>1001.44679109438</v>
       </c>
       <c r="F123" t="n">
-        <v>2886.383155570299</v>
+        <v>2664.560039702296</v>
       </c>
       <c r="G123" t="n">
-        <v>1.663595888287734</v>
+        <v>1.615073838563371</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3817,16 +4188,19 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.5019447532572521</v>
+        <v>0.5496163471823161</v>
       </c>
       <c r="E124" t="n">
-        <v>930.5413538102067</v>
+        <v>911.2284575832803</v>
       </c>
       <c r="F124" t="n">
-        <v>2259.145565312123</v>
+        <v>2178.950243669283</v>
       </c>
       <c r="G124" t="n">
-        <v>1.718808833551045</v>
+        <v>1.71869784515627</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3846,16 +4220,19 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.2452124995048308</v>
+        <v>0.3975826176444251</v>
       </c>
       <c r="E125" t="n">
-        <v>1225.287868516042</v>
+        <v>1141.043326590401</v>
       </c>
       <c r="F125" t="n">
-        <v>2765.182527662786</v>
+        <v>2519.052100141962</v>
       </c>
       <c r="G125" t="n">
-        <v>2.524647345593149</v>
+        <v>2.490042325980554</v>
+      </c>
+      <c r="H125" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="126">
@@ -3875,16 +4252,19 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.4763124464415706</v>
+        <v>0.4911941546246035</v>
       </c>
       <c r="E126" t="n">
-        <v>959.0494346062567</v>
+        <v>976.1303307672126</v>
       </c>
       <c r="F126" t="n">
-        <v>2276.353934817887</v>
+        <v>2316.556653999519</v>
       </c>
       <c r="G126" t="n">
-        <v>2.259188265491919</v>
+        <v>2.229682228198108</v>
+      </c>
+      <c r="H126" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="127">
@@ -3904,16 +4284,19 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.4744795620511133</v>
+        <v>0.5000132057279829</v>
       </c>
       <c r="E127" t="n">
-        <v>1037.844743996626</v>
+        <v>1014.207156729968</v>
       </c>
       <c r="F127" t="n">
-        <v>2320.509508773838</v>
+        <v>2294.363615040159</v>
       </c>
       <c r="G127" t="n">
-        <v>2.423588616167242</v>
+        <v>2.34712307209144</v>
+      </c>
+      <c r="H127" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="128">
@@ -3933,16 +4316,19 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.5008800057652788</v>
+        <v>0.5555382796505786</v>
       </c>
       <c r="E128" t="n">
-        <v>953.9205480618059</v>
+        <v>958.4126995306922</v>
       </c>
       <c r="F128" t="n">
-        <v>2264.557304105862</v>
+        <v>2162.901020628438</v>
       </c>
       <c r="G128" t="n">
-        <v>2.235052708960652</v>
+        <v>2.245732207750216</v>
+      </c>
+      <c r="H128" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="129">
@@ -3962,16 +4348,19 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.04831338984130018</v>
+        <v>-0.04358763173242985</v>
       </c>
       <c r="E129" t="n">
-        <v>1094.937945372822</v>
+        <v>1095.753553209324</v>
       </c>
       <c r="F129" t="n">
-        <v>3267.295507126626</v>
+        <v>3314.832329791217</v>
       </c>
       <c r="G129" t="n">
-        <v>2.169469954603363</v>
+        <v>2.163955504280163</v>
+      </c>
+      <c r="H129" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="130">
@@ -3991,16 +4380,19 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.07119767797374976</v>
+        <v>-0.06807435632676856</v>
       </c>
       <c r="E130" t="n">
-        <v>1110.883473934968</v>
+        <v>1111.445075595098</v>
       </c>
       <c r="F130" t="n">
-        <v>3303.312285230174</v>
+        <v>3353.461508051098</v>
       </c>
       <c r="G130" t="n">
-        <v>2.041826991248293</v>
+        <v>2.047588990290186</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -4020,16 +4412,19 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.0925566187445952</v>
+        <v>-0.08795989559183981</v>
       </c>
       <c r="E131" t="n">
-        <v>1135.843452551907</v>
+        <v>1135.535764669339</v>
       </c>
       <c r="F131" t="n">
-        <v>3334.777120193355</v>
+        <v>3384.308726463058</v>
       </c>
       <c r="G131" t="n">
-        <v>2.241462094633808</v>
+        <v>2.234928957317083</v>
+      </c>
+      <c r="H131" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -4047,16 +4442,19 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.2156653392914109</v>
+        <v>0.2361246442271309</v>
       </c>
       <c r="E132" t="n">
-        <v>1379.370403131089</v>
+        <v>1405.98757749369</v>
       </c>
       <c r="F132" t="n">
-        <v>2730.139990771495</v>
+        <v>2657.865457266441</v>
       </c>
       <c r="G132" t="n">
-        <v>2.77713056199924</v>
+        <v>2.908964428978558</v>
+      </c>
+      <c r="H132" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="133">
@@ -4074,16 +4472,19 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.2156653251685405</v>
+        <v>0.2361245915894813</v>
       </c>
       <c r="E133" t="n">
-        <v>1379.370415773424</v>
+        <v>1405.987619529119</v>
       </c>
       <c r="F133" t="n">
-        <v>2730.14001535119</v>
+        <v>2657.865548841452</v>
       </c>
       <c r="G133" t="n">
-        <v>2.777130629232713</v>
+        <v>2.908965957591856</v>
+      </c>
+      <c r="H133" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="134">
@@ -4101,16 +4502,19 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.2156595154633689</v>
+        <v>0.2361192359594874</v>
       </c>
       <c r="E134" t="n">
-        <v>1379.359276505658</v>
+        <v>1405.978849680056</v>
       </c>
       <c r="F134" t="n">
-        <v>2730.1501266466</v>
+        <v>2657.874866145914</v>
       </c>
       <c r="G134" t="n">
-        <v>2.777155130268098</v>
+        <v>2.909138888810542</v>
+      </c>
+      <c r="H134" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="135">
@@ -4128,16 +4532,19 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.2156498996456642</v>
+        <v>0.2360755841299134</v>
       </c>
       <c r="E135" t="n">
-        <v>1379.368844702305</v>
+        <v>1406.014007451506</v>
       </c>
       <c r="F135" t="n">
-        <v>2730.166862073356</v>
+        <v>2657.95080695284</v>
       </c>
       <c r="G135" t="n">
-        <v>2.777204000441944</v>
+        <v>2.910935149028448</v>
+      </c>
+      <c r="H135" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="136">
@@ -4155,16 +4562,19 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.2747202507137354</v>
+        <v>0.2193977859672891</v>
       </c>
       <c r="E136" t="n">
-        <v>1055.772174148992</v>
+        <v>990.6474480071922</v>
       </c>
       <c r="F136" t="n">
-        <v>2625.348662677777</v>
+        <v>2686.808000271945</v>
       </c>
       <c r="G136" t="n">
-        <v>1.950161946720089</v>
+        <v>1.782222047682575</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4182,16 +4592,19 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.460610021931417</v>
+        <v>0.5837946011584492</v>
       </c>
       <c r="E137" t="n">
-        <v>957.7514613080053</v>
+        <v>839.6050890897468</v>
       </c>
       <c r="F137" t="n">
-        <v>2264.048100053327</v>
+        <v>1961.894267066</v>
       </c>
       <c r="G137" t="n">
-        <v>1.761639115106576</v>
+        <v>1.760258837428207</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4209,16 +4622,19 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.3843468651814392</v>
+        <v>0.5868573559707171</v>
       </c>
       <c r="E138" t="n">
-        <v>1048.16851226923</v>
+        <v>911.1024211662937</v>
       </c>
       <c r="F138" t="n">
-        <v>2418.812812373364</v>
+        <v>1954.662385507292</v>
       </c>
       <c r="G138" t="n">
-        <v>2.181526273238971</v>
+        <v>2.222133448231351</v>
+      </c>
+      <c r="H138" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="139">
@@ -4236,16 +4652,19 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.5324534742691418</v>
+        <v>0.6291026456976918</v>
       </c>
       <c r="E139" t="n">
-        <v>911.5155361808949</v>
+        <v>807.0136345340285</v>
       </c>
       <c r="F139" t="n">
-        <v>2107.883624101039</v>
+        <v>1852.032532359191</v>
       </c>
       <c r="G139" t="n">
-        <v>2.115548682169935</v>
+        <v>2.027772740180951</v>
+      </c>
+      <c r="H139" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -4263,16 +4682,19 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.3957189020826191</v>
+        <v>0.5914140938365331</v>
       </c>
       <c r="E140" t="n">
-        <v>989.8131051510329</v>
+        <v>870.7309598495121</v>
       </c>
       <c r="F140" t="n">
-        <v>2396.369136732445</v>
+        <v>1943.853068031229</v>
       </c>
       <c r="G140" t="n">
-        <v>2.087797203961329</v>
+        <v>2.05256565043086</v>
+      </c>
+      <c r="H140" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="141">
@@ -4290,16 +4712,19 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.6025156441524735</v>
+        <v>0.5900110341714303</v>
       </c>
       <c r="E141" t="n">
-        <v>869.5353717746119</v>
+        <v>831.674964000205</v>
       </c>
       <c r="F141" t="n">
-        <v>1943.543355137337</v>
+        <v>1947.187745540485</v>
       </c>
       <c r="G141" t="n">
-        <v>1.940655076548429</v>
+        <v>2.056699781047526</v>
+      </c>
+      <c r="H141" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="142">
@@ -4317,16 +4742,19 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.07062946269027426</v>
+        <v>0.07737336867643119</v>
       </c>
       <c r="E142" t="n">
-        <v>1134.284521966525</v>
+        <v>1088.853575264413</v>
       </c>
       <c r="F142" t="n">
-        <v>2971.862165343676</v>
+        <v>2921.021385303881</v>
       </c>
       <c r="G142" t="n">
-        <v>2.104456557570597</v>
+        <v>2.14220474238572</v>
+      </c>
+      <c r="H142" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="143">
@@ -4344,16 +4772,19 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.04142016124845105</v>
+        <v>-0.03478555486144264</v>
       </c>
       <c r="E143" t="n">
-        <v>1123.428270719461</v>
+        <v>1079.962023427445</v>
       </c>
       <c r="F143" t="n">
-        <v>3145.916587607142</v>
+        <v>3093.477219354273</v>
       </c>
       <c r="G143" t="n">
-        <v>1.945711089772712</v>
+        <v>1.943924705771607</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4371,16 +4802,19 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.2364685133396385</v>
+        <v>-0.2163228768414034</v>
       </c>
       <c r="E144" t="n">
-        <v>1460.048803825936</v>
+        <v>1384.59862985831</v>
       </c>
       <c r="F144" t="n">
-        <v>3427.881053052013</v>
+        <v>3353.86966137541</v>
       </c>
       <c r="G144" t="n">
-        <v>4.393223523691502</v>
+        <v>4.180028863854831</v>
+      </c>
+      <c r="H144" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="145">
@@ -4398,16 +4832,19 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.2171403019232306</v>
+        <v>0.2402054555149954</v>
       </c>
       <c r="E145" t="n">
-        <v>1588.004002083803</v>
+        <v>1475.058104102695</v>
       </c>
       <c r="F145" t="n">
-        <v>3639.989065711259</v>
+        <v>2914.194256216927</v>
       </c>
       <c r="G145" t="n">
-        <v>2.70823158188943</v>
+        <v>2.966399390272062</v>
+      </c>
+      <c r="H145" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="146">
@@ -4425,16 +4862,19 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.2171403065900265</v>
+        <v>0.2402054688037472</v>
       </c>
       <c r="E146" t="n">
-        <v>1588.004048233969</v>
+        <v>1475.058094781361</v>
       </c>
       <c r="F146" t="n">
-        <v>3639.989054861879</v>
+        <v>2914.194230732403</v>
       </c>
       <c r="G146" t="n">
-        <v>2.708231592993315</v>
+        <v>2.966399423067906</v>
+      </c>
+      <c r="H146" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="147">
@@ -4452,16 +4892,19 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.2171810587954471</v>
+        <v>0.2403738262943728</v>
       </c>
       <c r="E147" t="n">
-        <v>1588.43993344211</v>
+        <v>1475.115756419482</v>
       </c>
       <c r="F147" t="n">
-        <v>3639.894312781375</v>
+        <v>2913.871345011753</v>
       </c>
       <c r="G147" t="n">
-        <v>2.708387379837018</v>
+        <v>2.966819577923264</v>
+      </c>
+      <c r="H147" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="148">
@@ -4479,16 +4922,19 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.2171811426004515</v>
+        <v>0.2403748599070351</v>
       </c>
       <c r="E148" t="n">
-        <v>1588.439658882969</v>
+        <v>1475.108240927352</v>
       </c>
       <c r="F148" t="n">
-        <v>3639.894117946177</v>
+        <v>2913.869362579178</v>
       </c>
       <c r="G148" t="n">
-        <v>2.708388068933323</v>
+        <v>2.966829040906958</v>
+      </c>
+      <c r="H148" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="149">
@@ -4506,16 +4952,19 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.08078800858271673</v>
+        <v>0.4119605194158057</v>
       </c>
       <c r="E149" t="n">
-        <v>1251.662262747942</v>
+        <v>991.0973387953989</v>
       </c>
       <c r="F149" t="n">
-        <v>3944.26378166932</v>
+        <v>2563.738085539003</v>
       </c>
       <c r="G149" t="n">
-        <v>2.011900981747316</v>
+        <v>1.83096628803404</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4533,16 +4982,19 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.3535661909984352</v>
+        <v>0.5252846693115828</v>
       </c>
       <c r="E150" t="n">
-        <v>1190.364852266945</v>
+        <v>894.5230920609945</v>
       </c>
       <c r="F150" t="n">
-        <v>3307.654523301912</v>
+        <v>2303.493765025109</v>
       </c>
       <c r="G150" t="n">
-        <v>1.812465902232127</v>
+        <v>1.798933022538854</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4560,16 +5012,19 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.3650737309589819</v>
+        <v>0.3275522791345525</v>
       </c>
       <c r="E151" t="n">
-        <v>1256.591259993101</v>
+        <v>1112.283989361318</v>
       </c>
       <c r="F151" t="n">
-        <v>3278.08159101023</v>
+        <v>2741.572122925264</v>
       </c>
       <c r="G151" t="n">
-        <v>2.168053439215266</v>
+        <v>2.350919346627129</v>
+      </c>
+      <c r="H151" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="152">
@@ -4587,16 +5042,19 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.4513249023722631</v>
+        <v>0.5515821440670484</v>
       </c>
       <c r="E152" t="n">
-        <v>1151.074096431053</v>
+        <v>871.149755061896</v>
       </c>
       <c r="F152" t="n">
-        <v>3047.303678092561</v>
+        <v>2238.782282775378</v>
       </c>
       <c r="G152" t="n">
-        <v>2.134981213974924</v>
+        <v>2.149147973980199</v>
+      </c>
+      <c r="H152" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="153">
@@ -4614,16 +5072,19 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.3784867619740805</v>
+        <v>0.4444443190252992</v>
       </c>
       <c r="E153" t="n">
-        <v>1189.714797584238</v>
+        <v>974.8011339427768</v>
       </c>
       <c r="F153" t="n">
-        <v>3243.271477679095</v>
+        <v>2491.92064940265</v>
       </c>
       <c r="G153" t="n">
-        <v>2.101849340749497</v>
+        <v>2.127634099348805</v>
+      </c>
+      <c r="H153" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="154">
@@ -4641,16 +5102,19 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.4702038745850365</v>
+        <v>0.5470589123518685</v>
       </c>
       <c r="E154" t="n">
-        <v>1097.72840090873</v>
+        <v>869.5772033803232</v>
       </c>
       <c r="F154" t="n">
-        <v>2994.418518754497</v>
+        <v>2250.045351441114</v>
       </c>
       <c r="G154" t="n">
-        <v>2.111258568606569</v>
+        <v>2.098214401994412</v>
+      </c>
+      <c r="H154" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="155">
@@ -4668,16 +5132,19 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.07823693841038704</v>
+        <v>0.06687542276537028</v>
       </c>
       <c r="E155" t="n">
-        <v>1282.803835553577</v>
+        <v>1118.679080011063</v>
       </c>
       <c r="F155" t="n">
-        <v>3949.733206660136</v>
+        <v>3229.536717981571</v>
       </c>
       <c r="G155" t="n">
-        <v>2.182935803675122</v>
+        <v>2.159414654504221</v>
+      </c>
+      <c r="H155" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="156">
@@ -4695,16 +5162,19 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-0.03050158463683572</v>
+        <v>-0.02829820844760911</v>
       </c>
       <c r="E156" t="n">
-        <v>1269.060263520616</v>
+        <v>1118.698379557822</v>
       </c>
       <c r="F156" t="n">
-        <v>4176.211096902286</v>
+        <v>3390.236162298179</v>
       </c>
       <c r="G156" t="n">
-        <v>1.871161600962432</v>
+        <v>1.935568056563902</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4722,16 +5192,19 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1422741558229388</v>
+        <v>-0.1855378922922493</v>
       </c>
       <c r="E157" t="n">
-        <v>1559.447780830483</v>
+        <v>1400.98808705815</v>
       </c>
       <c r="F157" t="n">
-        <v>4396.866570643566</v>
+        <v>3640.224197349216</v>
       </c>
       <c r="G157" t="n">
-        <v>4.289131451011245</v>
+        <v>4.241577851052162</v>
+      </c>
+      <c r="H157" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="158">
@@ -4749,16 +5222,19 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.271607295206871</v>
+        <v>0.2533011273821121</v>
       </c>
       <c r="E158" t="n">
-        <v>1354.885250515634</v>
+        <v>1285.305387405429</v>
       </c>
       <c r="F158" t="n">
-        <v>2617.677828455592</v>
+        <v>2766.686569350177</v>
       </c>
       <c r="G158" t="n">
-        <v>3.067805356087644</v>
+        <v>2.84072793080225</v>
+      </c>
+      <c r="H158" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="159">
@@ -4776,16 +5252,19 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.2716073065576843</v>
+        <v>0.2533011259792622</v>
       </c>
       <c r="E159" t="n">
-        <v>1354.885254861779</v>
+        <v>1285.305383621421</v>
       </c>
       <c r="F159" t="n">
-        <v>2617.67780805947</v>
+        <v>2766.686571949113</v>
       </c>
       <c r="G159" t="n">
-        <v>3.067805335059314</v>
+        <v>2.840727945314129</v>
+      </c>
+      <c r="H159" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="160">
@@ -4803,16 +5282,19 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.2717590483676661</v>
+        <v>0.2532833008663242</v>
       </c>
       <c r="E160" t="n">
-        <v>1355.096722321661</v>
+        <v>1285.325185485808</v>
       </c>
       <c r="F160" t="n">
-        <v>2617.405131067067</v>
+        <v>2766.719594769965</v>
       </c>
       <c r="G160" t="n">
-        <v>3.067512306144107</v>
+        <v>2.840876634229658</v>
+      </c>
+      <c r="H160" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="161">
@@ -4830,16 +5312,19 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.2717589749656553</v>
+        <v>0.2532828793906411</v>
       </c>
       <c r="E161" t="n">
-        <v>1355.090251083172</v>
+        <v>1285.322781083165</v>
       </c>
       <c r="F161" t="n">
-        <v>2617.405262975878</v>
+        <v>2766.720375591438</v>
       </c>
       <c r="G161" t="n">
-        <v>3.067521002819057</v>
+        <v>2.840850198079742</v>
+      </c>
+      <c r="H161" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="162">
@@ -4857,16 +5342,19 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.3424192928627429</v>
+        <v>0.2455306154339985</v>
       </c>
       <c r="E162" t="n">
-        <v>940.217948527012</v>
+        <v>995.8648784454471</v>
       </c>
       <c r="F162" t="n">
-        <v>2487.184097577696</v>
+        <v>2781.045054293393</v>
       </c>
       <c r="G162" t="n">
-        <v>1.845120796323503</v>
+        <v>1.93436740400585</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4884,16 +5372,19 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.6892590150726972</v>
+        <v>0.4893488756265312</v>
       </c>
       <c r="E163" t="n">
-        <v>733.4559265331127</v>
+        <v>882.4020496369566</v>
       </c>
       <c r="F163" t="n">
-        <v>1709.750225980445</v>
+        <v>2287.964914146169</v>
       </c>
       <c r="G163" t="n">
-        <v>1.728093992132039</v>
+        <v>1.722638782201557</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4911,16 +5402,19 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.4943645853005236</v>
+        <v>0.4832641252545087</v>
       </c>
       <c r="E164" t="n">
-        <v>961.9960783216304</v>
+        <v>949.1764580930239</v>
       </c>
       <c r="F164" t="n">
-        <v>2180.982309865845</v>
+        <v>2301.555865358685</v>
       </c>
       <c r="G164" t="n">
-        <v>2.281502254908425</v>
+        <v>2.211442917759074</v>
+      </c>
+      <c r="H164" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="165">
@@ -4938,16 +5432,19 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.7059816800676604</v>
+        <v>0.5538282688188166</v>
       </c>
       <c r="E165" t="n">
-        <v>722.2349433311476</v>
+        <v>817.2363313830856</v>
       </c>
       <c r="F165" t="n">
-        <v>1663.108551484552</v>
+        <v>2138.642727726813</v>
       </c>
       <c r="G165" t="n">
-        <v>2.063514956810269</v>
+        <v>2.063058285419112</v>
+      </c>
+      <c r="H165" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="166">
@@ -4965,16 +5462,19 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.5846968327251513</v>
+        <v>0.5278378430179735</v>
       </c>
       <c r="E166" t="n">
-        <v>848.910928593865</v>
+        <v>904.2474747488561</v>
       </c>
       <c r="F166" t="n">
-        <v>1976.587399432682</v>
+        <v>2200.051271885946</v>
       </c>
       <c r="G166" t="n">
-        <v>2.244637191373061</v>
+        <v>2.211980119917917</v>
+      </c>
+      <c r="H166" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="167">
@@ -4992,16 +5492,19 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.6953276453212013</v>
+        <v>0.6165299457654709</v>
       </c>
       <c r="E167" t="n">
-        <v>734.4035157349026</v>
+        <v>793.2234778278373</v>
       </c>
       <c r="F167" t="n">
-        <v>1692.972584619468</v>
+        <v>1982.681441493168</v>
       </c>
       <c r="G167" t="n">
-        <v>2.032660044051113</v>
+        <v>1.972211914889842</v>
+      </c>
+      <c r="H167" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="168">
@@ -5019,16 +5522,19 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09933396298364916</v>
+        <v>0.07200996978219876</v>
       </c>
       <c r="E168" t="n">
-        <v>1011.383543141108</v>
+        <v>1004.814210687028</v>
       </c>
       <c r="F168" t="n">
-        <v>2910.819622983436</v>
+        <v>3084.316017486099</v>
       </c>
       <c r="G168" t="n">
-        <v>2.201161539962271</v>
+        <v>2.040825026568607</v>
+      </c>
+      <c r="H168" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -5046,16 +5552,19 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-0.01625127367218915</v>
+        <v>-0.02605933321491904</v>
       </c>
       <c r="E169" t="n">
-        <v>1009.591151581562</v>
+        <v>1018.919984475862</v>
       </c>
       <c r="F169" t="n">
-        <v>3091.960607822676</v>
+        <v>3243.197910973902</v>
       </c>
       <c r="G169" t="n">
-        <v>1.932446110771024</v>
+        <v>1.851932716243881</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5073,16 +5582,19 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-0.1842182733073163</v>
+        <v>-0.171274254543883</v>
       </c>
       <c r="E170" t="n">
-        <v>1301.769514309972</v>
+        <v>1314.447771237173</v>
       </c>
       <c r="F170" t="n">
-        <v>3337.715226484263</v>
+        <v>3465.105905510621</v>
       </c>
       <c r="G170" t="n">
-        <v>4.075588422418827</v>
+        <v>4.146896911775361</v>
+      </c>
+      <c r="H170" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="171">
@@ -5100,16 +5612,19 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.1430381550711409</v>
+        <v>0.1901083033850034</v>
       </c>
       <c r="E171" t="n">
-        <v>1246.983462833161</v>
+        <v>1445.500978646284</v>
       </c>
       <c r="F171" t="n">
-        <v>2320.779037194368</v>
+        <v>3054.424473807568</v>
       </c>
       <c r="G171" t="n">
-        <v>3.003881602198972</v>
+        <v>2.785389843293882</v>
+      </c>
+      <c r="H171" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="172">
@@ -5127,16 +5642,19 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.1430381407653778</v>
+        <v>0.1901082920054264</v>
       </c>
       <c r="E172" t="n">
-        <v>1246.98347191656</v>
+        <v>1445.501003728595</v>
       </c>
       <c r="F172" t="n">
-        <v>2320.779056565426</v>
+        <v>3054.424495266029</v>
       </c>
       <c r="G172" t="n">
-        <v>3.003881883034129</v>
+        <v>2.785389950076888</v>
+      </c>
+      <c r="H172" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="173">
@@ -5154,16 +5672,19 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.1429357920920599</v>
+        <v>0.1900369021110424</v>
       </c>
       <c r="E173" t="n">
-        <v>1247.088280012096</v>
+        <v>1445.649009588411</v>
       </c>
       <c r="F173" t="n">
-        <v>2320.91764007602</v>
+        <v>3054.559112175259</v>
       </c>
       <c r="G173" t="n">
-        <v>3.004660420799247</v>
+        <v>2.784660210851859</v>
+      </c>
+      <c r="H173" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="174">
@@ -5181,16 +5702,19 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.1429370457068807</v>
+        <v>0.1900370733793695</v>
       </c>
       <c r="E174" t="n">
-        <v>1247.08252583125</v>
+        <v>1445.648447264027</v>
       </c>
       <c r="F174" t="n">
-        <v>2320.91594268988</v>
+        <v>3054.558789228906</v>
       </c>
       <c r="G174" t="n">
-        <v>3.004689130693992</v>
+        <v>2.784635406816906</v>
+      </c>
+      <c r="H174" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="175">
@@ -5208,16 +5732,19 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.3757545098101397</v>
+        <v>0.3954436527798235</v>
       </c>
       <c r="E175" t="n">
-        <v>802.714768422131</v>
+        <v>933.8433558824557</v>
       </c>
       <c r="F175" t="n">
-        <v>1980.754981116047</v>
+        <v>2638.969131738698</v>
       </c>
       <c r="G175" t="n">
-        <v>1.730992465297056</v>
+        <v>1.779036892964102</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5235,16 +5762,19 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.5058772727842866</v>
+        <v>0.5566309665612724</v>
       </c>
       <c r="E176" t="n">
-        <v>751.4065106443984</v>
+        <v>867.0915623741035</v>
       </c>
       <c r="F176" t="n">
-        <v>1762.26195261178</v>
+        <v>2259.948779534906</v>
       </c>
       <c r="G176" t="n">
-        <v>1.64291334549998</v>
+        <v>1.664169598031509</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5262,16 +5792,19 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.3097904393178633</v>
+        <v>0.3410566968099982</v>
       </c>
       <c r="E177" t="n">
-        <v>882.4528999002563</v>
+        <v>1072.95663079965</v>
       </c>
       <c r="F177" t="n">
-        <v>2082.780655540951</v>
+        <v>2755.116336916809</v>
       </c>
       <c r="G177" t="n">
-        <v>2.092021018675299</v>
+        <v>2.193277224047264</v>
+      </c>
+      <c r="H177" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="178">
@@ -5289,16 +5822,19 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.5757709614693314</v>
+        <v>0.6295368552577635</v>
       </c>
       <c r="E178" t="n">
-        <v>724.1340342509291</v>
+        <v>811.9624827165163</v>
       </c>
       <c r="F178" t="n">
-        <v>1632.876152341614</v>
+        <v>2065.800709166442</v>
       </c>
       <c r="G178" t="n">
-        <v>2.128937713667065</v>
+        <v>2.066027613382638</v>
+      </c>
+      <c r="H178" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="179">
@@ -5316,16 +5852,19 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.3108412291620175</v>
+        <v>0.5029750162618106</v>
       </c>
       <c r="E179" t="n">
-        <v>858.5392384330028</v>
+        <v>911.4585525613351</v>
       </c>
       <c r="F179" t="n">
-        <v>2081.194616677302</v>
+        <v>2392.792438294113</v>
       </c>
       <c r="G179" t="n">
-        <v>2.074899917428043</v>
+        <v>2.072624423461878</v>
+      </c>
+      <c r="H179" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="180">
@@ -5343,16 +5882,19 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.5617519437459314</v>
+        <v>0.5433807633151232</v>
       </c>
       <c r="E180" t="n">
-        <v>699.7002268458291</v>
+        <v>856.9541741723656</v>
       </c>
       <c r="F180" t="n">
-        <v>1659.636773882964</v>
+        <v>2293.469766968431</v>
       </c>
       <c r="G180" t="n">
-        <v>1.994715690037199</v>
+        <v>2.02862985490433</v>
+      </c>
+      <c r="H180" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="181">
@@ -5370,16 +5912,19 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.080019271343169</v>
+        <v>0.07653079016255604</v>
       </c>
       <c r="E181" t="n">
-        <v>886.667568554425</v>
+        <v>1108.774149356781</v>
       </c>
       <c r="F181" t="n">
-        <v>2404.597631555789</v>
+        <v>3261.573182680232</v>
       </c>
       <c r="G181" t="n">
-        <v>1.964633135344635</v>
+        <v>2.068576778356916</v>
+      </c>
+      <c r="H181" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="182">
@@ -5397,16 +5942,19 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.02700853808702108</v>
+        <v>-0.02156600038537637</v>
       </c>
       <c r="E182" t="n">
-        <v>900.4632157035096</v>
+        <v>1087.690768244495</v>
       </c>
       <c r="F182" t="n">
-        <v>2540.622132248577</v>
+        <v>3430.43451146565</v>
       </c>
       <c r="G182" t="n">
-        <v>1.852938835044538</v>
+        <v>1.882984268414604</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -5424,16 +5972,19 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.2354819664151675</v>
+        <v>-0.1769328452177295</v>
       </c>
       <c r="E183" t="n">
-        <v>1182.815210099882</v>
+        <v>1406.654014491079</v>
       </c>
       <c r="F183" t="n">
-        <v>2786.578329003765</v>
+        <v>3682.067614054589</v>
       </c>
       <c r="G183" t="n">
-        <v>4.04158398029845</v>
+        <v>4.209565260409699</v>
+      </c>
+      <c r="H183" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="184">
@@ -5453,16 +6004,19 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.2118627728731634</v>
+        <v>0.2299348826273104</v>
       </c>
       <c r="E184" t="n">
-        <v>1392.310779640922</v>
+        <v>1402.963011912024</v>
       </c>
       <c r="F184" t="n">
-        <v>2827.146480533178</v>
+        <v>2848.292689160278</v>
       </c>
       <c r="G184" t="n">
-        <v>2.889262275543822</v>
+        <v>2.875370398336687</v>
+      </c>
+      <c r="H184" t="n">
+        <v>491</v>
       </c>
     </row>
     <row r="185">
@@ -5482,16 +6036,19 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.2118627697704073</v>
+        <v>0.2299348695944793</v>
       </c>
       <c r="E185" t="n">
-        <v>1392.310797696433</v>
+        <v>1402.963025415124</v>
       </c>
       <c r="F185" t="n">
-        <v>2827.146483709491</v>
+        <v>2848.292711697249</v>
       </c>
       <c r="G185" t="n">
-        <v>2.889262360079868</v>
+        <v>2.875370819012694</v>
+      </c>
+      <c r="H185" t="n">
+        <v>491</v>
       </c>
     </row>
     <row r="186">
@@ -5511,16 +6068,19 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.2118838536796355</v>
+        <v>0.2299533163078067</v>
       </c>
       <c r="E186" t="n">
-        <v>1392.496053070381</v>
+        <v>1403.017200293439</v>
       </c>
       <c r="F186" t="n">
-        <v>2827.091802642766</v>
+        <v>2848.256229525723</v>
       </c>
       <c r="G186" t="n">
-        <v>2.889428809262117</v>
+        <v>2.875373827953831</v>
+      </c>
+      <c r="H186" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="187">
@@ -5540,16 +6100,19 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.2118817657296629</v>
+        <v>0.2299425992017398</v>
       </c>
       <c r="E187" t="n">
-        <v>1392.495320124924</v>
+        <v>1403.023369181512</v>
       </c>
       <c r="F187" t="n">
-        <v>2827.095546421323</v>
+        <v>2848.27483358809</v>
       </c>
       <c r="G187" t="n">
-        <v>2.889450550722079</v>
+        <v>2.875812448708013</v>
+      </c>
+      <c r="H187" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="188">
@@ -5569,16 +6132,19 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.2684205154923337</v>
+        <v>0.3180831433992292</v>
       </c>
       <c r="E188" t="n">
-        <v>1012.591788461519</v>
+        <v>977.8632552826235</v>
       </c>
       <c r="F188" t="n">
-        <v>2759.38788076021</v>
+        <v>2667.64006796076</v>
       </c>
       <c r="G188" t="n">
-        <v>1.884544047521991</v>
+        <v>1.831648158171642</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5598,16 +6164,19 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.502328125196709</v>
+        <v>0.5387647781644589</v>
       </c>
       <c r="E189" t="n">
-        <v>908.2446876881154</v>
+        <v>870.9054482904503</v>
       </c>
       <c r="F189" t="n">
-        <v>2260.928700486866</v>
+        <v>2203.325431443046</v>
       </c>
       <c r="G189" t="n">
-        <v>1.73627808874268</v>
+        <v>1.736500060050032</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5627,16 +6196,19 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.3883939051897021</v>
+        <v>0.4346826142924441</v>
       </c>
       <c r="E190" t="n">
-        <v>1037.302187621054</v>
+        <v>1011.379874855071</v>
       </c>
       <c r="F190" t="n">
-        <v>2490.164342197598</v>
+        <v>2438.226677677013</v>
       </c>
       <c r="G190" t="n">
-        <v>2.18077574650949</v>
+        <v>2.244443234166205</v>
+      </c>
+      <c r="H190" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="191">
@@ -5656,16 +6228,19 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.5663827545445992</v>
+        <v>0.5910124784603301</v>
       </c>
       <c r="E191" t="n">
-        <v>877.2396525485062</v>
+        <v>826.8405509238816</v>
       </c>
       <c r="F191" t="n">
-        <v>2112.793001504942</v>
+        <v>2073.814563006956</v>
       </c>
       <c r="G191" t="n">
-        <v>2.110745641655548</v>
+        <v>2.076501653240725</v>
+      </c>
+      <c r="H191" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="192">
@@ -5685,16 +6260,19 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.4174359314859671</v>
+        <v>0.5166678180354042</v>
       </c>
       <c r="E192" t="n">
-        <v>971.7445174405345</v>
+        <v>915.30953027562</v>
       </c>
       <c r="F192" t="n">
-        <v>2424.355657630381</v>
+        <v>2257.154356903484</v>
       </c>
       <c r="G192" t="n">
-        <v>2.127295913377982</v>
+        <v>2.116201073289865</v>
+      </c>
+      <c r="H192" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="193">
@@ -5714,16 +6292,19 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.5824497769511606</v>
+        <v>0.5742451639009732</v>
       </c>
       <c r="E193" t="n">
-        <v>850.3418788160185</v>
+        <v>837.8574548451828</v>
       </c>
       <c r="F193" t="n">
-        <v>2072.642808098567</v>
+        <v>2118.3460763608</v>
       </c>
       <c r="G193" t="n">
-        <v>2.019822344810827</v>
+        <v>2.038938988209028</v>
+      </c>
+      <c r="H193" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="194">
@@ -5743,16 +6324,19 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.08205490885686986</v>
+        <v>0.07319738784663907</v>
       </c>
       <c r="E194" t="n">
-        <v>1078.784867303909</v>
+        <v>1080.280253829821</v>
       </c>
       <c r="F194" t="n">
-        <v>3059.253156635759</v>
+        <v>3124.111825862946</v>
       </c>
       <c r="G194" t="n">
-        <v>2.113296759138156</v>
+        <v>2.102755300453866</v>
+      </c>
+      <c r="H194" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="195">
@@ -5772,16 +6356,19 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-0.02879538941112425</v>
+        <v>-0.02767727422733679</v>
       </c>
       <c r="E195" t="n">
-        <v>1075.635725381287</v>
+        <v>1076.317788926406</v>
       </c>
       <c r="F195" t="n">
-        <v>3238.67760614517</v>
+        <v>3289.336451023001</v>
       </c>
       <c r="G195" t="n">
-        <v>1.900564409137676</v>
+        <v>1.903602436748498</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5801,16 +6388,19 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-0.1996107272212653</v>
+        <v>-0.1875169672238163</v>
       </c>
       <c r="E196" t="n">
-        <v>1376.020327266568</v>
+        <v>1376.672125661178</v>
       </c>
       <c r="F196" t="n">
-        <v>3487.260294795902</v>
+        <v>3535.316844572459</v>
       </c>
       <c r="G196" t="n">
-        <v>4.199881844355006</v>
+        <v>4.194517221773014</v>
+      </c>
+      <c r="H196" t="n">
+        <v>617</v>
       </c>
     </row>
     <row r="197">
@@ -5828,16 +6418,19 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.1361147946595725</v>
+        <v>0.08459062513662885</v>
       </c>
       <c r="E197" t="n">
-        <v>1502.2939804249</v>
+        <v>1496.712805803269</v>
       </c>
       <c r="F197" t="n">
-        <v>2865.248085562765</v>
+        <v>2909.574094565996</v>
       </c>
       <c r="G197" t="n">
-        <v>2.756674249374389</v>
+        <v>2.89292600461459</v>
+      </c>
+      <c r="H197" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="198">
@@ -5855,16 +6448,19 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.134151061504195</v>
+        <v>0.08463963100184713</v>
       </c>
       <c r="E198" t="n">
-        <v>1500.257569443743</v>
+        <v>1496.503667182561</v>
       </c>
       <c r="F198" t="n">
-        <v>2868.50279391631</v>
+        <v>2909.496212413922</v>
       </c>
       <c r="G198" t="n">
-        <v>2.773852690133381</v>
+        <v>2.891780224183575</v>
+      </c>
+      <c r="H198" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="199">
@@ -5882,16 +6478,19 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.135728073338378</v>
+        <v>0.08471997569176248</v>
       </c>
       <c r="E199" t="n">
-        <v>1499.555467058183</v>
+        <v>1495.832037397439</v>
       </c>
       <c r="F199" t="n">
-        <v>2865.889333115202</v>
+        <v>2909.368520791749</v>
       </c>
       <c r="G199" t="n">
-        <v>2.767635522247734</v>
+        <v>2.890573400190924</v>
+      </c>
+      <c r="H199" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="200">
@@ -5909,16 +6508,19 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.09847708554492329</v>
+        <v>0.0786148333596004</v>
       </c>
       <c r="E200" t="n">
-        <v>1481.746805378943</v>
+        <v>1475.129675391229</v>
       </c>
       <c r="F200" t="n">
-        <v>2926.999159556014</v>
+        <v>2919.055494949117</v>
       </c>
       <c r="G200" t="n">
-        <v>2.764256545848189</v>
+        <v>2.876541314153251</v>
+      </c>
+      <c r="H200" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="201">
@@ -5936,16 +6538,19 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-0.1155443995781573</v>
+        <v>0.4959093595391557</v>
       </c>
       <c r="E201" t="n">
-        <v>1232.353090553493</v>
+        <v>865.1912759080715</v>
       </c>
       <c r="F201" t="n">
-        <v>3255.949369411123</v>
+        <v>2159.116420748186</v>
       </c>
       <c r="G201" t="n">
-        <v>1.695849763344315</v>
+        <v>1.659831709092234</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5963,16 +6568,19 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.5595791238535717</v>
+        <v>0.5824355060383906</v>
       </c>
       <c r="E202" t="n">
-        <v>940.2271511125068</v>
+        <v>864.927030211667</v>
       </c>
       <c r="F202" t="n">
-        <v>2045.82349105854</v>
+        <v>1965.094883556556</v>
       </c>
       <c r="G202" t="n">
-        <v>1.770710863898862</v>
+        <v>1.7379521700381</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5990,16 +6598,19 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2832307229418557</v>
+        <v>0.4459791836262489</v>
       </c>
       <c r="E203" t="n">
-        <v>1253.782903093457</v>
+        <v>1107.555590484834</v>
       </c>
       <c r="F203" t="n">
-        <v>2609.900218361937</v>
+        <v>2263.52233850737</v>
       </c>
       <c r="G203" t="n">
-        <v>2.391713698839453</v>
+        <v>2.491364838220555</v>
+      </c>
+      <c r="H203" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="204">
@@ -6017,16 +6628,19 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.4434299106766573</v>
+        <v>0.5353301466573823</v>
       </c>
       <c r="E204" t="n">
-        <v>1046.342727199326</v>
+        <v>928.1152068415637</v>
       </c>
       <c r="F204" t="n">
-        <v>2299.821577836644</v>
+        <v>2072.974654303502</v>
       </c>
       <c r="G204" t="n">
-        <v>2.374187727776649</v>
+        <v>2.340863907563557</v>
+      </c>
+      <c r="H204" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="205">
@@ -6044,16 +6658,19 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.5209836578212335</v>
+        <v>0.498726635577595</v>
       </c>
       <c r="E205" t="n">
-        <v>1066.442365929134</v>
+        <v>1013.334062156076</v>
       </c>
       <c r="F205" t="n">
-        <v>2133.582192011951</v>
+        <v>2153.074501627657</v>
       </c>
       <c r="G205" t="n">
-        <v>2.479349957522629</v>
+        <v>2.532190193771615</v>
+      </c>
+      <c r="H205" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="206">
@@ -6071,16 +6688,19 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.6021525069896332</v>
+        <v>0.6342566728587186</v>
       </c>
       <c r="E206" t="n">
-        <v>921.3386717444847</v>
+        <v>898.0739073568659</v>
       </c>
       <c r="F206" t="n">
-        <v>1944.430951952857</v>
+        <v>1839.119499493816</v>
       </c>
       <c r="G206" t="n">
-        <v>2.302494578073885</v>
+        <v>2.301248275706254</v>
+      </c>
+      <c r="H206" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="207">
@@ -6098,16 +6718,19 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-0.05747181008934588</v>
+        <v>-0.04015043388791106</v>
       </c>
       <c r="E207" t="n">
-        <v>1127.033297693041</v>
+        <v>1086.331163651839</v>
       </c>
       <c r="F207" t="n">
-        <v>3170.068248216161</v>
+        <v>3101.485968492113</v>
       </c>
       <c r="G207" t="n">
-        <v>2.079045501232187</v>
+        <v>2.07961924330465</v>
+      </c>
+      <c r="H207" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="208">
@@ -6125,16 +6748,19 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-0.09026038274179982</v>
+        <v>-0.07843819163989374</v>
       </c>
       <c r="E208" t="n">
-        <v>1162.014895550091</v>
+        <v>1111.066547392366</v>
       </c>
       <c r="F208" t="n">
-        <v>3218.839546503297</v>
+        <v>3158.052701065358</v>
       </c>
       <c r="G208" t="n">
-        <v>2.070505825997597</v>
+        <v>2.067289944001597</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6152,16 +6778,19 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-0.1083254514314937</v>
+        <v>-0.09958233176850495</v>
       </c>
       <c r="E209" t="n">
-        <v>1186.95021789519</v>
+        <v>1134.797300505396</v>
       </c>
       <c r="F209" t="n">
-        <v>3245.397266314232</v>
+        <v>3188.861226070258</v>
       </c>
       <c r="G209" t="n">
-        <v>2.252243005106361</v>
+        <v>2.255706482228097</v>
+      </c>
+      <c r="H209" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="210">
@@ -6179,16 +6808,19 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.09579209553347767</v>
+        <v>0.1176204805409438</v>
       </c>
       <c r="E210" t="n">
-        <v>1635.219173962264</v>
+        <v>1459.470948421746</v>
       </c>
       <c r="F210" t="n">
-        <v>3911.940680859673</v>
+        <v>3140.495114230519</v>
       </c>
       <c r="G210" t="n">
-        <v>2.766930529113728</v>
+        <v>2.722823575840372</v>
+      </c>
+      <c r="H210" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="211">
@@ -6206,16 +6838,19 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.09582055039331261</v>
+        <v>0.1176117031190423</v>
       </c>
       <c r="E211" t="n">
-        <v>1635.002308381986</v>
+        <v>1459.291143270623</v>
       </c>
       <c r="F211" t="n">
-        <v>3911.87912720649</v>
+        <v>3140.510734143174</v>
       </c>
       <c r="G211" t="n">
-        <v>2.766705577460505</v>
+        <v>2.722879860828622</v>
+      </c>
+      <c r="H211" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="212">
@@ -6233,16 +6868,19 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.09581955785188012</v>
+        <v>0.1174447999877859</v>
       </c>
       <c r="E212" t="n">
-        <v>1634.287097829548</v>
+        <v>1458.70313623014</v>
       </c>
       <c r="F212" t="n">
-        <v>3911.881274291922</v>
+        <v>3140.807732807648</v>
       </c>
       <c r="G212" t="n">
-        <v>2.764296520573951</v>
+        <v>2.722352724042459</v>
+      </c>
+      <c r="H212" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="213">
@@ -6260,16 +6898,19 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.08345709938624635</v>
+        <v>0.1062068906011183</v>
       </c>
       <c r="E213" t="n">
-        <v>1626.607701626505</v>
+        <v>1451.431262713599</v>
       </c>
       <c r="F213" t="n">
-        <v>3938.533193091792</v>
+        <v>3160.741025777724</v>
       </c>
       <c r="G213" t="n">
-        <v>2.744796586466244</v>
+        <v>2.674610056837674</v>
+      </c>
+      <c r="H213" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="214">
@@ -6287,16 +6928,19 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.3671406113073298</v>
+        <v>0.1757660210946188</v>
       </c>
       <c r="E214" t="n">
-        <v>1085.3746428498</v>
+        <v>1101.8203239279</v>
       </c>
       <c r="F214" t="n">
-        <v>3272.741659628097</v>
+        <v>3035.258399208128</v>
       </c>
       <c r="G214" t="n">
-        <v>1.769240298856994</v>
+        <v>1.799010357581407</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6314,16 +6958,19 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.3745666403851879</v>
+        <v>0.5412898910425946</v>
       </c>
       <c r="E215" t="n">
-        <v>1157.952293470838</v>
+        <v>948.9104274746329</v>
       </c>
       <c r="F215" t="n">
-        <v>3253.483676466662</v>
+        <v>2264.329204652576</v>
       </c>
       <c r="G215" t="n">
-        <v>1.820227980823697</v>
+        <v>1.791588757912433</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -6341,16 +6988,19 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.2949525608941385</v>
+        <v>0.3611296036020857</v>
       </c>
       <c r="E216" t="n">
-        <v>1362.34020622945</v>
+        <v>1238.896909684272</v>
       </c>
       <c r="F216" t="n">
-        <v>3454.357492302452</v>
+        <v>2672.248209136721</v>
       </c>
       <c r="G216" t="n">
-        <v>2.421854576172256</v>
+        <v>2.582495778923047</v>
+      </c>
+      <c r="H216" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="217">
@@ -6368,16 +7018,19 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.435502358159977</v>
+        <v>0.4144757414158268</v>
       </c>
       <c r="E217" t="n">
-        <v>1145.437442480238</v>
+        <v>1049.695149038705</v>
       </c>
       <c r="F217" t="n">
-        <v>3090.930052139836</v>
+        <v>2558.249269872454</v>
       </c>
       <c r="G217" t="n">
-        <v>2.283119317065726</v>
+        <v>2.297426340331623</v>
+      </c>
+      <c r="H217" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="218">
@@ -6395,16 +7048,19 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.3630698853805268</v>
+        <v>0.429274010435636</v>
       </c>
       <c r="E218" t="n">
-        <v>1252.562940088105</v>
+        <v>1040.317643268147</v>
       </c>
       <c r="F218" t="n">
-        <v>3283.250375937083</v>
+        <v>2525.714382616792</v>
       </c>
       <c r="G218" t="n">
-        <v>2.488833721593373</v>
+        <v>2.386523945398599</v>
+      </c>
+      <c r="H218" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="219">
@@ -6422,16 +7078,19 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.3566344332668309</v>
+        <v>0.5100205067441737</v>
       </c>
       <c r="E219" t="n">
-        <v>1234.79608042166</v>
+        <v>980.6770036007613</v>
       </c>
       <c r="F219" t="n">
-        <v>3299.795438268548</v>
+        <v>2340.234430281542</v>
       </c>
       <c r="G219" t="n">
-        <v>2.27806819659914</v>
+        <v>2.313212290603849</v>
+      </c>
+      <c r="H219" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="220">
@@ -6449,16 +7108,19 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-0.0336172004617501</v>
+        <v>-0.03898677590402921</v>
       </c>
       <c r="E220" t="n">
-        <v>1278.845791726293</v>
+        <v>1119.08587025562</v>
       </c>
       <c r="F220" t="n">
-        <v>4182.519505207471</v>
+        <v>3407.810387739306</v>
       </c>
       <c r="G220" t="n">
-        <v>2.043694805075906</v>
+        <v>2.108815024619485</v>
+      </c>
+      <c r="H220" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="221">
@@ -6476,16 +7138,19 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-0.0655730511358863</v>
+        <v>-0.07099302548218223</v>
       </c>
       <c r="E221" t="n">
-        <v>1310.179348701677</v>
+        <v>1148.678280052271</v>
       </c>
       <c r="F221" t="n">
-        <v>4246.681842695977</v>
+        <v>3459.901489782172</v>
       </c>
       <c r="G221" t="n">
-        <v>2.049924110670716</v>
+        <v>2.021775647516632</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -6503,16 +7168,19 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-0.07832565867600749</v>
+        <v>-0.08690101138814565</v>
       </c>
       <c r="E222" t="n">
-        <v>1330.219263713153</v>
+        <v>1169.976008843261</v>
       </c>
       <c r="F222" t="n">
-        <v>4272.018067111302</v>
+        <v>3485.502582651956</v>
       </c>
       <c r="G222" t="n">
-        <v>2.259782844473843</v>
+        <v>2.182616061219907</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -6530,16 +7198,19 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.09449911026298519</v>
+        <v>0.1031298417397788</v>
       </c>
       <c r="E223" t="n">
-        <v>1504.31648317227</v>
+        <v>1473.85694572398</v>
       </c>
       <c r="F223" t="n">
-        <v>2918.621931128391</v>
+        <v>3032.15920903572</v>
       </c>
       <c r="G223" t="n">
-        <v>2.907287195978644</v>
+        <v>2.970333670657101</v>
+      </c>
+      <c r="H223" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="224">
@@ -6557,16 +7228,19 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.09455430516307339</v>
+        <v>0.103196793827611</v>
       </c>
       <c r="E224" t="n">
-        <v>1503.988811619683</v>
+        <v>1473.560421666445</v>
       </c>
       <c r="F224" t="n">
-        <v>2918.532977322468</v>
+        <v>3032.046030346107</v>
       </c>
       <c r="G224" t="n">
-        <v>2.907320805392604</v>
+        <v>2.970013113819837</v>
+      </c>
+      <c r="H224" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="225">
@@ -6584,16 +7258,19 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.09460154979102697</v>
+        <v>0.1035401386421556</v>
       </c>
       <c r="E225" t="n">
-        <v>1503.084749622386</v>
+        <v>1472.613319493286</v>
       </c>
       <c r="F225" t="n">
-        <v>2918.456834267081</v>
+        <v>3031.465559103782</v>
       </c>
       <c r="G225" t="n">
-        <v>2.907900527706962</v>
+        <v>2.969925771492486</v>
+      </c>
+      <c r="H225" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="226">
@@ -6611,16 +7288,19 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.09601351103605449</v>
+        <v>0.1028632724197686</v>
       </c>
       <c r="E226" t="n">
-        <v>1458.865870217087</v>
+        <v>1423.945984748294</v>
       </c>
       <c r="F226" t="n">
-        <v>2916.180291952385</v>
+        <v>3032.609787394444</v>
       </c>
       <c r="G226" t="n">
-        <v>2.843708551718659</v>
+        <v>2.864565793615073</v>
+      </c>
+      <c r="H226" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="227">
@@ -6638,16 +7318,19 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.4720343756085961</v>
+        <v>-0.05545141555892941</v>
       </c>
       <c r="E227" t="n">
-        <v>849.9107189783546</v>
+        <v>1203.478180117891</v>
       </c>
       <c r="F227" t="n">
-        <v>2228.621029239865</v>
+        <v>3289.321603461908</v>
       </c>
       <c r="G227" t="n">
-        <v>1.696668341580671</v>
+        <v>1.800518513960538</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -6665,16 +7348,19 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.5981865875875757</v>
+        <v>0.4263715870507521</v>
       </c>
       <c r="E228" t="n">
-        <v>863.4136098806835</v>
+        <v>956.8365322870602</v>
       </c>
       <c r="F228" t="n">
-        <v>1944.220936122826</v>
+        <v>2424.948621084874</v>
       </c>
       <c r="G228" t="n">
-        <v>1.808768044654984</v>
+        <v>1.744722733663341</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -6692,16 +7378,19 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.3556752241499839</v>
+        <v>0.4496966936437583</v>
       </c>
       <c r="E229" t="n">
-        <v>1179.944786216126</v>
+        <v>1106.45468249373</v>
       </c>
       <c r="F229" t="n">
-        <v>2461.987346389159</v>
+        <v>2375.134866817182</v>
       </c>
       <c r="G229" t="n">
-        <v>2.506090725547989</v>
+        <v>2.495049000301727</v>
+      </c>
+      <c r="H229" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="230">
@@ -6719,16 +7408,19 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.6107362854414085</v>
+        <v>0.5014614809997961</v>
       </c>
       <c r="E230" t="n">
-        <v>933.4700384653855</v>
+        <v>1019.798993135417</v>
       </c>
       <c r="F230" t="n">
-        <v>1913.618505456996</v>
+        <v>2260.666890058893</v>
       </c>
       <c r="G230" t="n">
-        <v>2.426425469792686</v>
+        <v>2.410331435480786</v>
+      </c>
+      <c r="H230" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="231">
@@ -6746,16 +7438,19 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.5549975975763148</v>
+        <v>0.4325544074683043</v>
       </c>
       <c r="E231" t="n">
-        <v>1028.986617738301</v>
+        <v>1065.470599007277</v>
       </c>
       <c r="F231" t="n">
-        <v>2046.042161185668</v>
+        <v>2411.844631582325</v>
       </c>
       <c r="G231" t="n">
-        <v>2.442346316154915</v>
+        <v>2.415626469568064</v>
+      </c>
+      <c r="H231" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="232">
@@ -6773,16 +7468,19 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.5980913562900911</v>
+        <v>0.5718323780564789</v>
       </c>
       <c r="E232" t="n">
-        <v>969.173197396086</v>
+        <v>935.7528928083979</v>
       </c>
       <c r="F232" t="n">
-        <v>1944.451316328627</v>
+        <v>2095.048713187507</v>
       </c>
       <c r="G232" t="n">
-        <v>2.314836461979214</v>
+        <v>2.249095668939535</v>
+      </c>
+      <c r="H232" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="233">
@@ -6800,16 +7498,19 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-0.03197967060327001</v>
+        <v>-0.03080690699833522</v>
       </c>
       <c r="E233" t="n">
-        <v>1022.85852789285</v>
+        <v>1030.935678544305</v>
       </c>
       <c r="F233" t="n">
-        <v>3115.795687245272</v>
+        <v>3250.692385768933</v>
       </c>
       <c r="G233" t="n">
-        <v>2.16642011010356</v>
+        <v>2.156488017727836</v>
+      </c>
+      <c r="H233" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="234">
@@ -6827,16 +7528,19 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-0.05797901308689113</v>
+        <v>-0.06059831547216898</v>
       </c>
       <c r="E234" t="n">
-        <v>1048.310636840973</v>
+        <v>1061.261637196616</v>
       </c>
       <c r="F234" t="n">
-        <v>3154.800690576624</v>
+        <v>3297.332024159548</v>
       </c>
       <c r="G234" t="n">
-        <v>2.075832964782276</v>
+        <v>2.049545537619451</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6854,16 +7558,19 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-0.07504183030236145</v>
+        <v>-0.07923702626552576</v>
       </c>
       <c r="E235" t="n">
-        <v>1067.639119646352</v>
+        <v>1084.361986466436</v>
       </c>
       <c r="F235" t="n">
-        <v>3180.138850079546</v>
+        <v>3326.179115302292</v>
       </c>
       <c r="G235" t="n">
-        <v>2.217855065896392</v>
+        <v>2.320515166205619</v>
+      </c>
+      <c r="H235" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="236">
@@ -6881,16 +7588,19 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.05869370674018437</v>
+        <v>0.09588690075224138</v>
       </c>
       <c r="E236" t="n">
-        <v>1314.193272239415</v>
+        <v>1545.174856858587</v>
       </c>
       <c r="F236" t="n">
-        <v>2432.30779212876</v>
+        <v>3227.210534031588</v>
       </c>
       <c r="G236" t="n">
-        <v>2.938592677465739</v>
+        <v>2.734937995296504</v>
+      </c>
+      <c r="H236" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="237">
@@ -6908,16 +7618,19 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.05884992917750798</v>
+        <v>0.09586162686542177</v>
       </c>
       <c r="E237" t="n">
-        <v>1313.863620023301</v>
+        <v>1545.069137628573</v>
       </c>
       <c r="F237" t="n">
-        <v>2432.105946660724</v>
+        <v>3227.255640989908</v>
       </c>
       <c r="G237" t="n">
-        <v>2.938258371121495</v>
+        <v>2.735210188570245</v>
+      </c>
+      <c r="H237" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="238">
@@ -6935,16 +7648,19 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.05976132970928383</v>
+        <v>0.09584007896414803</v>
       </c>
       <c r="E238" t="n">
-        <v>1312.494191557953</v>
+        <v>1544.471282970125</v>
       </c>
       <c r="F238" t="n">
-        <v>2430.928047608924</v>
+        <v>3227.294097587746</v>
       </c>
       <c r="G238" t="n">
-        <v>2.92587889205108</v>
+        <v>2.735559497812564</v>
+      </c>
+      <c r="H238" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="239">
@@ -6962,16 +7678,19 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.07493709950121186</v>
+        <v>0.08049399308407013</v>
       </c>
       <c r="E239" t="n">
-        <v>1276.924167762837</v>
+        <v>1529.821581430903</v>
       </c>
       <c r="F239" t="n">
-        <v>2411.230241986346</v>
+        <v>3254.566898757103</v>
       </c>
       <c r="G239" t="n">
-        <v>2.843936988615174</v>
+        <v>2.751114152272054</v>
+      </c>
+      <c r="H239" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="240">
@@ -6989,16 +7708,19 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-0.1261188973793415</v>
+        <v>0.2929747113044234</v>
       </c>
       <c r="E240" t="n">
-        <v>924.7325242779337</v>
+        <v>1077.016848104308</v>
       </c>
       <c r="F240" t="n">
-        <v>2660.389182097473</v>
+        <v>2853.86477856547</v>
       </c>
       <c r="G240" t="n">
-        <v>1.646431301850243</v>
+        <v>1.665903735401352</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -7016,16 +7738,19 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.4621236382321683</v>
+        <v>0.5282624118491785</v>
       </c>
       <c r="E241" t="n">
-        <v>762.2115570498784</v>
+        <v>960.2601527227139</v>
       </c>
       <c r="F241" t="n">
-        <v>1838.62973453261</v>
+        <v>2331.128203769683</v>
       </c>
       <c r="G241" t="n">
-        <v>1.635827889359331</v>
+        <v>1.737600376948466</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -7043,16 +7768,19 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.2957908001956221</v>
+        <v>0.3130847387688932</v>
       </c>
       <c r="E242" t="n">
-        <v>988.5080915780369</v>
+        <v>1194.954958052046</v>
       </c>
       <c r="F242" t="n">
-        <v>2103.797318349993</v>
+        <v>2812.985543822229</v>
       </c>
       <c r="G242" t="n">
-        <v>2.392633794343006</v>
+        <v>2.34539081819486</v>
+      </c>
+      <c r="H242" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="243">
@@ -7070,16 +7798,19 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.3178263515768772</v>
+        <v>0.5285056005550504</v>
       </c>
       <c r="E243" t="n">
-        <v>919.8993812104479</v>
+        <v>992.2213444295733</v>
       </c>
       <c r="F243" t="n">
-        <v>2070.620548392268</v>
+        <v>2330.527258300917</v>
       </c>
       <c r="G243" t="n">
-        <v>2.351638994565759</v>
+        <v>2.256409214906456</v>
+      </c>
+      <c r="H243" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="244">
@@ -7097,16 +7828,19 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.4940134314882173</v>
+        <v>0.5248796328072727</v>
       </c>
       <c r="E244" t="n">
-        <v>814.9004944410086</v>
+        <v>1044.410189222337</v>
       </c>
       <c r="F244" t="n">
-        <v>1783.292340757557</v>
+        <v>2339.471407099928</v>
       </c>
       <c r="G244" t="n">
-        <v>2.40309820662402</v>
+        <v>2.28422048775049</v>
+      </c>
+      <c r="H244" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="245">
@@ -7124,16 +7858,19 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.5210889818618714</v>
+        <v>0.4891643287308145</v>
       </c>
       <c r="E245" t="n">
-        <v>746.0120926748456</v>
+        <v>1002.346279958907</v>
       </c>
       <c r="F245" t="n">
-        <v>1734.924038108038</v>
+        <v>2425.808568433837</v>
       </c>
       <c r="G245" t="n">
-        <v>2.148234998931829</v>
+        <v>2.234429883741149</v>
+      </c>
+      <c r="H245" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="246">
@@ -7151,16 +7888,19 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-0.03771258301280511</v>
+        <v>-0.04047670628844235</v>
       </c>
       <c r="E246" t="n">
-        <v>897.931401292284</v>
+        <v>1103.568094429588</v>
       </c>
       <c r="F246" t="n">
-        <v>2553.82768955478</v>
+        <v>3462.040137602813</v>
       </c>
       <c r="G246" t="n">
-        <v>2.083164598266048</v>
+        <v>2.062984717899704</v>
+      </c>
+      <c r="H246" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="247">
@@ -7178,16 +7918,19 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-0.07553407184304994</v>
+        <v>-0.06716120470828812</v>
       </c>
       <c r="E247" t="n">
-        <v>925.8331846012409</v>
+        <v>1127.505303566055</v>
       </c>
       <c r="F247" t="n">
-        <v>2599.950840484988</v>
+        <v>3506.153551162214</v>
       </c>
       <c r="G247" t="n">
-        <v>1.97307171744657</v>
+        <v>2.056139746643559</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7205,16 +7948,19 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-0.101443947247966</v>
+        <v>-0.08148655272551353</v>
       </c>
       <c r="E248" t="n">
-        <v>950.5291712619841</v>
+        <v>1146.506051536044</v>
       </c>
       <c r="F248" t="n">
-        <v>2631.08119345662</v>
+        <v>3529.608036204811</v>
       </c>
       <c r="G248" t="n">
-        <v>2.223589727667129</v>
+        <v>2.182702444360454</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -7234,16 +7980,19 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.09627492679905494</v>
+        <v>0.1003069620423982</v>
       </c>
       <c r="E249" t="n">
-        <v>1489.005727449712</v>
+        <v>1493.803889201895</v>
       </c>
       <c r="F249" t="n">
-        <v>3032.029622419897</v>
+        <v>3077.359737965956</v>
       </c>
       <c r="G249" t="n">
-        <v>2.842371162983125</v>
+        <v>2.830255311602142</v>
+      </c>
+      <c r="H249" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="250">
@@ -7263,16 +8012,19 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.09584396155952224</v>
+        <v>0.1003274387034806</v>
       </c>
       <c r="E250" t="n">
-        <v>1488.278077367179</v>
+        <v>1493.60609243705</v>
       </c>
       <c r="F250" t="n">
-        <v>3032.755211276498</v>
+        <v>3077.327154473278</v>
       </c>
       <c r="G250" t="n">
-        <v>2.846534361026996</v>
+        <v>2.82997084685057</v>
+      </c>
+      <c r="H250" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="251">
@@ -7292,16 +8044,19 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.09647762767264223</v>
+        <v>0.100386248321463</v>
       </c>
       <c r="E251" t="n">
-        <v>1487.355376517018</v>
+        <v>1492.904944022747</v>
       </c>
       <c r="F251" t="n">
-        <v>3031.788872320782</v>
+        <v>3077.233977572731</v>
       </c>
       <c r="G251" t="n">
-        <v>2.841427865644932</v>
+        <v>2.829602848384608</v>
+      </c>
+      <c r="H251" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="252">
@@ -7321,16 +8076,19 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0.088221198867109</v>
+        <v>0.09204474736613935</v>
       </c>
       <c r="E252" t="n">
-        <v>1461.036136246343</v>
+        <v>1470.082126071006</v>
       </c>
       <c r="F252" t="n">
-        <v>3048.235721646634</v>
+        <v>3091.743301719597</v>
       </c>
       <c r="G252" t="n">
-        <v>2.799174668162067</v>
+        <v>2.791707829219513</v>
+      </c>
+      <c r="H252" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="253">
@@ -7350,16 +8108,19 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0.1493779224896068</v>
+        <v>0.2272996690948171</v>
       </c>
       <c r="E253" t="n">
-        <v>1023.092744164895</v>
+        <v>1061.876657014542</v>
       </c>
       <c r="F253" t="n">
-        <v>2854.42531009414</v>
+        <v>2834.390300495923</v>
       </c>
       <c r="G253" t="n">
-        <v>1.702047426408056</v>
+        <v>1.731316079008883</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7379,16 +8140,19 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.4986139975146259</v>
+        <v>0.519589848995229</v>
       </c>
       <c r="E254" t="n">
-        <v>930.9511528784765</v>
+        <v>932.7335356740185</v>
       </c>
       <c r="F254" t="n">
-        <v>2270.539459545159</v>
+        <v>2246.375228265922</v>
       </c>
       <c r="G254" t="n">
-        <v>1.758883694684218</v>
+        <v>1.752966009640585</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -7408,16 +8172,19 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.3074123270454</v>
+        <v>0.3924725549102465</v>
       </c>
       <c r="E255" t="n">
-        <v>1196.143996779268</v>
+        <v>1161.965535178721</v>
       </c>
       <c r="F255" t="n">
-        <v>2657.510593850885</v>
+        <v>2530.972739570876</v>
       </c>
       <c r="G255" t="n">
-        <v>2.428073198725676</v>
+        <v>2.478575108910047</v>
+      </c>
+      <c r="H255" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="256">
@@ -7437,16 +8204,19 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0.4518737264637299</v>
+        <v>0.4949432424070139</v>
       </c>
       <c r="E256" t="n">
-        <v>1011.287397338849</v>
+        <v>997.4576733613148</v>
       </c>
       <c r="F256" t="n">
-        <v>2343.747670956436</v>
+        <v>2305.604518133941</v>
       </c>
       <c r="G256" t="n">
-        <v>2.358842877300205</v>
+        <v>2.326257724570605</v>
+      </c>
+      <c r="H256" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="257">
@@ -7466,16 +8236,19 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0.4832661430665731</v>
+        <v>0.471358671572202</v>
       </c>
       <c r="E257" t="n">
-        <v>1040.723104549137</v>
+        <v>1040.883123413459</v>
       </c>
       <c r="F257" t="n">
-        <v>2311.541767473065</v>
+        <v>2357.526230731675</v>
       </c>
       <c r="G257" t="n">
-        <v>2.453407050473734</v>
+        <v>2.404640274122192</v>
+      </c>
+      <c r="H257" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="258">
@@ -7495,16 +8268,19 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0.5194918196021066</v>
+        <v>0.5513184715975464</v>
       </c>
       <c r="E258" t="n">
-        <v>967.830010559269</v>
+        <v>954.2125209312329</v>
       </c>
       <c r="F258" t="n">
-        <v>2230.900436164517</v>
+        <v>2175.052802849176</v>
       </c>
       <c r="G258" t="n">
-        <v>2.260908558896017</v>
+        <v>2.274496529747697</v>
+      </c>
+      <c r="H258" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="259">
@@ -7524,16 +8300,19 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-0.04019531604179277</v>
+        <v>-0.03760520576967946</v>
       </c>
       <c r="E259" t="n">
-        <v>1081.667254651117</v>
+        <v>1084.980201720338</v>
       </c>
       <c r="F259" t="n">
-        <v>3255.552782555921</v>
+        <v>3305.507219900791</v>
       </c>
       <c r="G259" t="n">
-        <v>2.093081253669425</v>
+        <v>2.101976750887919</v>
+      </c>
+      <c r="H259" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="260">
@@ -7553,16 +8332,19 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-0.0723366297019068</v>
+        <v>-0.06929768432563327</v>
       </c>
       <c r="E260" t="n">
-        <v>1111.584516423496</v>
+        <v>1112.127942051827</v>
       </c>
       <c r="F260" t="n">
-        <v>3305.068230065222</v>
+        <v>3355.359941542323</v>
       </c>
       <c r="G260" t="n">
-        <v>2.04233365472429</v>
+        <v>2.04868771894531</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -7582,16 +8364,19 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-0.09078422191445717</v>
+        <v>-0.08680173053692247</v>
       </c>
       <c r="E261" t="n">
-        <v>1133.83444312917</v>
+        <v>1133.910336837784</v>
       </c>
       <c r="F261" t="n">
-        <v>3332.158844240425</v>
+        <v>3382.537740057329</v>
       </c>
       <c r="G261" t="n">
-        <v>2.238367660785931</v>
+        <v>2.235385038503519</v>
+      </c>
+      <c r="H261" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="262">
@@ -7609,16 +8394,19 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.2295887809690887</v>
+        <v>0.204016738054511</v>
       </c>
       <c r="E262" t="n">
-        <v>1499.014782236917</v>
+        <v>1404.485832377634</v>
       </c>
       <c r="F262" t="n">
-        <v>2705.798876140491</v>
+        <v>2713.149413843871</v>
       </c>
       <c r="G262" t="n">
-        <v>3.000586959540698</v>
+        <v>2.682961444619102</v>
+      </c>
+      <c r="H262" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="263">
@@ -7636,16 +8424,19 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0.2314380954479228</v>
+        <v>0.2044727521445153</v>
       </c>
       <c r="E263" t="n">
-        <v>1487.222589265751</v>
+        <v>1402.078817928291</v>
       </c>
       <c r="F263" t="n">
-        <v>2702.549391073327</v>
+        <v>2712.372128898325</v>
       </c>
       <c r="G263" t="n">
-        <v>2.990359506166595</v>
+        <v>2.678582763026586</v>
+      </c>
+      <c r="H263" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="264">
@@ -7663,16 +8454,19 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0.2340582459313095</v>
+        <v>0.2048373442521002</v>
       </c>
       <c r="E264" t="n">
-        <v>1475.181017945082</v>
+        <v>1399.493902944471</v>
       </c>
       <c r="F264" t="n">
-        <v>2697.93874650482</v>
+        <v>2711.750514236739</v>
       </c>
       <c r="G264" t="n">
-        <v>2.948561455193562</v>
+        <v>2.688249638811069</v>
+      </c>
+      <c r="H264" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="265">
@@ -7690,16 +8484,19 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0.09550655220327797</v>
+        <v>0.09468364284698705</v>
       </c>
       <c r="E265" t="n">
-        <v>1455.732262893529</v>
+        <v>1411.840253386141</v>
       </c>
       <c r="F265" t="n">
-        <v>2931.817449748508</v>
+        <v>2893.489608675145</v>
       </c>
       <c r="G265" t="n">
-        <v>2.746125940581579</v>
+        <v>2.725150064182352</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -7717,16 +8514,19 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0.1409819043110194</v>
+        <v>0.05406192045079872</v>
       </c>
       <c r="E266" t="n">
-        <v>1172.858051427704</v>
+        <v>1115.513594899465</v>
       </c>
       <c r="F266" t="n">
-        <v>2857.165313582948</v>
+        <v>2957.693029217538</v>
       </c>
       <c r="G266" t="n">
-        <v>1.939173247692426</v>
+        <v>1.802758217089194</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7744,16 +8544,19 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0.3320881814402206</v>
+        <v>0.2125576132115637</v>
       </c>
       <c r="E267" t="n">
-        <v>1123.429540230176</v>
+        <v>1157.251957468193</v>
       </c>
       <c r="F267" t="n">
-        <v>2519.380577382539</v>
+        <v>2698.554152997874</v>
       </c>
       <c r="G267" t="n">
-        <v>2.008250484825088</v>
+        <v>1.949471815713797</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -7771,16 +8574,19 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0.3256212835557628</v>
+        <v>0.1685086553643438</v>
       </c>
       <c r="E268" t="n">
-        <v>1160.174352106995</v>
+        <v>1254.954553570847</v>
       </c>
       <c r="F268" t="n">
-        <v>2531.547849314308</v>
+        <v>2773.004726532263</v>
       </c>
       <c r="G268" t="n">
-        <v>2.296401060659067</v>
+        <v>2.270124526012962</v>
+      </c>
+      <c r="H268" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -7798,16 +8604,19 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0.27343059716458</v>
+        <v>0.1163310311388883</v>
       </c>
       <c r="E269" t="n">
-        <v>1138.182970425431</v>
+        <v>1173.374089895872</v>
       </c>
       <c r="F269" t="n">
-        <v>2627.68175308389</v>
+        <v>2858.686598162818</v>
       </c>
       <c r="G269" t="n">
-        <v>2.098841853107741</v>
+        <v>2.049619320271134</v>
+      </c>
+      <c r="H269" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="270">
@@ -7825,16 +8634,19 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0.3562633920288275</v>
+        <v>0.2989410456130508</v>
       </c>
       <c r="E270" t="n">
-        <v>1134.512605124896</v>
+        <v>1134.463647668749</v>
       </c>
       <c r="F270" t="n">
-        <v>2473.365600990243</v>
+        <v>2546.23810876007</v>
       </c>
       <c r="G270" t="n">
-        <v>2.341437840758826</v>
+        <v>2.363681590621715</v>
+      </c>
+      <c r="H270" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="271">
@@ -7852,16 +8664,19 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0.440186284406497</v>
+        <v>0.3925785620459759</v>
       </c>
       <c r="E271" t="n">
-        <v>993.063003244401</v>
+        <v>1029.775544785199</v>
       </c>
       <c r="F271" t="n">
-        <v>2306.513389638585</v>
+        <v>2370.100714469559</v>
       </c>
       <c r="G271" t="n">
-        <v>2.046788105305075</v>
+        <v>2.078249884835823</v>
+      </c>
+      <c r="H271" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="272">
@@ -7879,16 +8694,19 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-0.02522404221319108</v>
+        <v>-0.01458861661895949</v>
       </c>
       <c r="E272" t="n">
-        <v>1083.811696808333</v>
+        <v>1060.478434751015</v>
       </c>
       <c r="F272" t="n">
-        <v>3121.358154622474</v>
+        <v>3063.139220776199</v>
       </c>
       <c r="G272" t="n">
-        <v>1.889392273956243</v>
+        <v>1.95669818038015</v>
+      </c>
+      <c r="H272" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="273">
@@ -7906,16 +8724,19 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-0.08799331017859968</v>
+        <v>-0.07595389799759045</v>
       </c>
       <c r="E273" t="n">
-        <v>1141.821766044464</v>
+        <v>1085.573105727348</v>
       </c>
       <c r="F273" t="n">
-        <v>3215.491199454842</v>
+        <v>3154.413153724167</v>
       </c>
       <c r="G273" t="n">
-        <v>1.958425942422332</v>
+        <v>1.931163257331964</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7933,16 +8754,19 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-0.08212903363332313</v>
+        <v>-0.06941225422908448</v>
       </c>
       <c r="E274" t="n">
-        <v>1139.221821293339</v>
+        <v>1094.705223312319</v>
       </c>
       <c r="F274" t="n">
-        <v>3206.813752959269</v>
+        <v>3144.809346617474</v>
       </c>
       <c r="G274" t="n">
-        <v>2.020044363394809</v>
+        <v>2.067614060425124</v>
+      </c>
+      <c r="H274" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="275">
@@ -7960,16 +8784,19 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0.209348005263679</v>
+        <v>0.2082934730763156</v>
       </c>
       <c r="E275" t="n">
-        <v>1559.430785528611</v>
+        <v>1479.340118779172</v>
       </c>
       <c r="F275" t="n">
-        <v>3658.05976402323</v>
+        <v>2974.764054774571</v>
       </c>
       <c r="G275" t="n">
-        <v>2.759143516689199</v>
+        <v>2.876854138779415</v>
+      </c>
+      <c r="H275" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="276">
@@ -7987,16 +8814,19 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.2088350938368916</v>
+        <v>0.2086610893273841</v>
       </c>
       <c r="E276" t="n">
-        <v>1553.191758142023</v>
+        <v>1475.570776757573</v>
       </c>
       <c r="F276" t="n">
-        <v>3659.246099144266</v>
+        <v>2974.073332551415</v>
       </c>
       <c r="G276" t="n">
-        <v>2.746658785398421</v>
+        <v>2.86852530564487</v>
+      </c>
+      <c r="H276" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="277">
@@ -8014,16 +8844,19 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0.2077959974995865</v>
+        <v>0.2085008359111492</v>
       </c>
       <c r="E277" t="n">
-        <v>1547.434149078099</v>
+        <v>1470.4241184213</v>
       </c>
       <c r="F277" t="n">
-        <v>3661.648292128223</v>
+        <v>2974.374455925006</v>
       </c>
       <c r="G277" t="n">
-        <v>2.739754188470988</v>
+        <v>2.845514392724864</v>
+      </c>
+      <c r="H277" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="278">
@@ -8041,16 +8874,19 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.0695759382416461</v>
+        <v>0.09156733626272984</v>
       </c>
       <c r="E278" t="n">
-        <v>1563.976442758627</v>
+        <v>1446.42581776797</v>
       </c>
       <c r="F278" t="n">
-        <v>3968.245913208488</v>
+        <v>3186.52098669852</v>
       </c>
       <c r="G278" t="n">
-        <v>2.629611206538204</v>
+        <v>2.709765328374365</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -8068,16 +8904,19 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-0.3140299462960423</v>
+        <v>-0.4409910691691934</v>
       </c>
       <c r="E279" t="n">
-        <v>1734.96707690901</v>
+        <v>1454.048972486917</v>
       </c>
       <c r="F279" t="n">
-        <v>4715.858249082165</v>
+        <v>4013.294750591833</v>
       </c>
       <c r="G279" t="n">
-        <v>2.151713185292054</v>
+        <v>2.082582560293928</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -8095,16 +8934,19 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0.197836309035945</v>
+        <v>0.04768026297342487</v>
       </c>
       <c r="E280" t="n">
-        <v>1368.076250409658</v>
+        <v>1196.279101950167</v>
       </c>
       <c r="F280" t="n">
-        <v>3684.593750764102</v>
+        <v>3262.584774001975</v>
       </c>
       <c r="G280" t="n">
-        <v>2.065558134019752</v>
+        <v>2.034241008828861</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -8122,16 +8964,19 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0.1735805033922124</v>
+        <v>0.0832689250863623</v>
       </c>
       <c r="E281" t="n">
-        <v>1396.957992243103</v>
+        <v>1245.060897269983</v>
       </c>
       <c r="F281" t="n">
-        <v>3739.886207518868</v>
+        <v>3201.042121956561</v>
       </c>
       <c r="G281" t="n">
-        <v>2.237129958457857</v>
+        <v>2.271080128527981</v>
+      </c>
+      <c r="H281" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="282">
@@ -8149,16 +8994,19 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.1412779789975371</v>
+        <v>0.1265881047687668</v>
       </c>
       <c r="E282" t="n">
-        <v>1406.163634386153</v>
+        <v>1229.068022299969</v>
       </c>
       <c r="F282" t="n">
-        <v>3812.276667725093</v>
+        <v>3124.495932486872</v>
       </c>
       <c r="G282" t="n">
-        <v>2.104237204456869</v>
+        <v>2.144851971515236</v>
+      </c>
+      <c r="H282" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="283">
@@ -8176,16 +9024,19 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0.2642568305156586</v>
+        <v>0.3097168827179326</v>
       </c>
       <c r="E283" t="n">
-        <v>1279.84755953895</v>
+        <v>1144.669923045094</v>
       </c>
       <c r="F283" t="n">
-        <v>3528.752757266131</v>
+        <v>2777.691681899874</v>
       </c>
       <c r="G283" t="n">
-        <v>2.235680918904583</v>
+        <v>2.251531059778007</v>
+      </c>
+      <c r="H283" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="284">
@@ -8203,16 +9054,19 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.2912897172143961</v>
+        <v>0.2518173474190648</v>
       </c>
       <c r="E284" t="n">
-        <v>1214.266951078179</v>
+        <v>1060.965664698286</v>
       </c>
       <c r="F284" t="n">
-        <v>3463.318861439393</v>
+        <v>2891.839793782106</v>
       </c>
       <c r="G284" t="n">
-        <v>2.094436070902707</v>
+        <v>2.091844502545591</v>
+      </c>
+      <c r="H284" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="285">
@@ -8230,16 +9084,19 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-0.007499683514692768</v>
+        <v>-0.01465613135053001</v>
       </c>
       <c r="E285" t="n">
-        <v>1236.080814126876</v>
+        <v>1096.399819357522</v>
       </c>
       <c r="F285" t="n">
-        <v>4129.339307233821</v>
+        <v>3367.672530465431</v>
       </c>
       <c r="G285" t="n">
-        <v>1.820633904165713</v>
+        <v>2.195898597654145</v>
+      </c>
+      <c r="H285" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="286">
@@ -8257,16 +9114,19 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-0.06364458142559526</v>
+        <v>-0.06810417580610362</v>
       </c>
       <c r="E286" t="n">
-        <v>1290.293647722228</v>
+        <v>1127.926030855613</v>
       </c>
       <c r="F286" t="n">
-        <v>4242.837288807447</v>
+        <v>3455.232045502108</v>
       </c>
       <c r="G286" t="n">
-        <v>1.933686567837928</v>
+        <v>1.931559696293933</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -8284,16 +9144,19 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-0.05828289658719576</v>
+        <v>-0.06158608484973982</v>
       </c>
       <c r="E287" t="n">
-        <v>1291.434412863649</v>
+        <v>1136.27749255364</v>
       </c>
       <c r="F287" t="n">
-        <v>4232.130001064194</v>
+        <v>3444.673159107818</v>
       </c>
       <c r="G287" t="n">
-        <v>2.085253988306097</v>
+        <v>2.138841451023744</v>
+      </c>
+      <c r="H287" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="288">
@@ -8311,16 +9174,19 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0.2803648696001587</v>
+        <v>0.2276188417766787</v>
       </c>
       <c r="E288" t="n">
-        <v>1408.83758496359</v>
+        <v>1349.820314668386</v>
       </c>
       <c r="F288" t="n">
-        <v>2601.893875828968</v>
+        <v>2813.863651697759</v>
       </c>
       <c r="G288" t="n">
-        <v>2.875355978645969</v>
+        <v>2.92867957608921</v>
+      </c>
+      <c r="H288" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="289">
@@ -8338,16 +9204,19 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.2826744682686956</v>
+        <v>0.2278962553722056</v>
       </c>
       <c r="E289" t="n">
-        <v>1398.104039373749</v>
+        <v>1346.822193760338</v>
       </c>
       <c r="F289" t="n">
-        <v>2597.715258276866</v>
+        <v>2813.358283247892</v>
       </c>
       <c r="G289" t="n">
-        <v>2.863569199116419</v>
+        <v>2.917665823352637</v>
+      </c>
+      <c r="H289" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="290">
@@ -8365,16 +9234,19 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0.2855885485144231</v>
+        <v>0.2282014919017851</v>
       </c>
       <c r="E290" t="n">
-        <v>1387.359376045542</v>
+        <v>1343.875539364102</v>
       </c>
       <c r="F290" t="n">
-        <v>2592.433378484723</v>
+        <v>2812.802124432965</v>
       </c>
       <c r="G290" t="n">
-        <v>2.855025657421919</v>
+        <v>2.87081925145596</v>
+      </c>
+      <c r="H290" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="291">
@@ -8392,16 +9264,19 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0.104553818506691</v>
+        <v>0.0976020120192449</v>
       </c>
       <c r="E291" t="n">
-        <v>1412.670878807696</v>
+        <v>1353.75795851433</v>
       </c>
       <c r="F291" t="n">
-        <v>2902.372465120357</v>
+        <v>3041.489161680956</v>
       </c>
       <c r="G291" t="n">
-        <v>2.818128776936377</v>
+        <v>2.677016399217476</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -8419,16 +9294,19 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.03743535622595651</v>
+        <v>-0.1316968056056373</v>
       </c>
       <c r="E292" t="n">
-        <v>1186.729125366266</v>
+        <v>1249.361362840371</v>
       </c>
       <c r="F292" t="n">
-        <v>3009.181294749545</v>
+        <v>3406.059725267959</v>
       </c>
       <c r="G292" t="n">
-        <v>2.06759338974217</v>
+        <v>1.965304087942632</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -8446,16 +9324,19 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.406822766002737</v>
+        <v>0.2772579413482058</v>
       </c>
       <c r="E293" t="n">
-        <v>1070.690523010228</v>
+        <v>1021.908694281846</v>
       </c>
       <c r="F293" t="n">
-        <v>2362.248805802767</v>
+        <v>2721.942071246691</v>
       </c>
       <c r="G293" t="n">
-        <v>2.110783667531934</v>
+        <v>1.929312343171044</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -8473,16 +9354,19 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0.4031188607618331</v>
+        <v>0.3152971563864032</v>
       </c>
       <c r="E294" t="n">
-        <v>1077.666044407498</v>
+        <v>1131.123306902704</v>
       </c>
       <c r="F294" t="n">
-        <v>2369.612481677912</v>
+        <v>2649.343557969034</v>
       </c>
       <c r="G294" t="n">
-        <v>2.50162590320169</v>
+        <v>2.302410521100217</v>
+      </c>
+      <c r="H294" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="295">
@@ -8500,16 +9384,19 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.4141341813962379</v>
+        <v>0.3020994601370908</v>
       </c>
       <c r="E295" t="n">
-        <v>1000.838159350645</v>
+        <v>1027.013390701828</v>
       </c>
       <c r="F295" t="n">
-        <v>2347.645300336291</v>
+        <v>2674.754834589672</v>
       </c>
       <c r="G295" t="n">
-        <v>2.176315322521002</v>
+        <v>2.010875639978564</v>
+      </c>
+      <c r="H295" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="296">
@@ -8527,16 +9414,19 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0.4628947861482892</v>
+        <v>0.3787677544242456</v>
       </c>
       <c r="E296" t="n">
-        <v>1022.375330709813</v>
+        <v>1065.015688809596</v>
       </c>
       <c r="F296" t="n">
-        <v>2247.82804275159</v>
+        <v>2523.56333601928</v>
       </c>
       <c r="G296" t="n">
-        <v>2.310851548473315</v>
+        <v>2.42740590057615</v>
+      </c>
+      <c r="H296" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="297">
@@ -8554,16 +9444,19 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0.5220645701245448</v>
+        <v>0.3515253362951776</v>
       </c>
       <c r="E297" t="n">
-        <v>933.3538653211011</v>
+        <v>984.0611988768278</v>
       </c>
       <c r="F297" t="n">
-        <v>2120.401066793753</v>
+        <v>2578.301613173196</v>
       </c>
       <c r="G297" t="n">
-        <v>2.208935901820831</v>
+        <v>2.159339642782339</v>
+      </c>
+      <c r="H297" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="298">
@@ -8581,16 +9474,19 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-0.003209371869600242</v>
+        <v>-0.01506501265440563</v>
       </c>
       <c r="E298" t="n">
-        <v>976.7580664153428</v>
+        <v>1007.371891457305</v>
       </c>
       <c r="F298" t="n">
-        <v>3072.056445903278</v>
+        <v>3225.775532040208</v>
       </c>
       <c r="G298" t="n">
-        <v>1.846148072838379</v>
+        <v>2.018122149898264</v>
+      </c>
+      <c r="H298" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="299">
@@ -8608,16 +9504,19 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-0.06151146680750674</v>
+        <v>-0.05957322031969037</v>
       </c>
       <c r="E299" t="n">
-        <v>1026.42303804225</v>
+        <v>1032.34741244355</v>
       </c>
       <c r="F299" t="n">
-        <v>3160.063035363304</v>
+        <v>3295.738161453604</v>
       </c>
       <c r="G299" t="n">
-        <v>1.945100493387643</v>
+        <v>1.862634280138879</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -8635,16 +9534,19 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-0.05485010147588087</v>
+        <v>-0.05663944849901692</v>
       </c>
       <c r="E300" t="n">
-        <v>1029.870440955709</v>
+        <v>1043.852157335077</v>
       </c>
       <c r="F300" t="n">
-        <v>3150.132166202746</v>
+        <v>3291.172339222707</v>
       </c>
       <c r="G300" t="n">
-        <v>2.066878139423097</v>
+        <v>2.032641880510389</v>
+      </c>
+      <c r="H300" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="301">
@@ -8662,16 +9564,19 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0.1754972193220675</v>
+        <v>0.1915750999816246</v>
       </c>
       <c r="E301" t="n">
-        <v>1316.741068301994</v>
+        <v>1457.428680953457</v>
       </c>
       <c r="F301" t="n">
-        <v>2276.40280627935</v>
+        <v>3051.657282950854</v>
       </c>
       <c r="G301" t="n">
-        <v>3.055086825456224</v>
+        <v>2.741937689802957</v>
+      </c>
+      <c r="H301" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="302">
@@ -8689,16 +9594,19 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0.1806226126401214</v>
+        <v>0.1919849424190538</v>
       </c>
       <c r="E302" t="n">
-        <v>1304.887752992983</v>
+        <v>1454.423063549692</v>
       </c>
       <c r="F302" t="n">
-        <v>2269.316324085688</v>
+        <v>3050.88364447556</v>
       </c>
       <c r="G302" t="n">
-        <v>3.023077365595401</v>
+        <v>2.742768037672138</v>
+      </c>
+      <c r="H302" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="303">
@@ -8716,16 +9624,19 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.1842154203003483</v>
+        <v>0.1923665653717446</v>
       </c>
       <c r="E303" t="n">
-        <v>1294.822664676999</v>
+        <v>1451.718053955754</v>
       </c>
       <c r="F303" t="n">
-        <v>2264.335606770375</v>
+        <v>3050.163098046034</v>
       </c>
       <c r="G303" t="n">
-        <v>3.029621618851422</v>
+        <v>2.741113283448704</v>
+      </c>
+      <c r="H303" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="304">
@@ -8743,16 +9654,19 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0.1031266005859006</v>
+        <v>0.08276366662852563</v>
       </c>
       <c r="E304" t="n">
-        <v>1209.629947941855</v>
+        <v>1442.688989349645</v>
       </c>
       <c r="F304" t="n">
-        <v>2374.207221761627</v>
+        <v>3250.547692632184</v>
       </c>
       <c r="G304" t="n">
-        <v>2.62617812551097</v>
+        <v>2.720248991554722</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -8770,16 +9684,19 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-0.4816898013391051</v>
+        <v>0.06963074969067251</v>
       </c>
       <c r="E305" t="n">
-        <v>1159.95996298203</v>
+        <v>1265.225042039604</v>
       </c>
       <c r="F305" t="n">
-        <v>3051.628735708698</v>
+        <v>3273.735529010422</v>
       </c>
       <c r="G305" t="n">
-        <v>2.102177254835716</v>
+        <v>2.019632616547035</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -8797,16 +9714,19 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0.2191506490807835</v>
+        <v>0.3272324278255687</v>
       </c>
       <c r="E306" t="n">
-        <v>891.1673319615646</v>
+        <v>1104.282741752615</v>
       </c>
       <c r="F306" t="n">
-        <v>2215.321063337053</v>
+        <v>2783.866742281692</v>
       </c>
       <c r="G306" t="n">
-        <v>1.907222447548962</v>
+        <v>1.932053892152586</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -8824,16 +9744,19 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0.233450671907882</v>
+        <v>0.2371353325328892</v>
       </c>
       <c r="E307" t="n">
-        <v>944.739719157889</v>
+        <v>1181.981199068043</v>
       </c>
       <c r="F307" t="n">
-        <v>2194.942277355609</v>
+        <v>2964.419545437819</v>
       </c>
       <c r="G307" t="n">
-        <v>2.288717398921437</v>
+        <v>2.261857960745194</v>
+      </c>
+      <c r="H307" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="308">
@@ -8851,16 +9774,19 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0.1413147999797839</v>
+        <v>0.4350975709800305</v>
       </c>
       <c r="E308" t="n">
-        <v>936.6556004986055</v>
+        <v>1003.103970955317</v>
       </c>
       <c r="F308" t="n">
-        <v>2323.111415027236</v>
+        <v>2550.954067444832</v>
       </c>
       <c r="G308" t="n">
-        <v>1.928526623842519</v>
+        <v>2.007027039989475</v>
+      </c>
+      <c r="H308" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="309">
@@ -8878,16 +9804,19 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0.3556582021123225</v>
+        <v>0.3616484163504139</v>
       </c>
       <c r="E309" t="n">
-        <v>850.9808945985552</v>
+        <v>1115.283658976242</v>
       </c>
       <c r="F309" t="n">
-        <v>2012.385605937034</v>
+        <v>2711.726515784962</v>
       </c>
       <c r="G309" t="n">
-        <v>2.287237224291951</v>
+        <v>2.364096299272898</v>
+      </c>
+      <c r="H309" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="310">
@@ -8905,16 +9834,19 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0.3842073787494874</v>
+        <v>0.3999064016669464</v>
       </c>
       <c r="E310" t="n">
-        <v>804.8144645256762</v>
+        <v>999.7910772884616</v>
       </c>
       <c r="F310" t="n">
-        <v>1967.298633627645</v>
+        <v>2629.210842589996</v>
       </c>
       <c r="G310" t="n">
-        <v>2.059861226533194</v>
+        <v>2.009824771406881</v>
+      </c>
+      <c r="H310" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="311">
@@ -8932,16 +9864,19 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0.01099531148697019</v>
+        <v>-0.01508025623932108</v>
       </c>
       <c r="E311" t="n">
-        <v>845.5807218084664</v>
+        <v>1067.290906076541</v>
       </c>
       <c r="F311" t="n">
-        <v>2493.171910325541</v>
+        <v>3419.527557476662</v>
       </c>
       <c r="G311" t="n">
-        <v>1.821550119849438</v>
+        <v>1.954707077911646</v>
+      </c>
+      <c r="H311" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="312">
@@ -8959,16 +9894,19 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-0.07733643796432799</v>
+        <v>-0.0643585903250703</v>
       </c>
       <c r="E312" t="n">
-        <v>902.6199681504281</v>
+        <v>1100.40463664424</v>
       </c>
       <c r="F312" t="n">
-        <v>2602.128410618114</v>
+        <v>3501.546535644284</v>
       </c>
       <c r="G312" t="n">
-        <v>1.810325748496983</v>
+        <v>1.892464667007403</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -8986,16 +9924,19 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-0.06638527053087384</v>
+        <v>-0.06053427060339489</v>
       </c>
       <c r="E313" t="n">
-        <v>901.3829399139114</v>
+        <v>1106.650242358634</v>
       </c>
       <c r="F313" t="n">
-        <v>2588.869260583583</v>
+        <v>3495.250215964777</v>
       </c>
       <c r="G313" t="n">
-        <v>1.923544738883135</v>
+        <v>1.982890640591074</v>
+      </c>
+      <c r="H313" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="314">
@@ -9015,16 +9956,19 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0.2236997187887485</v>
+        <v>0.2078760382222825</v>
       </c>
       <c r="E314" t="n">
-        <v>1446.006055257778</v>
+        <v>1422.768736694662</v>
       </c>
       <c r="F314" t="n">
-        <v>2810.53883056801</v>
+        <v>2888.358600816764</v>
       </c>
       <c r="G314" t="n">
-        <v>2.922543320083023</v>
+        <v>2.807608212322671</v>
+      </c>
+      <c r="H314" t="n">
+        <v>482</v>
       </c>
     </row>
     <row r="315">
@@ -9044,16 +9988,19 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.2258925675484078</v>
+        <v>0.2082537598157897</v>
       </c>
       <c r="E315" t="n">
-        <v>1435.851534943627</v>
+        <v>1419.723712998974</v>
       </c>
       <c r="F315" t="n">
-        <v>2807.206768145037</v>
+        <v>2887.671847293298</v>
       </c>
       <c r="G315" t="n">
-        <v>2.905916214069209</v>
+        <v>2.801885482424058</v>
+      </c>
+      <c r="H315" t="n">
+        <v>478</v>
       </c>
     </row>
     <row r="316">
@@ -9073,16 +10020,19 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0.2279145530614169</v>
+        <v>0.2084765593591948</v>
       </c>
       <c r="E316" t="n">
-        <v>1426.19930193643</v>
+        <v>1416.377903671407</v>
       </c>
       <c r="F316" t="n">
-        <v>2804.089005972035</v>
+        <v>2887.272548160186</v>
       </c>
       <c r="G316" t="n">
-        <v>2.893240729984472</v>
+        <v>2.78642414161015</v>
+      </c>
+      <c r="H316" t="n">
+        <v>471</v>
       </c>
     </row>
     <row r="317">
@@ -9102,16 +10052,19 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0.09319072738437892</v>
+        <v>0.09165416443937185</v>
       </c>
       <c r="E317" t="n">
-        <v>1410.502383100427</v>
+        <v>1413.678254754522</v>
       </c>
       <c r="F317" t="n">
-        <v>3044.160762459745</v>
+        <v>3093.011862421701</v>
       </c>
       <c r="G317" t="n">
-        <v>2.705011012391782</v>
+        <v>2.708045195832229</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -9131,16 +10084,19 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-0.1543256217745429</v>
+        <v>-0.1122488011583399</v>
       </c>
       <c r="E318" t="n">
-        <v>1313.628554171253</v>
+        <v>1271.037243066589</v>
       </c>
       <c r="F318" t="n">
-        <v>3408.458398280839</v>
+        <v>3412.695758521938</v>
       </c>
       <c r="G318" t="n">
-        <v>2.065164269390591</v>
+        <v>1.967569370468197</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -9160,16 +10116,19 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0.2889744763899215</v>
+        <v>0.2161820613396908</v>
       </c>
       <c r="E319" t="n">
-        <v>1113.340911402907</v>
+        <v>1119.930623863205</v>
       </c>
       <c r="F319" t="n">
-        <v>2695.386049321615</v>
+        <v>2866.736935132058</v>
       </c>
       <c r="G319" t="n">
-        <v>2.022953683481434</v>
+        <v>1.961269764966572</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -9189,16 +10148,19 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.2839428299044226</v>
+        <v>0.2010525173424996</v>
       </c>
       <c r="E320" t="n">
-        <v>1144.884526978871</v>
+        <v>1203.279989202894</v>
       </c>
       <c r="F320" t="n">
-        <v>2708.997203966674</v>
+        <v>2896.952487973919</v>
       </c>
       <c r="G320" t="n">
-        <v>2.330968580310012</v>
+        <v>2.276368284096589</v>
+      </c>
+      <c r="H320" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="321">
@@ -9218,16 +10180,19 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.2425393893845347</v>
+        <v>0.2450290417561941</v>
       </c>
       <c r="E321" t="n">
-        <v>1120.460091165209</v>
+        <v>1108.139868463247</v>
       </c>
       <c r="F321" t="n">
-        <v>2777.678784043128</v>
+        <v>2802.222858171049</v>
       </c>
       <c r="G321" t="n">
-        <v>2.076980250982033</v>
+        <v>2.053093492938602</v>
+      </c>
+      <c r="H321" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="322">
@@ -9247,16 +10212,19 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.3597683027012745</v>
+        <v>0.3372685247764107</v>
       </c>
       <c r="E322" t="n">
-        <v>1071.929097493054</v>
+        <v>1114.85822962492</v>
       </c>
       <c r="F322" t="n">
-        <v>2565.58300173625</v>
+        <v>2639.804910616047</v>
       </c>
       <c r="G322" t="n">
-        <v>2.293801883107169</v>
+        <v>2.351678712562193</v>
+      </c>
+      <c r="H322" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="323">
@@ -9276,16 +10244,19 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.4094369876237313</v>
+        <v>0.3489569118567911</v>
       </c>
       <c r="E323" t="n">
-        <v>986.3745710423392</v>
+        <v>1018.648371412193</v>
       </c>
       <c r="F323" t="n">
-        <v>2464.382987874844</v>
+        <v>2617.363241003714</v>
       </c>
       <c r="G323" t="n">
-        <v>2.102505326140452</v>
+        <v>2.084814700392658</v>
+      </c>
+      <c r="H323" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="324">
@@ -9305,16 +10276,19 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-0.006234446527628473</v>
+        <v>-0.01484750421580405</v>
       </c>
       <c r="E324" t="n">
-        <v>1035.557824789754</v>
+        <v>1057.885262910596</v>
       </c>
       <c r="F324" t="n">
-        <v>3203.981454521278</v>
+        <v>3269.028710189625</v>
       </c>
       <c r="G324" t="n">
-        <v>1.844431092702443</v>
+        <v>2.031356501461051</v>
+      </c>
+      <c r="H324" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="325">
@@ -9334,16 +10308,19 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-0.07262144909400742</v>
+        <v>-0.06699747111211368</v>
       </c>
       <c r="E325" t="n">
-        <v>1090.289604989842</v>
+        <v>1086.562796417688</v>
       </c>
       <c r="F325" t="n">
-        <v>3305.129983560927</v>
+        <v>3351.732474081041</v>
       </c>
       <c r="G325" t="n">
-        <v>1.911884688036221</v>
+        <v>1.904455475193045</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -9363,16 +10340,19 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-0.0654118255568184</v>
+        <v>-0.06204301454530903</v>
       </c>
       <c r="E326" t="n">
-        <v>1090.477403756652</v>
+        <v>1095.371278889917</v>
       </c>
       <c r="F326" t="n">
-        <v>3294.486295202448</v>
+        <v>3343.976265228194</v>
       </c>
       <c r="G326" t="n">
-        <v>2.023930307501784</v>
+        <v>2.055497008137583</v>
+      </c>
+      <c r="H326" t="n">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
